--- a/Jarman Cook Family Tree Horizontal.xlsx
+++ b/Jarman Cook Family Tree Horizontal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d10dd3e0b4db544c/Family/Family Tree/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{96AD227C-661B-4EFA-9037-FE70FA20F1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C6C8D36-4D06-4FDC-97A2-2A440759C0AF}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{E154B492-3004-4B58-9717-E76019484D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5847A0D-3165-4DB7-A835-2F09C2135590}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="9270" windowWidth="29040" windowHeight="15990" xr2:uid="{9EDB0DEF-723F-49BA-A111-5FEC4E2F8786}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5195" uniqueCount="1427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5199" uniqueCount="1428">
   <si>
     <t>(???) Unknown</t>
   </si>
@@ -2512,30 +2512,6 @@
     <t>(94) Martha Whonsbon (née Williams) (b. 1857-03-14 Cressy, Tasmania, d. 1935-04-30)&lt;----------------</t>
   </si>
   <si>
-    <t>(164) Arthur Whonsbon (b. 1853-12-14 Longford, Tasmania, d. ????-??-??)&lt;----------------------------</t>
-  </si>
-  <si>
-    <t>(165) Elizabeth Whonsbon (b. 1855-04-20 Longford, Tasmania, d. ????-??-??)&lt;-------------------------</t>
-  </si>
-  <si>
-    <t>(166) Emma Panton (née Whonsbon) (b. 1858-09-07 Longford, Tasmania, d. ????-??-??)&lt;-----------------</t>
-  </si>
-  <si>
-    <t>(167) Recorder Whonsbon (b. 1860-05-22 Longford, Tasmania, d. ????-??-??)&lt;--------------------------</t>
-  </si>
-  <si>
-    <t>(168) Adelaide Whonsbon (b. 1862-03-17 Longford, Tasmania, d. ????-??-??)&lt;--------------------------</t>
-  </si>
-  <si>
-    <t>(169) Ada Charlotte Whonsbon (b. 1864-05-30 Longford, Tasmania, d. ????-??-??)&lt;---------------------</t>
-  </si>
-  <si>
-    <t>(170) Albert Charles Whonsbon (b. 1866-1-05 Longford Cressy, Tasmania, d. 1868-11-10)&lt;--------------</t>
-  </si>
-  <si>
-    <t>(171) Laura Louise Whonsbon (b. 1868-10-03) Longford Cressy, Tasmania, d. ????-??-??)&lt;--------------</t>
-  </si>
-  <si>
     <t>(145) Owen Griffith Hughes (b. 1837-11-15 Angelsey Wales, UK, d. 1911-08-31)&lt;-----------------------</t>
   </si>
   <si>
@@ -2567,9 +2543,6 @@
   </si>
   <si>
     <t>(161) Prescilla King Knowles (née Frost) (b. 1840-09-15 East Anglia, England, d. 1900-10-30)&lt;-------</t>
-  </si>
-  <si>
-    <t>(???) George King Frost &lt;---------------------------------------------------------------------------</t>
   </si>
   <si>
     <t>(163) Esther Wright (née Platt)(b. 1869-??-?? Adelaide, d. 1940-??-?? )&lt;----------------------------</t>
@@ -3719,9 +3692,6 @@
     <t>(189) Harry Garnet Cook (b. 1882-??-??? Castlemaine Victoria, d. 1955-05-21)&lt;------------------------------------------------------------------------------------------------</t>
   </si>
   <si>
-    <t>(???) Stanley Frederick Williamm Blakey (1898-??-??, d. 1899-05-??)</t>
-  </si>
-  <si>
     <t>(205) Henry Cook (b. ????-??-??, d. ????-??-??)&lt;--------------------------------------------------------------------------------------</t>
   </si>
   <si>
@@ -4085,21 +4055,6 @@
     <t>(185) Robert Henry Peacock (b. 1654-??-??, d. 1707-07-10)&lt;------------------</t>
   </si>
   <si>
-    <t>(???) John Peacock (b. 1696-03-25, d. ????-??-??)-----------------------------------------</t>
-  </si>
-  <si>
-    <t>(???) Joseph Peacock (b. 1693-09-13, d. 1693-09-17)----------------------------------------</t>
-  </si>
-  <si>
-    <t>(???) Michael Peacock (b. 1689-??-??, d. 1689-12-14)---------------------------------</t>
-  </si>
-  <si>
-    <t>(???) Margaret Peacock (b. 1684-06-24, d. 168611-26)---------------------------------</t>
-  </si>
-  <si>
-    <t>(???) Oliver Peacock (b. 1681-??-??, d. ????-??-??)----------------------------------</t>
-  </si>
-  <si>
     <t>(186) Mary Peacock (nee Wicks) (b. ????-??-??, d. ????-??-??)&lt;--------------------------</t>
   </si>
   <si>
@@ -4133,12 +4088,6 @@
     <t>--------| Married 1781-05-25 Melbourn Cambridgeshire</t>
   </si>
   <si>
-    <t>(???) Sarah Jarman (b. 1788-??-?? d. 1872-??-??)</t>
-  </si>
-  <si>
-    <t>(???) Thomas Jarman (b. 1785-??-?? d. ????-??-??)</t>
-  </si>
-  <si>
     <t>(206) Jessie McIntosh (b. 1863-??-?? Buningyong Victoria, d. ????-??-??)&lt;--------------------------------------------------------------------------------------</t>
   </si>
   <si>
@@ -4229,15 +4178,6 @@
     <t>(157) Benjamin Frost (b. 1834 East Anglia, England, d. ????-??-??)&lt;----------------------------------</t>
   </si>
   <si>
-    <t>(???) Mary Peacock (b. 1679-??-?? d. 1679-09-09)&lt;------------------------------------</t>
-  </si>
-  <si>
-    <t>(???) Robert Peacock (b. 1691-07-24 d. 1745-10-01)&lt;---------------------------------</t>
-  </si>
-  <si>
-    <t>(???) Richard Peacock (b. 1695-02-08 d. 1695-02-12)&lt;--------------------------------</t>
-  </si>
-  <si>
     <t>(106) Joseph Sankey Jnr. (b. 1855-07-22 Longford, Tasmania, d. 1912-12-13)&lt;------------------------------</t>
   </si>
   <si>
@@ -4313,18 +4253,12 @@
     <t>(220) William Newman (b. 1718-??-??, d. 1790-??-??)&lt;---------------------------------------------------------------</t>
   </si>
   <si>
-    <t>(???) John Keeling (b. 1785-??-??, d. 1861-??-??)</t>
-  </si>
-  <si>
     <t>(224) William Sankey (b. ????-??-??, d. ????-??-??)</t>
   </si>
   <si>
     <t>(226) George Leigh (b. 1795-??-?? Great Sankey Lancashire, d. 1845-??-??)</t>
   </si>
   <si>
-    <t>(227) Jane Sankey (b. ????-??-??, d. ????-??-??)</t>
-  </si>
-  <si>
     <t>(225) Hannah Sankey (b. 1794-??-?? Burtonwood Lancashire, d. ????-??-??)&lt;------------------------------------</t>
   </si>
   <si>
@@ -4371,6 +4305,75 @@
   </si>
   <si>
     <t>(232) Sarah Muggleton</t>
+  </si>
+  <si>
+    <t>(227) Jane Sankey (b. ????-??-??, d. ????-??-??)&lt;----------------------------------------------------</t>
+  </si>
+  <si>
+    <t>(233) Mary Peacock (b. 1679-??-?? d. 1679-09-09)&lt;------------------------------------</t>
+  </si>
+  <si>
+    <t>(234) Robert Peacock (b. 1691-07-24 d. 1745-10-01)&lt;---------------------------------</t>
+  </si>
+  <si>
+    <t>(235) Richard Peacock (b. 1695-02-08 d. 1695-02-12)&lt;--------------------------------</t>
+  </si>
+  <si>
+    <t>(236) John Peacock (b. 1696-03-25, d. ????-??-??)-----------------------------------------</t>
+  </si>
+  <si>
+    <t>(237) Joseph Peacock (b. 1693-09-13, d. 1693-09-17)----------------------------------------</t>
+  </si>
+  <si>
+    <t>(238) Michael Peacock (b. 1689-??-??, d. 1689-12-14)---------------------------------</t>
+  </si>
+  <si>
+    <t>(239) Margaret Peacock (b. 1684-06-24, d. 1686-11-26)---------------------------------</t>
+  </si>
+  <si>
+    <t>(240) Oliver Peacock (b. 1681-??-??, d. ????-??-??)----------------------------------</t>
+  </si>
+  <si>
+    <t>(241) Sarah Jarman (b. 1788-??-?? d. 1872-??-??)</t>
+  </si>
+  <si>
+    <t>(242) Thomas Jarman (b. 1785-??-?? d. ????-??-??)</t>
+  </si>
+  <si>
+    <t>(200) John Keeling (b. 1785-??-??, d. 1861-??-??)</t>
+  </si>
+  <si>
+    <t>(243) Marianne Sankey (b. ????-??-??, d. ????-??-??)</t>
+  </si>
+  <si>
+    <t>(164) Arthur Williams (b. 1853-12-14 Longford, Tasmania, d. ????-??-??)&lt;----------------------------</t>
+  </si>
+  <si>
+    <t>(165) Elizabeth Williams (b. 1855-04-20 Longford, Tasmania, d. ????-??-??)&lt;-------------------------</t>
+  </si>
+  <si>
+    <t>(166) Emma Panton (née Williams) (b. 1858-09-07 Longford, Tasmania, d. ????-??-??)&lt;-----------------</t>
+  </si>
+  <si>
+    <t>(167) Recorder Williams (b. 1860-05-22 Longford, Tasmania, d. ????-??-??)&lt;--------------------------</t>
+  </si>
+  <si>
+    <t>(168) Adelaide Williams (b. 1862-03-17 Longford, Tasmania, d. ????-??-??)&lt;--------------------------</t>
+  </si>
+  <si>
+    <t>(169) Ada Charlotte Williams (b. 1864-05-30 Longford, Tasmania, d. ????-??-??)&lt;---------------------</t>
+  </si>
+  <si>
+    <t>(170) Albert Charles Williams (b. 1866-1-05 Longford Cressy, Tasmania, d. 1868-11-10)&lt;--------------</t>
+  </si>
+  <si>
+    <t>(171) Laura Louise Williams (b. 1868-10-03) Longford Cressy, Tasmania, d. ????-??-??)&lt;--------------</t>
+  </si>
+  <si>
+    <t>(245) George King Frost (b. ????-??-??, d. ????-??-??)&lt;---------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>(211) Stanley Frederick Williamm Blakey (1898-??-??, d. 1899-05-??)</t>
   </si>
 </sst>
 </file>
@@ -4776,9 +4779,9 @@
   </sheetPr>
   <dimension ref="A1:L226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A129" sqref="A129"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D169" sqref="D169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4806,10 +4809,10 @@
         <v>702</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>703</v>
@@ -4818,99 +4821,99 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>1338</v>
+        <v>1323</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>1339</v>
+        <v>1324</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>1340</v>
+        <v>1325</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>1341</v>
+        <v>1326</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>1343</v>
+        <v>1328</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>1342</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K3" s="2" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K4" s="2" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K5" s="2" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="J6" s="3" t="s">
-        <v>1215</v>
+        <v>1205</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="J7" s="3" t="s">
-        <v>1320</v>
+        <v>1310</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="J8" s="2" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="J9" s="2" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="J10" s="2" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="J11" s="2" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="I12" s="2" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -4918,10 +4921,10 @@
         <v>1</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -4929,10 +4932,10 @@
         <v>1</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
@@ -4940,10 +4943,10 @@
         <v>1</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -4951,10 +4954,10 @@
         <v>1</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
     </row>
     <row r="17" spans="7:12" x14ac:dyDescent="0.35">
@@ -4962,64 +4965,64 @@
         <v>1</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
     </row>
     <row r="18" spans="7:12" x14ac:dyDescent="0.35">
       <c r="H18" s="3" t="s">
-        <v>1416</v>
+        <v>1394</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>1321</v>
+        <v>1311</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
     </row>
     <row r="19" spans="7:12" x14ac:dyDescent="0.35">
       <c r="H19" s="3" t="s">
-        <v>1417</v>
+        <v>1395</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
     </row>
     <row r="20" spans="7:12" x14ac:dyDescent="0.35">
       <c r="H20" s="3" t="s">
-        <v>1418</v>
+        <v>1396</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="7:12" x14ac:dyDescent="0.35">
       <c r="H21" s="2" t="s">
-        <v>1419</v>
+        <v>1397</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>1421</v>
+        <v>1399</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
     </row>
     <row r="22" spans="7:12" x14ac:dyDescent="0.35">
@@ -5030,13 +5033,13 @@
         <v>1</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>1330</v>
+        <v>1320</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
     </row>
     <row r="23" spans="7:12" x14ac:dyDescent="0.35">
@@ -5047,10 +5050,10 @@
         <v>1</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
     </row>
     <row r="24" spans="7:12" x14ac:dyDescent="0.35">
@@ -5061,10 +5064,10 @@
         <v>1</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
     </row>
     <row r="25" spans="7:12" x14ac:dyDescent="0.35">
@@ -5075,10 +5078,10 @@
         <v>1</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>1329</v>
+        <v>1319</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
     </row>
     <row r="26" spans="7:12" x14ac:dyDescent="0.35">
@@ -5089,10 +5092,10 @@
         <v>1</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>1379</v>
+        <v>1406</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
     </row>
     <row r="27" spans="7:12" x14ac:dyDescent="0.35">
@@ -5103,10 +5106,10 @@
         <v>1</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>1380</v>
+        <v>1407</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
     </row>
     <row r="28" spans="7:12" x14ac:dyDescent="0.35">
@@ -5117,10 +5120,10 @@
         <v>1</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>1381</v>
+        <v>1408</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
     </row>
     <row r="29" spans="7:12" x14ac:dyDescent="0.35">
@@ -5131,10 +5134,10 @@
         <v>1</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>1331</v>
+        <v>1409</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
     </row>
     <row r="30" spans="7:12" x14ac:dyDescent="0.35">
@@ -5145,10 +5148,10 @@
         <v>1</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>1332</v>
+        <v>1410</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
     </row>
     <row r="31" spans="7:12" x14ac:dyDescent="0.35">
@@ -5159,15 +5162,15 @@
         <v>1</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>1333</v>
+        <v>1411</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
     </row>
     <row r="32" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G32" s="3" t="s">
-        <v>1347</v>
+        <v>1414</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>1</v>
@@ -5176,15 +5179,15 @@
         <v>1</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>1334</v>
+        <v>1412</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
     </row>
     <row r="33" spans="5:12" x14ac:dyDescent="0.35">
       <c r="G33" s="3" t="s">
-        <v>1348</v>
+        <v>1415</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>1</v>
@@ -5193,28 +5196,28 @@
         <v>1</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>1335</v>
+        <v>1413</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
     </row>
     <row r="34" spans="5:12" x14ac:dyDescent="0.35">
       <c r="G34" s="2" t="s">
-        <v>1344</v>
+        <v>1329</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>1346</v>
+        <v>1331</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="2" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>1424</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="35" spans="5:12" x14ac:dyDescent="0.35">
@@ -5229,10 +5232,10 @@
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="2" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
     </row>
     <row r="36" spans="5:12" x14ac:dyDescent="0.35">
@@ -5246,10 +5249,10 @@
         <v>1</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>1336</v>
+        <v>1321</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
     </row>
     <row r="37" spans="5:12" x14ac:dyDescent="0.35">
@@ -5264,7 +5267,7 @@
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
     </row>
     <row r="38" spans="5:12" x14ac:dyDescent="0.35">
@@ -5279,7 +5282,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2" t="s">
-        <v>1337</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="39" spans="5:12" x14ac:dyDescent="0.35">
@@ -5306,7 +5309,7 @@
         <v>1</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>1422</v>
+        <v>1400</v>
       </c>
       <c r="L40" s="2"/>
     </row>
@@ -5321,7 +5324,7 @@
         <v>1</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="L41" s="2"/>
     </row>
@@ -5336,15 +5339,15 @@
         <v>1</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>1401</v>
+        <v>1381</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
     </row>
     <row r="43" spans="5:12" x14ac:dyDescent="0.35">
       <c r="F43" s="2" t="s">
-        <v>1415</v>
+        <v>1393</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>3</v>
@@ -5356,10 +5359,10 @@
         <v>1</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
     </row>
     <row r="44" spans="5:12" x14ac:dyDescent="0.35">
@@ -5373,13 +5376,13 @@
         <v>1</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>984</v>
+        <v>975</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>1402</v>
+        <v>1382</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>1400</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="45" spans="5:12" x14ac:dyDescent="0.35">
@@ -5393,10 +5396,10 @@
         <v>1</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>1406</v>
+        <v>1386</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
     </row>
     <row r="46" spans="5:12" x14ac:dyDescent="0.35">
@@ -5411,10 +5414,10 @@
         <v>1</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>1403</v>
+        <v>1383</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
     </row>
     <row r="47" spans="5:12" x14ac:dyDescent="0.35">
@@ -5429,10 +5432,10 @@
         <v>1</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>1405</v>
+        <v>1385</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
     </row>
     <row r="48" spans="5:12" x14ac:dyDescent="0.35">
@@ -5447,10 +5450,10 @@
         <v>1</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>1404</v>
+        <v>1384</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
     </row>
     <row r="49" spans="5:10" x14ac:dyDescent="0.35">
@@ -5458,7 +5461,7 @@
         <v>804</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>1</v>
@@ -5467,7 +5470,7 @@
         <v>1</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
     </row>
     <row r="50" spans="5:10" x14ac:dyDescent="0.35">
@@ -5475,7 +5478,7 @@
         <v>805</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>1</v>
@@ -5484,7 +5487,7 @@
         <v>1</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
     </row>
     <row r="51" spans="5:10" x14ac:dyDescent="0.35">
@@ -5492,7 +5495,7 @@
         <v>818</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>1</v>
@@ -5501,7 +5504,7 @@
         <v>1</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
     </row>
     <row r="52" spans="5:10" x14ac:dyDescent="0.35">
@@ -5509,7 +5512,7 @@
         <v>806</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>1</v>
@@ -5518,7 +5521,7 @@
         <v>1</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
     </row>
     <row r="53" spans="5:10" x14ac:dyDescent="0.35">
@@ -5526,10 +5529,10 @@
         <v>807</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>1</v>
@@ -5540,7 +5543,7 @@
         <v>808</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>1</v>
@@ -5551,7 +5554,7 @@
         <v>819</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>1</v>
@@ -5562,13 +5565,13 @@
         <v>809</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
     </row>
     <row r="57" spans="5:10" x14ac:dyDescent="0.35">
@@ -5576,7 +5579,7 @@
         <v>810</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>1</v>
@@ -5590,16 +5593,16 @@
         <v>811</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>1412</v>
+        <v>1390</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>1425</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="59" spans="5:10" x14ac:dyDescent="0.35">
@@ -5607,13 +5610,13 @@
         <v>812</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
     </row>
     <row r="60" spans="5:10" x14ac:dyDescent="0.35">
@@ -5621,13 +5624,13 @@
         <v>820</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>1345</v>
+        <v>1330</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
     </row>
     <row r="61" spans="5:10" x14ac:dyDescent="0.35">
@@ -5635,13 +5638,13 @@
         <v>813</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>1407</v>
+        <v>1416</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
     </row>
     <row r="62" spans="5:10" x14ac:dyDescent="0.35">
@@ -5649,13 +5652,13 @@
         <v>814</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>1287</v>
+        <v>1277</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>1426</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="63" spans="5:10" x14ac:dyDescent="0.35">
@@ -5674,7 +5677,7 @@
         <v>1</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>1413</v>
+        <v>1391</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>3</v>
@@ -5711,6 +5714,9 @@
     <row r="69" spans="4:8" x14ac:dyDescent="0.35">
       <c r="E69" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>1388</v>
       </c>
     </row>
     <row r="70" spans="4:8" x14ac:dyDescent="0.35">
@@ -5718,7 +5724,10 @@
         <v>787</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>975</v>
+        <v>966</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="4:8" x14ac:dyDescent="0.35">
@@ -5726,7 +5735,10 @@
         <v>788</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>975</v>
+        <v>966</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="4:8" x14ac:dyDescent="0.35">
@@ -5734,10 +5746,13 @@
         <v>789</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>975</v>
+        <v>966</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>1417</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>1409</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="4:8" x14ac:dyDescent="0.35">
@@ -5745,13 +5760,13 @@
         <v>792</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>1410</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>1</v>
+        <v>1405</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="4:8" x14ac:dyDescent="0.35">
@@ -5759,16 +5774,16 @@
         <v>790</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>1280</v>
+        <v>1270</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>1414</v>
+        <v>1392</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>1408</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="75" spans="4:8" x14ac:dyDescent="0.35">
@@ -5799,7 +5814,7 @@
         <v>1</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>1411</v>
+        <v>1389</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>3</v>
@@ -5830,7 +5845,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>1420</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="79" spans="4:8" x14ac:dyDescent="0.35">
@@ -5841,7 +5856,7 @@
         <v>817</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>1286</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="80" spans="4:8" x14ac:dyDescent="0.35">
@@ -5849,10 +5864,10 @@
         <v>1</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>1382</v>
+        <v>1362</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.35">
@@ -5860,7 +5875,7 @@
         <v>780</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>1</v>
@@ -5871,7 +5886,7 @@
         <v>781</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>1</v>
@@ -5882,10 +5897,10 @@
         <v>782</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1277</v>
+        <v>1267</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.35">
@@ -5914,7 +5929,7 @@
         <v>1</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.35">
@@ -5939,7 +5954,7 @@
         <v>821</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.35">
@@ -5950,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>3</v>
@@ -5961,7 +5976,7 @@
         <v>779</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>1</v>
@@ -5975,10 +5990,10 @@
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B91" s="5" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>1</v>
@@ -5992,47 +6007,47 @@
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B92" s="5" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>791</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>1281</v>
+        <v>1271</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B93" s="5" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>793</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B94" s="6" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1275</v>
+        <v>1265</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>794</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.35">
@@ -6046,7 +6061,7 @@
         <v>795</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.35">
@@ -6060,7 +6075,7 @@
         <v>796</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.35">
@@ -6074,7 +6089,7 @@
         <v>797</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.35">
@@ -6088,7 +6103,7 @@
         <v>798</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.35">
@@ -6102,7 +6117,7 @@
         <v>799</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.35">
@@ -6116,10 +6131,10 @@
         <v>800</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.35">
@@ -6133,7 +6148,7 @@
         <v>801</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>4</v>
@@ -6164,7 +6179,7 @@
         <v>822</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>1285</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.35">
@@ -6175,10 +6190,10 @@
         <v>1</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>823</v>
+        <v>1418</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.35">
@@ -6189,10 +6204,10 @@
         <v>1</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>824</v>
+        <v>1419</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.35">
@@ -6203,10 +6218,10 @@
         <v>1</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>825</v>
+        <v>1420</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.35">
@@ -6217,10 +6232,10 @@
         <v>1</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>826</v>
+        <v>1421</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.35">
@@ -6231,10 +6246,10 @@
         <v>1</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>827</v>
+        <v>1422</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.35">
@@ -6245,10 +6260,10 @@
         <v>1</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>828</v>
+        <v>1423</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.35">
@@ -6259,10 +6274,10 @@
         <v>1</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>829</v>
+        <v>1424</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.35">
@@ -6273,10 +6288,10 @@
         <v>1</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>830</v>
+        <v>1425</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.35">
@@ -6309,7 +6324,7 @@
         <v>1</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.35">
@@ -6338,7 +6353,7 @@
         <v>1</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.35">
@@ -6360,10 +6375,10 @@
         <v>1</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.35">
@@ -6374,7 +6389,7 @@
         <v>1</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>2</v>
@@ -6405,7 +6420,7 @@
         <v>802</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>4</v>
@@ -6422,10 +6437,10 @@
         <v>815</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.35">
@@ -6439,7 +6454,7 @@
         <v>816</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>1282</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.35">
@@ -6470,7 +6485,7 @@
         <v>1</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.35">
@@ -6498,7 +6513,7 @@
         <v>783</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>1288</v>
+        <v>1278</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>1</v>
@@ -6518,13 +6533,13 @@
         <v>784</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>1284</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
@@ -6532,16 +6547,16 @@
         <v>700</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1274</v>
+        <v>1264</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>785</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="F130" s="7" t="s">
         <v>2</v>
@@ -6556,10 +6571,10 @@
         <v>786</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="F131" s="7" t="s">
         <v>2</v>
@@ -6575,7 +6590,7 @@
         <v>1</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="F132" s="7" t="s">
         <v>2</v>
@@ -6591,7 +6606,7 @@
         <v>1</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="F133" s="7" t="s">
         <v>2</v>
@@ -6607,7 +6622,7 @@
         <v>1</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>1378</v>
+        <v>1361</v>
       </c>
       <c r="F134" s="7" t="s">
         <v>2</v>
@@ -6623,7 +6638,7 @@
         <v>1</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="F135" s="7" t="s">
         <v>2</v>
@@ -6639,7 +6654,7 @@
         <v>1</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="F136" s="7" t="s">
         <v>2</v>
@@ -6655,7 +6670,7 @@
         <v>1</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="F137" s="7" t="s">
         <v>2</v>
@@ -6671,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="F138" s="7" t="s">
         <v>2</v>
@@ -6687,7 +6702,7 @@
         <v>1</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>842</v>
+        <v>1426</v>
       </c>
       <c r="F139" s="7" t="s">
         <v>2</v>
@@ -6742,7 +6757,7 @@
         <v>1</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>2</v>
@@ -6770,7 +6785,7 @@
         <v>803</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>1283</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.35">
@@ -6791,7 +6806,7 @@
       </c>
       <c r="D148" s="2"/>
       <c r="E148" s="2" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>2</v>
@@ -6858,7 +6873,7 @@
         <v>4</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>1210</v>
+        <v>1200</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>2</v>
@@ -6880,7 +6895,7 @@
         <v>4</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>1208</v>
+        <v>1199</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>3</v>
@@ -6908,7 +6923,7 @@
         <v>698</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>1349</v>
+        <v>1332</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>2</v>
@@ -6938,10 +6953,10 @@
         <v>4</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>1278</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.35">
@@ -6992,7 +7007,7 @@
         <v>698</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>1213</v>
+        <v>1203</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>2</v>
@@ -7023,7 +7038,7 @@
         <v>1</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>1322</v>
+        <v>1312</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>3</v>
@@ -7037,13 +7052,13 @@
         <v>1</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>1209</v>
+        <v>1427</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>1211</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.35">
@@ -7055,7 +7070,7 @@
       </c>
       <c r="D172" s="1"/>
       <c r="E172" s="2" t="s">
-        <v>1212</v>
+        <v>1202</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>2</v>
@@ -7070,7 +7085,7 @@
       </c>
       <c r="D173" s="1"/>
       <c r="F173" s="2" t="s">
-        <v>1423</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.35">
@@ -7084,16 +7099,16 @@
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B175" s="2" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>1276</v>
+        <v>1266</v>
       </c>
       <c r="D175" s="1"/>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B176" s="4" t="s">
-        <v>1326</v>
+        <v>1316</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>1</v>
@@ -7103,7 +7118,7 @@
     </row>
     <row r="177" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B177" s="4" t="s">
-        <v>1327</v>
+        <v>1317</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>1</v>
@@ -7125,7 +7140,7 @@
         <v>1</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>1273</v>
+        <v>1263</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>2</v>
@@ -7147,7 +7162,7 @@
         <v>1</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>1</v>
@@ -7158,7 +7173,7 @@
         <v>1</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>1214</v>
+        <v>1204</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>3</v>
@@ -7200,7 +7215,7 @@
         <v>698</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>2</v>
@@ -7220,15 +7235,15 @@
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C187" s="2" t="s">
-        <v>1323</v>
+        <v>1313</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>1279</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C188" s="3" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>698</v>
@@ -7236,7 +7251,7 @@
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C189" s="3" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>698</v>
@@ -7258,7 +7273,7 @@
         <v>698</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>2</v>
@@ -7277,7 +7292,7 @@
     </row>
     <row r="193" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D193" s="2" t="s">
-        <v>1324</v>
+        <v>1314</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>3</v>
@@ -7288,7 +7303,7 @@
     </row>
     <row r="194" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D194" s="3" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>1</v>
@@ -7296,7 +7311,7 @@
     </row>
     <row r="195" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D195" s="3" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>1</v>
@@ -7307,7 +7322,7 @@
     </row>
     <row r="196" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D196" s="3" t="s">
-        <v>1328</v>
+        <v>1318</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>1</v>
@@ -7318,7 +7333,7 @@
     </row>
     <row r="197" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E197" s="2" t="s">
-        <v>1325</v>
+        <v>1315</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>2</v>
@@ -7651,7 +7666,7 @@
         <v>8300</v>
       </c>
       <c r="M5" t="s">
-        <v>1216</v>
+        <v>1206</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -8079,7 +8094,7 @@
         <v>31</v>
       </c>
       <c r="V12" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="W12" t="s">
         <v>238</v>
@@ -8138,7 +8153,7 @@
         <v>240</v>
       </c>
       <c r="S13" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="T13" t="s">
         <v>241</v>
@@ -8147,7 +8162,7 @@
         <v>31</v>
       </c>
       <c r="V13" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
       <c r="W13" t="s">
         <v>242</v>
@@ -8223,7 +8238,7 @@
         <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="D15" t="s">
         <v>56</v>
@@ -8238,13 +8253,13 @@
         <v>204</v>
       </c>
       <c r="I15" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="J15">
         <v>203</v>
       </c>
       <c r="K15" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
       <c r="L15" s="9">
         <v>7020</v>
@@ -8332,7 +8347,7 @@
         <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
       <c r="E17" t="s">
         <v>57</v>
@@ -8479,19 +8494,19 @@
         <v>188</v>
       </c>
       <c r="I20" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
       <c r="J20">
         <v>187</v>
       </c>
       <c r="K20" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
       <c r="L20" s="9">
         <v>21886</v>
       </c>
       <c r="M20" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -8503,7 +8518,7 @@
         <v>30</v>
       </c>
       <c r="V20" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.35">
@@ -8514,7 +8529,7 @@
         <v>155</v>
       </c>
       <c r="D21" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="E21" t="s">
         <v>41</v>
@@ -8656,7 +8671,7 @@
         <v>30</v>
       </c>
       <c r="V23" t="s">
-        <v>1289</v>
+        <v>1279</v>
       </c>
       <c r="W23" t="s">
         <v>261</v>
@@ -8747,7 +8762,7 @@
         <v>25</v>
       </c>
       <c r="I25" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -8797,7 +8812,7 @@
         <v>25</v>
       </c>
       <c r="I26" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -8841,7 +8856,7 @@
         <v>25</v>
       </c>
       <c r="I27" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -8964,7 +8979,7 @@
         <v>32</v>
       </c>
       <c r="I30" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="J30">
         <v>72</v>
@@ -9888,7 +9903,7 @@
         <v>704</v>
       </c>
       <c r="M51" t="s">
-        <v>1007</v>
+        <v>998</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -10011,7 +10026,7 @@
         <v>198</v>
       </c>
       <c r="G54" t="s">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="H54">
         <v>10</v>
@@ -10571,7 +10586,7 @@
         <v>348</v>
       </c>
       <c r="S67" t="s">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="U67" t="s">
         <v>31</v>
@@ -11725,7 +11740,7 @@
         <v>131</v>
       </c>
       <c r="K92" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="L92" t="s">
         <v>415</v>
@@ -11778,7 +11793,7 @@
         <v>200</v>
       </c>
       <c r="K93" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="L93" t="s">
         <v>419</v>
@@ -11987,7 +12002,7 @@
         <v>31</v>
       </c>
       <c r="V97" t="s">
-        <v>1012</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.35">
@@ -12711,7 +12726,7 @@
         <v>5845</v>
       </c>
       <c r="R111" t="s">
-        <v>1013</v>
+        <v>1004</v>
       </c>
       <c r="S111" t="s">
         <v>471</v>
@@ -12843,19 +12858,19 @@
         <v>198</v>
       </c>
       <c r="G114" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="H114">
         <v>179</v>
       </c>
       <c r="I114" t="s">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="J114">
         <v>180</v>
       </c>
       <c r="K114" t="s">
-        <v>1015</v>
+        <v>1006</v>
       </c>
       <c r="L114" s="9">
         <v>5679</v>
@@ -12938,10 +12953,10 @@
         <v>119</v>
       </c>
       <c r="S115" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="T115" t="s">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="U115" t="s">
         <v>31</v>
@@ -13020,13 +13035,13 @@
         <v>178</v>
       </c>
       <c r="I117" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
       <c r="J117">
         <v>177</v>
       </c>
       <c r="K117" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="L117" t="s">
         <v>486</v>
@@ -13079,7 +13094,7 @@
         <v>220</v>
       </c>
       <c r="L118" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
       <c r="N118">
         <v>4</v>
@@ -13132,7 +13147,7 @@
         <v>37</v>
       </c>
       <c r="Q119" t="s">
-        <v>1350</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.35">
@@ -13543,13 +13558,13 @@
         <v>182</v>
       </c>
       <c r="I128" t="s">
-        <v>1018</v>
+        <v>1009</v>
       </c>
       <c r="J128">
         <v>181</v>
       </c>
       <c r="K128" t="s">
-        <v>1019</v>
+        <v>1010</v>
       </c>
       <c r="L128" t="s">
         <v>503</v>
@@ -13587,13 +13602,13 @@
         <v>176</v>
       </c>
       <c r="I129" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="J129">
         <v>175</v>
       </c>
       <c r="K129" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="L129" t="s">
         <v>505</v>
@@ -13778,13 +13793,13 @@
         <v>174</v>
       </c>
       <c r="I133" t="s">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="J133">
         <v>173</v>
       </c>
       <c r="K133" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="L133" t="s">
         <v>644</v>
@@ -13864,7 +13879,7 @@
         <v>3141</v>
       </c>
       <c r="R134" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="T134" t="s">
         <v>646</v>
@@ -13902,7 +13917,7 @@
         <v>386</v>
       </c>
       <c r="M135" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="N135">
         <v>4</v>
@@ -13923,7 +13938,7 @@
         <v>31</v>
       </c>
       <c r="V135" t="s">
-        <v>1022</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.35">
@@ -13982,7 +13997,7 @@
         <v>31</v>
       </c>
       <c r="V136" t="s">
-        <v>1022</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.35">
@@ -14196,7 +14211,7 @@
         <v>155</v>
       </c>
       <c r="B141" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="E141" t="s">
         <v>517</v>
@@ -14570,7 +14585,7 @@
         <v>94</v>
       </c>
       <c r="D148" t="s">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="E148" t="s">
         <v>641</v>
@@ -14594,7 +14609,7 @@
         <v>21295</v>
       </c>
       <c r="M148" t="s">
-        <v>1024</v>
+        <v>1015</v>
       </c>
       <c r="N148">
         <v>4</v>
@@ -14606,7 +14621,7 @@
         <v>30</v>
       </c>
       <c r="V148" t="s">
-        <v>1025</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="149" spans="1:22" x14ac:dyDescent="0.35">
@@ -15178,7 +15193,7 @@
         <v>220</v>
       </c>
       <c r="L161" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="N161">
         <v>4</v>
@@ -15190,7 +15205,7 @@
         <v>37</v>
       </c>
       <c r="Q161" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
       <c r="R161">
         <v>4</v>
@@ -15210,7 +15225,7 @@
         <v>198</v>
       </c>
       <c r="G162" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
       <c r="H162">
         <v>10</v>
@@ -15225,7 +15240,7 @@
         <v>220</v>
       </c>
       <c r="L162" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="N162">
         <v>4</v>
@@ -15237,7 +15252,7 @@
         <v>37</v>
       </c>
       <c r="Q162" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="R162">
         <v>4</v>
@@ -15269,7 +15284,7 @@
         <v>220</v>
       </c>
       <c r="L163" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="N163">
         <v>4</v>
@@ -15295,7 +15310,7 @@
         <v>198</v>
       </c>
       <c r="G164" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="H164">
         <v>10</v>
@@ -15310,7 +15325,7 @@
         <v>220</v>
       </c>
       <c r="L164" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="N164">
         <v>4</v>
@@ -15322,7 +15337,7 @@
         <v>37</v>
       </c>
       <c r="Q164" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
     </row>
     <row r="165" spans="1:22" x14ac:dyDescent="0.35">
@@ -15330,13 +15345,13 @@
         <v>179</v>
       </c>
       <c r="B165" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="D165" t="s">
         <v>492</v>
       </c>
       <c r="E165" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="F165" t="s">
         <v>198</v>
@@ -15362,10 +15377,10 @@
         <v>180</v>
       </c>
       <c r="B166" t="s">
-        <v>1027</v>
+        <v>1018</v>
       </c>
       <c r="E166" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="F166" t="s">
         <v>192</v>
@@ -15409,13 +15424,13 @@
         <v>183</v>
       </c>
       <c r="K167" t="s">
+        <v>1010</v>
+      </c>
+      <c r="L167" t="s">
         <v>1019</v>
       </c>
-      <c r="L167" t="s">
-        <v>1028</v>
-      </c>
       <c r="M167" t="s">
-        <v>1029</v>
+        <v>1020</v>
       </c>
       <c r="N167">
         <v>4</v>
@@ -15441,25 +15456,25 @@
         <v>198</v>
       </c>
       <c r="G168" t="s">
-        <v>1030</v>
+        <v>1021</v>
       </c>
       <c r="H168">
         <v>186</v>
       </c>
       <c r="I168" t="s">
-        <v>1031</v>
+        <v>1022</v>
       </c>
       <c r="J168">
         <v>185</v>
       </c>
       <c r="K168" t="s">
-        <v>1032</v>
+        <v>1023</v>
       </c>
       <c r="L168" t="s">
-        <v>1351</v>
+        <v>1334</v>
       </c>
       <c r="M168" t="s">
-        <v>1352</v>
+        <v>1335</v>
       </c>
       <c r="N168">
         <v>4</v>
@@ -15497,7 +15512,7 @@
         <v>220</v>
       </c>
       <c r="M169" t="s">
-        <v>1029</v>
+        <v>1020</v>
       </c>
       <c r="N169">
         <v>4</v>
@@ -15517,7 +15532,7 @@
         <v>92</v>
       </c>
       <c r="D170" t="s">
-        <v>1033</v>
+        <v>1024</v>
       </c>
       <c r="E170" t="s">
         <v>26</v>
@@ -15526,7 +15541,7 @@
         <v>198</v>
       </c>
       <c r="G170" t="s">
-        <v>1034</v>
+        <v>1025</v>
       </c>
       <c r="H170">
         <v>10</v>
@@ -15541,7 +15556,7 @@
         <v>220</v>
       </c>
       <c r="M170" t="s">
-        <v>1029</v>
+        <v>1020</v>
       </c>
       <c r="N170">
         <v>4</v>
@@ -15564,7 +15579,7 @@
         <v>262</v>
       </c>
       <c r="E171" t="s">
-        <v>1030</v>
+        <v>1021</v>
       </c>
       <c r="F171" t="s">
         <v>192</v>
@@ -15582,10 +15597,10 @@
         <v>220</v>
       </c>
       <c r="L171" t="s">
-        <v>1353</v>
+        <v>1336</v>
       </c>
       <c r="M171" t="s">
-        <v>1029</v>
+        <v>1020</v>
       </c>
       <c r="N171">
         <v>4</v>
@@ -15597,10 +15612,10 @@
         <v>37</v>
       </c>
       <c r="Q171" t="s">
-        <v>1354</v>
+        <v>1337</v>
       </c>
       <c r="R171" t="s">
-        <v>1029</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="172" spans="1:22" x14ac:dyDescent="0.35">
@@ -15611,7 +15626,7 @@
         <v>92</v>
       </c>
       <c r="E172" t="s">
-        <v>1030</v>
+        <v>1021</v>
       </c>
       <c r="F172" t="s">
         <v>198</v>
@@ -15640,7 +15655,7 @@
         <v>32</v>
       </c>
       <c r="D173" t="s">
-        <v>1035</v>
+        <v>1026</v>
       </c>
       <c r="E173" t="s">
         <v>41</v>
@@ -15652,19 +15667,19 @@
         <v>190</v>
       </c>
       <c r="I173" t="s">
-        <v>1217</v>
+        <v>1207</v>
       </c>
       <c r="J173">
         <v>189</v>
       </c>
       <c r="K173" t="s">
-        <v>1036</v>
+        <v>1027</v>
       </c>
       <c r="L173" s="9">
         <v>9868</v>
       </c>
       <c r="M173" t="s">
-        <v>1037</v>
+        <v>1028</v>
       </c>
       <c r="N173">
         <v>1</v>
@@ -15679,7 +15694,7 @@
         <v>35717</v>
       </c>
       <c r="R173" t="s">
-        <v>1290</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="174" spans="1:22" x14ac:dyDescent="0.35">
@@ -15690,10 +15705,10 @@
         <v>492</v>
       </c>
       <c r="D174" t="s">
-        <v>1033</v>
+        <v>1024</v>
       </c>
       <c r="E174" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="F174" t="s">
         <v>198</v>
@@ -15705,13 +15720,13 @@
         <v>192</v>
       </c>
       <c r="I174" t="s">
-        <v>1039</v>
+        <v>1030</v>
       </c>
       <c r="J174">
         <v>191</v>
       </c>
       <c r="K174" t="s">
-        <v>1040</v>
+        <v>1031</v>
       </c>
       <c r="L174" s="9">
         <v>11896</v>
@@ -15731,10 +15746,10 @@
         <v>189</v>
       </c>
       <c r="B175" t="s">
-        <v>1041</v>
+        <v>1032</v>
       </c>
       <c r="D175" t="s">
-        <v>1035</v>
+        <v>1026</v>
       </c>
       <c r="E175" t="s">
         <v>41</v>
@@ -15746,19 +15761,19 @@
         <v>206</v>
       </c>
       <c r="I175" t="s">
-        <v>1218</v>
+        <v>1208</v>
       </c>
       <c r="J175">
         <v>205</v>
       </c>
       <c r="K175" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="L175" t="s">
         <v>408</v>
       </c>
       <c r="M175" t="s">
-        <v>1220</v>
+        <v>1210</v>
       </c>
       <c r="N175">
         <v>1</v>
@@ -15773,16 +15788,16 @@
         <v>20230</v>
       </c>
       <c r="R175" t="s">
-        <v>1221</v>
+        <v>1211</v>
       </c>
       <c r="T175" t="s">
-        <v>1222</v>
+        <v>1212</v>
       </c>
       <c r="U175" t="s">
         <v>31</v>
       </c>
       <c r="V175" t="s">
-        <v>1042</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="176" spans="1:22" x14ac:dyDescent="0.35">
@@ -15790,7 +15805,7 @@
         <v>190</v>
       </c>
       <c r="B176" t="s">
-        <v>1043</v>
+        <v>1034</v>
       </c>
       <c r="D176" t="s">
         <v>340</v>
@@ -15802,25 +15817,25 @@
         <v>198</v>
       </c>
       <c r="G176" t="s">
-        <v>1223</v>
+        <v>1213</v>
       </c>
       <c r="H176">
         <v>208</v>
       </c>
       <c r="I176" t="s">
-        <v>1224</v>
+        <v>1214</v>
       </c>
       <c r="J176">
         <v>207</v>
       </c>
       <c r="K176" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
       <c r="L176" t="s">
         <v>692</v>
       </c>
       <c r="M176" t="s">
-        <v>1044</v>
+        <v>1035</v>
       </c>
       <c r="N176">
         <v>1</v>
@@ -15835,10 +15850,10 @@
         <v>21171</v>
       </c>
       <c r="R176" t="s">
-        <v>1226</v>
+        <v>1216</v>
       </c>
       <c r="T176" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
       <c r="U176" t="s">
         <v>31</v>
@@ -15852,10 +15867,10 @@
         <v>104</v>
       </c>
       <c r="D177" t="s">
-        <v>1045</v>
+        <v>1036</v>
       </c>
       <c r="E177" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="F177" t="s">
         <v>192</v>
@@ -15870,13 +15885,13 @@
         <v>213</v>
       </c>
       <c r="K177" t="s">
-        <v>1291</v>
+        <v>1281</v>
       </c>
       <c r="L177" t="s">
-        <v>1046</v>
+        <v>1037</v>
       </c>
       <c r="M177" t="s">
-        <v>1228</v>
+        <v>1218</v>
       </c>
       <c r="N177">
         <v>9</v>
@@ -15894,7 +15909,7 @@
         <v>46</v>
       </c>
       <c r="V177" t="s">
-        <v>1229</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="178" spans="1:22" x14ac:dyDescent="0.35">
@@ -15902,13 +15917,13 @@
         <v>192</v>
       </c>
       <c r="B178" t="s">
-        <v>1047</v>
+        <v>1038</v>
       </c>
       <c r="D178" t="s">
-        <v>1048</v>
+        <v>1039</v>
       </c>
       <c r="E178" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="F178" t="s">
         <v>198</v>
@@ -15920,13 +15935,13 @@
         <v>199</v>
       </c>
       <c r="I178" t="s">
-        <v>1049</v>
+        <v>1040</v>
       </c>
       <c r="J178">
         <v>198</v>
       </c>
       <c r="K178" t="s">
-        <v>1050</v>
+        <v>1041</v>
       </c>
       <c r="L178" s="9">
         <v>2506</v>
@@ -15946,7 +15961,7 @@
         <v>94</v>
       </c>
       <c r="E179" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="F179" t="s">
         <v>192</v>
@@ -15961,13 +15976,13 @@
         <v>213</v>
       </c>
       <c r="K179" t="s">
-        <v>1291</v>
+        <v>1281</v>
       </c>
       <c r="P179" t="s">
         <v>37</v>
       </c>
       <c r="V179" t="s">
-        <v>1051</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="180" spans="1:22" x14ac:dyDescent="0.35">
@@ -15975,7 +15990,7 @@
         <v>194</v>
       </c>
       <c r="B180" t="s">
-        <v>1041</v>
+        <v>1032</v>
       </c>
       <c r="E180" t="s">
         <v>76</v>
@@ -15999,7 +16014,7 @@
         <v>37</v>
       </c>
       <c r="V180" t="s">
-        <v>1052</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="181" spans="1:22" x14ac:dyDescent="0.35">
@@ -16007,7 +16022,7 @@
         <v>195</v>
       </c>
       <c r="B181" t="s">
-        <v>1053</v>
+        <v>1044</v>
       </c>
       <c r="E181" t="s">
         <v>76</v>
@@ -16031,7 +16046,7 @@
         <v>37</v>
       </c>
       <c r="V181" t="s">
-        <v>1054</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="182" spans="1:22" x14ac:dyDescent="0.35">
@@ -16039,10 +16054,10 @@
         <v>196</v>
       </c>
       <c r="B182" t="s">
-        <v>1055</v>
+        <v>1046</v>
       </c>
       <c r="E182" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="F182" t="s">
         <v>192</v>
@@ -16051,13 +16066,13 @@
         <v>192</v>
       </c>
       <c r="I182" t="s">
-        <v>1039</v>
+        <v>1030</v>
       </c>
       <c r="J182">
         <v>191</v>
       </c>
       <c r="K182" t="s">
-        <v>1040</v>
+        <v>1031</v>
       </c>
       <c r="L182" s="9">
         <v>9133</v>
@@ -16077,7 +16092,7 @@
         <v>94</v>
       </c>
       <c r="E183" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="F183" t="s">
         <v>192</v>
@@ -16086,13 +16101,13 @@
         <v>192</v>
       </c>
       <c r="I183" t="s">
-        <v>1039</v>
+        <v>1030</v>
       </c>
       <c r="J183">
         <v>191</v>
       </c>
       <c r="K183" t="s">
-        <v>1040</v>
+        <v>1031</v>
       </c>
       <c r="L183" s="9">
         <v>10594</v>
@@ -16106,10 +16121,10 @@
         <v>198</v>
       </c>
       <c r="B184" t="s">
-        <v>1056</v>
+        <v>1047</v>
       </c>
       <c r="D184" t="s">
-        <v>1383</v>
+        <v>1363</v>
       </c>
       <c r="E184" t="s">
         <v>76</v>
@@ -16138,7 +16153,7 @@
         <v>199</v>
       </c>
       <c r="B185" t="s">
-        <v>1048</v>
+        <v>1039</v>
       </c>
       <c r="E185" t="s">
         <v>76</v>
@@ -16147,7 +16162,7 @@
         <v>198</v>
       </c>
       <c r="G185" t="s">
-        <v>1057</v>
+        <v>1048</v>
       </c>
       <c r="H185">
         <v>10</v>
@@ -16179,13 +16194,13 @@
         <v>192</v>
       </c>
       <c r="L186" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="P186" t="s">
         <v>37</v>
       </c>
       <c r="Q186" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="187" spans="1:22" x14ac:dyDescent="0.35">
@@ -16196,7 +16211,7 @@
         <v>492</v>
       </c>
       <c r="E187" t="s">
-        <v>1059</v>
+        <v>1050</v>
       </c>
       <c r="F187" t="s">
         <v>198</v>
@@ -16205,7 +16220,7 @@
         <v>26</v>
       </c>
       <c r="L187" t="s">
-        <v>1028</v>
+        <v>1019</v>
       </c>
       <c r="P187" t="s">
         <v>37</v>
@@ -16219,7 +16234,7 @@
         <v>262</v>
       </c>
       <c r="E188" t="s">
-        <v>1034</v>
+        <v>1025</v>
       </c>
       <c r="F188" t="s">
         <v>192</v>
@@ -16265,10 +16280,10 @@
         <v>204</v>
       </c>
       <c r="B190" t="s">
-        <v>1060</v>
+        <v>1051</v>
       </c>
       <c r="D190" t="s">
-        <v>1061</v>
+        <v>1052</v>
       </c>
       <c r="E190" t="s">
         <v>57</v>
@@ -16277,7 +16292,7 @@
         <v>198</v>
       </c>
       <c r="G190" t="s">
-        <v>1062</v>
+        <v>1053</v>
       </c>
       <c r="H190">
         <v>10</v>
@@ -16329,7 +16344,7 @@
         <v>206</v>
       </c>
       <c r="B192" t="s">
-        <v>1230</v>
+        <v>1220</v>
       </c>
       <c r="E192" t="s">
         <v>41</v>
@@ -16338,7 +16353,7 @@
         <v>198</v>
       </c>
       <c r="G192" t="s">
-        <v>1231</v>
+        <v>1221</v>
       </c>
       <c r="H192">
         <v>10</v>
@@ -16353,10 +16368,10 @@
         <v>220</v>
       </c>
       <c r="L192" t="s">
-        <v>1232</v>
+        <v>1222</v>
       </c>
       <c r="M192" t="s">
-        <v>1355</v>
+        <v>1338</v>
       </c>
       <c r="P192" t="s">
         <v>37</v>
@@ -16373,7 +16388,7 @@
         <v>126</v>
       </c>
       <c r="E193" t="s">
-        <v>1223</v>
+        <v>1213</v>
       </c>
       <c r="F193" t="s">
         <v>192</v>
@@ -16391,10 +16406,10 @@
         <v>220</v>
       </c>
       <c r="L193" t="s">
-        <v>1232</v>
+        <v>1222</v>
       </c>
       <c r="M193" t="s">
-        <v>1233</v>
+        <v>1223</v>
       </c>
       <c r="N193">
         <v>4</v>
@@ -16409,16 +16424,16 @@
         <v>7862</v>
       </c>
       <c r="R193" t="s">
-        <v>1234</v>
+        <v>1224</v>
       </c>
       <c r="T193" t="s">
-        <v>1235</v>
+        <v>1225</v>
       </c>
       <c r="U193" t="s">
         <v>31</v>
       </c>
       <c r="V193" t="s">
-        <v>1236</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="194" spans="1:22" x14ac:dyDescent="0.35">
@@ -16426,46 +16441,46 @@
         <v>208</v>
       </c>
       <c r="B194" t="s">
-        <v>1237</v>
+        <v>1227</v>
       </c>
       <c r="E194" t="s">
-        <v>1223</v>
+        <v>1213</v>
       </c>
       <c r="F194" t="s">
         <v>198</v>
       </c>
       <c r="G194" t="s">
-        <v>1238</v>
+        <v>1228</v>
       </c>
       <c r="H194">
         <v>210</v>
       </c>
       <c r="I194" t="s">
-        <v>1239</v>
+        <v>1229</v>
       </c>
       <c r="J194">
         <v>209</v>
       </c>
       <c r="K194" t="s">
-        <v>1240</v>
+        <v>1230</v>
       </c>
       <c r="L194" t="s">
-        <v>1241</v>
+        <v>1231</v>
       </c>
       <c r="M194" t="s">
-        <v>1242</v>
+        <v>1232</v>
       </c>
       <c r="P194" t="s">
         <v>37</v>
       </c>
       <c r="Q194" t="s">
-        <v>1242</v>
+        <v>1232</v>
       </c>
       <c r="R194" t="s">
-        <v>1243</v>
+        <v>1233</v>
       </c>
       <c r="T194" t="s">
-        <v>1244</v>
+        <v>1234</v>
       </c>
       <c r="U194" t="s">
         <v>31</v>
@@ -16476,10 +16491,10 @@
         <v>209</v>
       </c>
       <c r="B195" t="s">
-        <v>1245</v>
+        <v>1235</v>
       </c>
       <c r="E195" t="s">
-        <v>1238</v>
+        <v>1228</v>
       </c>
       <c r="F195" t="s">
         <v>192</v>
@@ -16508,13 +16523,13 @@
         <v>92</v>
       </c>
       <c r="E196" t="s">
-        <v>1238</v>
+        <v>1228</v>
       </c>
       <c r="F196" t="s">
         <v>198</v>
       </c>
       <c r="G196" t="s">
-        <v>1246</v>
+        <v>1236</v>
       </c>
       <c r="H196">
         <v>10</v>
@@ -16537,13 +16552,13 @@
         <v>211</v>
       </c>
       <c r="B197" t="s">
-        <v>1247</v>
+        <v>1237</v>
       </c>
       <c r="D197" t="s">
-        <v>1248</v>
+        <v>1238</v>
       </c>
       <c r="E197" t="s">
-        <v>1223</v>
+        <v>1213</v>
       </c>
       <c r="F197" t="s">
         <v>192</v>
@@ -16552,13 +16567,13 @@
         <v>208</v>
       </c>
       <c r="I197" t="s">
-        <v>1224</v>
+        <v>1214</v>
       </c>
       <c r="J197">
         <v>207</v>
       </c>
       <c r="K197" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
       <c r="L197" t="s">
         <v>103</v>
@@ -16576,16 +16591,16 @@
         <v>37</v>
       </c>
       <c r="Q197" t="s">
-        <v>1242</v>
+        <v>1232</v>
       </c>
       <c r="R197" t="s">
-        <v>1243</v>
+        <v>1233</v>
       </c>
       <c r="S197" t="s">
         <v>314</v>
       </c>
       <c r="T197" t="s">
-        <v>1244</v>
+        <v>1234</v>
       </c>
       <c r="U197" t="s">
         <v>31</v>
@@ -16614,13 +16629,13 @@
         <v>183</v>
       </c>
       <c r="K198" t="s">
+        <v>1010</v>
+      </c>
+      <c r="L198" t="s">
         <v>1019</v>
       </c>
-      <c r="L198" t="s">
-        <v>1028</v>
-      </c>
       <c r="M198" t="s">
-        <v>1029</v>
+        <v>1020</v>
       </c>
       <c r="N198">
         <v>4</v>
@@ -16632,7 +16647,7 @@
         <v>37</v>
       </c>
       <c r="Q198" t="s">
-        <v>1249</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="199" spans="1:22" x14ac:dyDescent="0.35">
@@ -16643,7 +16658,7 @@
         <v>94</v>
       </c>
       <c r="E199" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="F199" t="s">
         <v>192</v>
@@ -16669,10 +16684,10 @@
         <v>214</v>
       </c>
       <c r="B200" t="s">
-        <v>1356</v>
+        <v>1339</v>
       </c>
       <c r="D200" t="s">
-        <v>1043</v>
+        <v>1034</v>
       </c>
       <c r="E200" t="s">
         <v>41</v>
@@ -16687,13 +16702,13 @@
         <v>188</v>
       </c>
       <c r="I200" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
       <c r="J200">
         <v>187</v>
       </c>
       <c r="K200" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
       <c r="L200" s="9">
         <v>21129</v>
@@ -16710,7 +16725,7 @@
         <v>115</v>
       </c>
       <c r="D201" t="s">
-        <v>1357</v>
+        <v>1340</v>
       </c>
       <c r="E201" t="s">
         <v>41</v>
@@ -16725,13 +16740,13 @@
         <v>188</v>
       </c>
       <c r="I201" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
       <c r="J201">
         <v>187</v>
       </c>
       <c r="K201" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
       <c r="L201" s="9">
         <v>22955</v>
@@ -16745,10 +16760,10 @@
         <v>216</v>
       </c>
       <c r="B202" t="s">
-        <v>1358</v>
+        <v>1341</v>
       </c>
       <c r="E202" t="s">
-        <v>1359</v>
+        <v>1342</v>
       </c>
       <c r="F202" t="s">
         <v>198</v>
@@ -16760,13 +16775,13 @@
         <v>199</v>
       </c>
       <c r="I202" t="s">
-        <v>1049</v>
+        <v>1040</v>
       </c>
       <c r="J202">
         <v>198</v>
       </c>
       <c r="K202" t="s">
-        <v>1050</v>
+        <v>1041</v>
       </c>
       <c r="P202" t="s">
         <v>30</v>
@@ -16905,13 +16920,13 @@
         <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>1073</v>
+        <v>1064</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>1063</v>
+        <v>1054</v>
       </c>
       <c r="O2" t="s">
         <v>30</v>
@@ -16961,7 +16976,7 @@
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>1064</v>
+        <v>1055</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -17017,7 +17032,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>1065</v>
+        <v>1056</v>
       </c>
       <c r="O4" t="s">
         <v>30</v>
@@ -17064,7 +17079,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>1066</v>
+        <v>1057</v>
       </c>
       <c r="O5" t="s">
         <v>30</v>
@@ -17108,13 +17123,13 @@
         <v>26</v>
       </c>
       <c r="L6" t="s">
-        <v>1067</v>
+        <v>1058</v>
       </c>
       <c r="M6">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>1068</v>
+        <v>1059</v>
       </c>
       <c r="O6" t="s">
         <v>30</v>
@@ -17164,7 +17179,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>1069</v>
+        <v>1060</v>
       </c>
       <c r="O7" t="s">
         <v>30</v>
@@ -17211,7 +17226,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>1070</v>
+        <v>1061</v>
       </c>
       <c r="O8" t="s">
         <v>30</v>
@@ -17234,7 +17249,7 @@
         <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
       <c r="G9" t="s">
         <v>57</v>
@@ -17255,7 +17270,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>1071</v>
+        <v>1062</v>
       </c>
       <c r="O9" t="s">
         <v>30</v>
@@ -17302,7 +17317,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>1072</v>
+        <v>1063</v>
       </c>
       <c r="O10" t="s">
         <v>30</v>
@@ -17425,7 +17440,7 @@
         <v>77</v>
       </c>
       <c r="L13" t="s">
-        <v>1073</v>
+        <v>1064</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -17572,7 +17587,7 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>1074</v>
+        <v>1065</v>
       </c>
       <c r="O16" t="s">
         <v>30</v>
@@ -17616,7 +17631,7 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>1075</v>
+        <v>1066</v>
       </c>
       <c r="O17" t="s">
         <v>30</v>
@@ -17880,7 +17895,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>1076</v>
+        <v>1067</v>
       </c>
       <c r="O23" t="s">
         <v>37</v>
@@ -17977,7 +17992,7 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>1077</v>
+        <v>1068</v>
       </c>
       <c r="O25" t="s">
         <v>30</v>
@@ -18088,7 +18103,7 @@
         <v>527</v>
       </c>
       <c r="C28" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="D28">
         <v>148</v>
@@ -18112,7 +18127,7 @@
         <v>517</v>
       </c>
       <c r="L28" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="M28">
         <v>4</v>
@@ -18144,7 +18159,7 @@
         <v>94</v>
       </c>
       <c r="F29" t="s">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="G29" t="s">
         <v>641</v>
@@ -18162,13 +18177,13 @@
         <v>641</v>
       </c>
       <c r="L29" t="s">
-        <v>1078</v>
+        <v>1069</v>
       </c>
       <c r="M29">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>1079</v>
+        <v>1070</v>
       </c>
       <c r="O29" t="s">
         <v>30</v>
@@ -18294,7 +18309,7 @@
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="O32" t="s">
         <v>30</v>
@@ -18332,7 +18347,7 @@
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="O33" t="s">
         <v>30</v>
@@ -18370,13 +18385,13 @@
         <v>26</v>
       </c>
       <c r="L34" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="M34">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>1082</v>
+        <v>1073</v>
       </c>
       <c r="O34" t="s">
         <v>30</v>
@@ -18411,13 +18426,13 @@
         <v>26</v>
       </c>
       <c r="L35" t="s">
-        <v>1029</v>
+        <v>1020</v>
       </c>
       <c r="M35">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>1083</v>
+        <v>1074</v>
       </c>
       <c r="O35" t="s">
         <v>30</v>
@@ -18443,7 +18458,7 @@
         <v>32</v>
       </c>
       <c r="F36" t="s">
-        <v>1035</v>
+        <v>1026</v>
       </c>
       <c r="G36" t="s">
         <v>41</v>
@@ -18455,16 +18470,16 @@
         <v>492</v>
       </c>
       <c r="J36" t="s">
-        <v>1033</v>
+        <v>1024</v>
       </c>
       <c r="K36" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="M36">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="O36" t="s">
         <v>30</v>
@@ -18490,25 +18505,25 @@
         <v>104</v>
       </c>
       <c r="F37" t="s">
-        <v>1045</v>
+        <v>1036</v>
       </c>
       <c r="G37" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="H37">
         <v>192</v>
       </c>
       <c r="I37" t="s">
-        <v>1047</v>
+        <v>1038</v>
       </c>
       <c r="J37" t="s">
-        <v>1048</v>
+        <v>1039</v>
       </c>
       <c r="K37" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="N37" t="s">
-        <v>1085</v>
+        <v>1076</v>
       </c>
       <c r="O37" t="s">
         <v>30</v>
@@ -18528,10 +18543,10 @@
         <v>189</v>
       </c>
       <c r="E38" t="s">
-        <v>1041</v>
+        <v>1032</v>
       </c>
       <c r="F38" t="s">
-        <v>1035</v>
+        <v>1026</v>
       </c>
       <c r="G38" t="s">
         <v>41</v>
@@ -18540,7 +18555,7 @@
         <v>190</v>
       </c>
       <c r="I38" t="s">
-        <v>1043</v>
+        <v>1034</v>
       </c>
       <c r="J38" t="s">
         <v>340</v>
@@ -18549,13 +18564,13 @@
         <v>41</v>
       </c>
       <c r="L38" t="s">
-        <v>1086</v>
+        <v>1077</v>
       </c>
       <c r="M38">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>1250</v>
+        <v>1240</v>
       </c>
       <c r="O38" t="s">
         <v>30</v>
@@ -18720,7 +18735,7 @@
         <v>146</v>
       </c>
       <c r="D5" t="s">
-        <v>1270</v>
+        <v>1260</v>
       </c>
       <c r="E5" t="s">
         <v>78</v>
@@ -18749,7 +18764,7 @@
         <v>146</v>
       </c>
       <c r="D6" t="s">
-        <v>1270</v>
+        <v>1260</v>
       </c>
       <c r="E6" t="s">
         <v>78</v>
@@ -18900,7 +18915,7 @@
         <v>155</v>
       </c>
       <c r="H11" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="I11" t="s">
         <v>41</v>
@@ -20192,7 +20207,7 @@
         <v>62</v>
       </c>
       <c r="H57" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
       <c r="I57" t="s">
         <v>57</v>
@@ -20351,7 +20366,7 @@
         <v>18</v>
       </c>
       <c r="C63" t="s">
-        <v>1271</v>
+        <v>1261</v>
       </c>
       <c r="D63" t="s">
         <v>172</v>
@@ -20380,7 +20395,7 @@
         <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="D64" t="s">
         <v>160</v>
@@ -20395,7 +20410,7 @@
         <v>32</v>
       </c>
       <c r="H64" t="s">
-        <v>1035</v>
+        <v>1026</v>
       </c>
       <c r="I64" t="s">
         <v>41</v>
@@ -20409,10 +20424,10 @@
         <v>20</v>
       </c>
       <c r="C65" t="s">
-        <v>1292</v>
+        <v>1282</v>
       </c>
       <c r="D65" t="s">
-        <v>1293</v>
+        <v>1283</v>
       </c>
       <c r="E65" t="s">
         <v>143</v>
@@ -20424,7 +20439,7 @@
         <v>32</v>
       </c>
       <c r="H65" t="s">
-        <v>1035</v>
+        <v>1026</v>
       </c>
       <c r="I65" t="s">
         <v>41</v>
@@ -20438,10 +20453,10 @@
         <v>21</v>
       </c>
       <c r="C66" t="s">
-        <v>1294</v>
+        <v>1284</v>
       </c>
       <c r="D66" t="s">
-        <v>1295</v>
+        <v>1285</v>
       </c>
       <c r="F66">
         <v>193</v>
@@ -20450,7 +20465,7 @@
         <v>94</v>
       </c>
       <c r="I66" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
@@ -20461,10 +20476,10 @@
         <v>21</v>
       </c>
       <c r="C67" t="s">
-        <v>1294</v>
+        <v>1284</v>
       </c>
       <c r="D67" t="s">
-        <v>1295</v>
+        <v>1285</v>
       </c>
       <c r="F67">
         <v>191</v>
@@ -20473,10 +20488,10 @@
         <v>104</v>
       </c>
       <c r="H67" t="s">
-        <v>1045</v>
+        <v>1036</v>
       </c>
       <c r="I67" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
@@ -20487,10 +20502,10 @@
         <v>21</v>
       </c>
       <c r="C68" t="s">
-        <v>1294</v>
+        <v>1284</v>
       </c>
       <c r="D68" t="s">
-        <v>1295</v>
+        <v>1285</v>
       </c>
       <c r="F68">
         <v>213</v>
@@ -20499,7 +20514,7 @@
         <v>94</v>
       </c>
       <c r="I68" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
     </row>
   </sheetData>
@@ -20533,7 +20548,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1087</v>
+        <v>1078</v>
       </c>
       <c r="B1" t="s">
         <v>137</v>
@@ -21435,7 +21450,7 @@
         <v>26</v>
       </c>
       <c r="F41" t="s">
-        <v>1088</v>
+        <v>1079</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>611</v>
@@ -21541,7 +21556,7 @@
         <v>26</v>
       </c>
       <c r="F46" t="s">
-        <v>1384</v>
+        <v>1364</v>
       </c>
       <c r="G46" s="10" t="s">
         <v>550</v>
@@ -21673,7 +21688,7 @@
         <v>627</v>
       </c>
       <c r="G52" t="s">
-        <v>1204</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -21696,7 +21711,7 @@
         <v>628</v>
       </c>
       <c r="G53" t="s">
-        <v>1205</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -21719,7 +21734,7 @@
         <v>629</v>
       </c>
       <c r="G54" t="s">
-        <v>1206</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -21785,7 +21800,7 @@
         <v>633</v>
       </c>
       <c r="G57" t="s">
-        <v>1207</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -21894,7 +21909,7 @@
         <v>77</v>
       </c>
       <c r="F62" t="s">
-        <v>1089</v>
+        <v>1080</v>
       </c>
       <c r="G62" s="10" t="s">
         <v>672</v>
@@ -21954,7 +21969,7 @@
         <v>155</v>
       </c>
       <c r="C65" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="E65" t="s">
         <v>517</v>
@@ -22155,7 +22170,7 @@
         <v>26</v>
       </c>
       <c r="F74" t="s">
-        <v>1090</v>
+        <v>1081</v>
       </c>
       <c r="G74" s="10" t="s">
         <v>675</v>
@@ -22448,7 +22463,7 @@
         <v>26</v>
       </c>
       <c r="F87" t="s">
-        <v>1091</v>
+        <v>1082</v>
       </c>
       <c r="G87" s="10" t="s">
         <v>734</v>
@@ -22520,7 +22535,7 @@
         <v>739</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>1385</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
@@ -22540,7 +22555,7 @@
         <v>739</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>1092</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
@@ -22563,7 +22578,7 @@
         <v>740</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>1093</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
@@ -22623,7 +22638,7 @@
         <v>743</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>1386</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
@@ -22643,7 +22658,7 @@
         <v>743</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>1386</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
@@ -22663,7 +22678,7 @@
         <v>744</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>1387</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
@@ -22683,7 +22698,7 @@
         <v>745</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>1388</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
@@ -22703,7 +22718,7 @@
         <v>746</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>1388</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
@@ -22746,7 +22761,7 @@
         <v>749</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>1094</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
@@ -22838,7 +22853,7 @@
         <v>753</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>1389</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
@@ -22858,7 +22873,7 @@
         <v>753</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>1390</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
@@ -23512,10 +23527,10 @@
         <v>230</v>
       </c>
       <c r="F136" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="G136" s="10" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
@@ -23535,10 +23550,10 @@
         <v>230</v>
       </c>
       <c r="F137" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
@@ -23558,10 +23573,10 @@
         <v>26</v>
       </c>
       <c r="F138" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>1094</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
@@ -23581,10 +23596,10 @@
         <v>57</v>
       </c>
       <c r="F139" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>1094</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
@@ -23604,10 +23619,10 @@
         <v>26</v>
       </c>
       <c r="F140" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="G140" s="10" t="s">
-        <v>1094</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
@@ -23627,10 +23642,10 @@
         <v>230</v>
       </c>
       <c r="F141" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="G141" s="10" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
@@ -23650,7 +23665,7 @@
         <v>517</v>
       </c>
       <c r="F142" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="G142" s="10" t="s">
         <v>778</v>
@@ -23673,7 +23688,7 @@
         <v>77</v>
       </c>
       <c r="F143" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="G143" s="10" t="s">
         <v>778</v>
@@ -23696,7 +23711,7 @@
         <v>77</v>
       </c>
       <c r="F144" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="G144" s="10" t="s">
         <v>778</v>
@@ -23719,7 +23734,7 @@
         <v>77</v>
       </c>
       <c r="F145" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="G145" s="10" t="s">
         <v>778</v>
@@ -23742,7 +23757,7 @@
         <v>517</v>
       </c>
       <c r="F146" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="G146" s="10" t="s">
         <v>778</v>
@@ -23765,7 +23780,7 @@
         <v>517</v>
       </c>
       <c r="F147" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="G147" s="10" t="s">
         <v>778</v>
@@ -23788,7 +23803,7 @@
         <v>517</v>
       </c>
       <c r="F148" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="G148" s="10" t="s">
         <v>778</v>
@@ -23811,7 +23826,7 @@
         <v>77</v>
       </c>
       <c r="F149" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="G149" s="10" t="s">
         <v>778</v>
@@ -23834,7 +23849,7 @@
         <v>517</v>
       </c>
       <c r="F150" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="G150" s="10" t="s">
         <v>778</v>
@@ -23854,7 +23869,7 @@
         <v>517</v>
       </c>
       <c r="F151" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="G151" s="10" t="s">
         <v>778</v>
@@ -23874,10 +23889,10 @@
         <v>517</v>
       </c>
       <c r="F152" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="G152" s="10" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
@@ -23897,10 +23912,10 @@
         <v>517</v>
       </c>
       <c r="F153" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="G153" s="10" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
@@ -23920,10 +23935,10 @@
         <v>517</v>
       </c>
       <c r="F154" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="G154" s="10" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
@@ -23943,10 +23958,10 @@
         <v>517</v>
       </c>
       <c r="F155" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="G155" s="10" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
@@ -23966,10 +23981,10 @@
         <v>77</v>
       </c>
       <c r="F156" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="G156" s="10" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
@@ -23986,10 +24001,10 @@
         <v>517</v>
       </c>
       <c r="F157" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
       <c r="G157" s="10" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
@@ -24012,7 +24027,7 @@
         <v>60</v>
       </c>
       <c r="G158" s="10" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
@@ -24035,7 +24050,7 @@
         <v>60</v>
       </c>
       <c r="G159" s="10" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
@@ -24052,10 +24067,10 @@
         <v>504</v>
       </c>
       <c r="F160" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
       <c r="G160" s="10" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
@@ -24072,10 +24087,10 @@
         <v>504</v>
       </c>
       <c r="F161" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
       <c r="G161" s="10" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
@@ -24092,10 +24107,10 @@
         <v>504</v>
       </c>
       <c r="F162" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="G162" s="10" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
@@ -24112,10 +24127,10 @@
         <v>504</v>
       </c>
       <c r="F163" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="G163" s="10" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.35">
@@ -24135,10 +24150,10 @@
         <v>26</v>
       </c>
       <c r="F164" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="G164" s="10" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
@@ -24161,7 +24176,7 @@
         <v>304</v>
       </c>
       <c r="G165" s="10" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
@@ -24181,10 +24196,10 @@
         <v>41</v>
       </c>
       <c r="F166" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="G166" s="10" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.35">
@@ -24204,10 +24219,10 @@
         <v>41</v>
       </c>
       <c r="F167" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="G167" s="10" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.35">
@@ -24224,10 +24239,10 @@
         <v>26</v>
       </c>
       <c r="F168" t="s">
-        <v>1095</v>
+        <v>1086</v>
       </c>
       <c r="G168" s="10" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
@@ -24247,10 +24262,10 @@
         <v>26</v>
       </c>
       <c r="F169" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="G169" s="10" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
@@ -24270,10 +24285,10 @@
         <v>26</v>
       </c>
       <c r="F170" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="G170" s="10" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.35">
@@ -24293,10 +24308,10 @@
         <v>77</v>
       </c>
       <c r="F171" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="G171" s="10" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.35">
@@ -24316,10 +24331,10 @@
         <v>77</v>
       </c>
       <c r="F172" t="s">
-        <v>1096</v>
+        <v>1087</v>
       </c>
       <c r="G172" s="10" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.35">
@@ -24339,10 +24354,10 @@
         <v>26</v>
       </c>
       <c r="F173" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="G173" s="10" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.35">
@@ -24362,10 +24377,10 @@
         <v>26</v>
       </c>
       <c r="F174" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="G174" s="10" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.35">
@@ -24385,10 +24400,10 @@
         <v>26</v>
       </c>
       <c r="F175" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="G175" s="10" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.35">
@@ -24408,10 +24423,10 @@
         <v>26</v>
       </c>
       <c r="F176" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="G176" s="10" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.35">
@@ -24425,16 +24440,16 @@
         <v>155</v>
       </c>
       <c r="D177" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="E177" t="s">
         <v>41</v>
       </c>
       <c r="F177" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="G177" s="10" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.35">
@@ -24454,10 +24469,10 @@
         <v>41</v>
       </c>
       <c r="F178" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="G178" s="10" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.35">
@@ -24477,10 +24492,10 @@
         <v>26</v>
       </c>
       <c r="F179" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="G179" s="10" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.35">
@@ -24500,10 +24515,10 @@
         <v>26</v>
       </c>
       <c r="F180" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="G180" s="10" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.35">
@@ -24523,10 +24538,10 @@
         <v>26</v>
       </c>
       <c r="F181" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="G181" s="10" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.35">
@@ -24546,10 +24561,10 @@
         <v>41</v>
       </c>
       <c r="F182" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="G182" s="10" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.35">
@@ -24569,10 +24584,10 @@
         <v>641</v>
       </c>
       <c r="F183" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="G183" s="10" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.35">
@@ -24592,10 +24607,10 @@
         <v>26</v>
       </c>
       <c r="F184" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
       <c r="G184" s="10" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.35">
@@ -24612,10 +24627,10 @@
         <v>26</v>
       </c>
       <c r="F185" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
       <c r="G185" s="10" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.35">
@@ -24635,10 +24650,10 @@
         <v>26</v>
       </c>
       <c r="F186" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="G186" s="10" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.35">
@@ -24658,10 +24673,10 @@
         <v>26</v>
       </c>
       <c r="F187" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
       <c r="G187" s="10" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.35">
@@ -24678,10 +24693,10 @@
         <v>26</v>
       </c>
       <c r="F188" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
       <c r="G188" s="10" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.35">
@@ -24698,10 +24713,10 @@
         <v>26</v>
       </c>
       <c r="F189" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="G189" s="10" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.35">
@@ -24721,10 +24736,10 @@
         <v>26</v>
       </c>
       <c r="F190" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="G190" s="10" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.35">
@@ -24741,10 +24756,10 @@
         <v>278</v>
       </c>
       <c r="F191" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="G191" s="10" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.35">
@@ -24764,10 +24779,10 @@
         <v>26</v>
       </c>
       <c r="F192" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
       <c r="G192" s="10" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.35">
@@ -24787,7 +24802,7 @@
         <v>308</v>
       </c>
       <c r="G193" s="10" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.35">
@@ -24807,10 +24822,10 @@
         <v>26</v>
       </c>
       <c r="F194" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
       <c r="G194" s="10" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.35">
@@ -24830,10 +24845,10 @@
         <v>95</v>
       </c>
       <c r="F195" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
       <c r="G195" s="10" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.35">
@@ -24853,7 +24868,7 @@
         <v>283</v>
       </c>
       <c r="G196" s="10" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.35">
@@ -24873,7 +24888,7 @@
         <v>47</v>
       </c>
       <c r="G197" s="10" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.35">
@@ -24896,7 +24911,7 @@
         <v>47</v>
       </c>
       <c r="G198" s="10" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.35">
@@ -24916,10 +24931,10 @@
         <v>26</v>
       </c>
       <c r="F199" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="G199" s="10" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.35">
@@ -24939,10 +24954,10 @@
         <v>26</v>
       </c>
       <c r="F200" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="G200" s="10" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.35">
@@ -24962,10 +24977,10 @@
         <v>26</v>
       </c>
       <c r="F201" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="G201" s="10" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.35">
@@ -24985,10 +25000,10 @@
         <v>57</v>
       </c>
       <c r="F202" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="G202" s="10" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.35">
@@ -25008,10 +25023,10 @@
         <v>57</v>
       </c>
       <c r="F203" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="G203" s="10" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.35">
@@ -25028,10 +25043,10 @@
         <v>57</v>
       </c>
       <c r="F204" t="s">
-        <v>1097</v>
+        <v>1088</v>
       </c>
       <c r="G204" s="10" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.35">
@@ -25045,16 +25060,16 @@
         <v>62</v>
       </c>
       <c r="D205" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
       <c r="E205" t="s">
         <v>57</v>
       </c>
       <c r="F205" t="s">
-        <v>1098</v>
+        <v>1089</v>
       </c>
       <c r="G205" s="10" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.35">
@@ -25074,10 +25089,10 @@
         <v>57</v>
       </c>
       <c r="F206" t="s">
-        <v>1099</v>
+        <v>1090</v>
       </c>
       <c r="G206" s="10" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.35">
@@ -25094,10 +25109,10 @@
         <v>57</v>
       </c>
       <c r="F207" t="s">
-        <v>1100</v>
+        <v>1091</v>
       </c>
       <c r="G207" s="10" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
@@ -25117,10 +25132,10 @@
         <v>641</v>
       </c>
       <c r="F208" t="s">
-        <v>1101</v>
+        <v>1092</v>
       </c>
       <c r="G208" s="10" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.35">
@@ -25134,16 +25149,16 @@
         <v>94</v>
       </c>
       <c r="D209" t="s">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="E209" t="s">
         <v>641</v>
       </c>
       <c r="F209" t="s">
-        <v>1101</v>
+        <v>1092</v>
       </c>
       <c r="G209" s="10" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.35">
@@ -25163,10 +25178,10 @@
         <v>641</v>
       </c>
       <c r="F210" t="s">
-        <v>1101</v>
+        <v>1092</v>
       </c>
       <c r="G210" s="10" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.35">
@@ -25186,10 +25201,10 @@
         <v>641</v>
       </c>
       <c r="F211" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="G211" s="10" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.35">
@@ -25203,16 +25218,16 @@
         <v>155</v>
       </c>
       <c r="D212" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="E212" t="s">
         <v>41</v>
       </c>
       <c r="F212" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="G212" s="10" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.35">
@@ -25226,16 +25241,16 @@
         <v>155</v>
       </c>
       <c r="D213" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="E213" t="s">
         <v>41</v>
       </c>
       <c r="F213" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="G213" s="10" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.35">
@@ -25255,10 +25270,10 @@
         <v>26</v>
       </c>
       <c r="F214" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="G214" s="10" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.35">
@@ -25278,10 +25293,10 @@
         <v>26</v>
       </c>
       <c r="F215" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="G215" s="10" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.35">
@@ -25301,10 +25316,10 @@
         <v>57</v>
       </c>
       <c r="F216" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="G216" s="10" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.35">
@@ -25318,16 +25333,16 @@
         <v>155</v>
       </c>
       <c r="D217" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="E217" t="s">
         <v>41</v>
       </c>
       <c r="F217" t="s">
-        <v>1102</v>
+        <v>1093</v>
       </c>
       <c r="G217" s="10" t="s">
-        <v>1103</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.35">
@@ -25341,16 +25356,16 @@
         <v>155</v>
       </c>
       <c r="D218" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="E218" t="s">
         <v>41</v>
       </c>
       <c r="F218" t="s">
-        <v>1104</v>
+        <v>1095</v>
       </c>
       <c r="G218" s="10" t="s">
-        <v>1105</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.35">
@@ -25370,10 +25385,10 @@
         <v>41</v>
       </c>
       <c r="F219" t="s">
-        <v>1104</v>
+        <v>1095</v>
       </c>
       <c r="G219" s="10" t="s">
-        <v>1105</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.35">
@@ -25393,10 +25408,10 @@
         <v>26</v>
       </c>
       <c r="F220" t="s">
-        <v>1104</v>
+        <v>1095</v>
       </c>
       <c r="G220" s="10" t="s">
-        <v>1105</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.35">
@@ -25416,10 +25431,10 @@
         <v>26</v>
       </c>
       <c r="F221" t="s">
-        <v>1104</v>
+        <v>1095</v>
       </c>
       <c r="G221" s="10" t="s">
-        <v>1105</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.35">
@@ -25439,10 +25454,10 @@
         <v>41</v>
       </c>
       <c r="F222" t="s">
-        <v>1106</v>
+        <v>1097</v>
       </c>
       <c r="G222" s="10" t="s">
-        <v>1107</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.35">
@@ -25462,10 +25477,10 @@
         <v>26</v>
       </c>
       <c r="F223" t="s">
-        <v>1108</v>
+        <v>1099</v>
       </c>
       <c r="G223" s="10" t="s">
-        <v>1109</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.35">
@@ -25479,16 +25494,16 @@
         <v>155</v>
       </c>
       <c r="D224" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="E224" t="s">
         <v>41</v>
       </c>
       <c r="F224" t="s">
-        <v>1110</v>
+        <v>1101</v>
       </c>
       <c r="G224" s="10" t="s">
-        <v>1111</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.35">
@@ -25508,10 +25523,10 @@
         <v>41</v>
       </c>
       <c r="F225" t="s">
-        <v>1110</v>
+        <v>1101</v>
       </c>
       <c r="G225" s="10" t="s">
-        <v>1111</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.35">
@@ -25531,10 +25546,10 @@
         <v>26</v>
       </c>
       <c r="F226" t="s">
-        <v>1112</v>
+        <v>1103</v>
       </c>
       <c r="G226" s="10" t="s">
-        <v>1113</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.35">
@@ -25554,10 +25569,10 @@
         <v>641</v>
       </c>
       <c r="F227" t="s">
-        <v>1114</v>
+        <v>1105</v>
       </c>
       <c r="G227" s="10" t="s">
-        <v>1115</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.35">
@@ -25577,10 +25592,10 @@
         <v>641</v>
       </c>
       <c r="F228" t="s">
-        <v>1116</v>
+        <v>1107</v>
       </c>
       <c r="G228" s="10" t="s">
-        <v>1117</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.35">
@@ -25603,7 +25618,7 @@
         <v>299</v>
       </c>
       <c r="G229" s="10" t="s">
-        <v>1118</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.35">
@@ -25617,16 +25632,16 @@
         <v>104</v>
       </c>
       <c r="D230" t="s">
-        <v>1045</v>
+        <v>1036</v>
       </c>
       <c r="E230" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="F230" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
       <c r="G230" s="10" t="s">
-        <v>1120</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.35">
@@ -25640,16 +25655,16 @@
         <v>104</v>
       </c>
       <c r="D231" t="s">
-        <v>1045</v>
+        <v>1036</v>
       </c>
       <c r="E231" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="F231" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
       <c r="G231" s="10" t="s">
-        <v>1122</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.35">
@@ -25663,16 +25678,16 @@
         <v>104</v>
       </c>
       <c r="D232" t="s">
-        <v>1045</v>
+        <v>1036</v>
       </c>
       <c r="E232" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="F232" t="s">
-        <v>1123</v>
+        <v>1114</v>
       </c>
       <c r="G232" s="10" t="s">
-        <v>1124</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.35">
@@ -25692,10 +25707,10 @@
         <v>26</v>
       </c>
       <c r="F233" t="s">
-        <v>1125</v>
+        <v>1116</v>
       </c>
       <c r="G233" s="10" t="s">
-        <v>1126</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.35">
@@ -25712,10 +25727,10 @@
         <v>41</v>
       </c>
       <c r="F234" t="s">
-        <v>1127</v>
+        <v>1118</v>
       </c>
       <c r="G234" s="10" t="s">
-        <v>1128</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.35">
@@ -25729,16 +25744,16 @@
         <v>155</v>
       </c>
       <c r="D235" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="E235" t="s">
         <v>41</v>
       </c>
       <c r="F235" t="s">
-        <v>1127</v>
+        <v>1118</v>
       </c>
       <c r="G235" s="10" t="s">
-        <v>1128</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.35">
@@ -25758,10 +25773,10 @@
         <v>41</v>
       </c>
       <c r="F236" t="s">
-        <v>1127</v>
+        <v>1118</v>
       </c>
       <c r="G236" s="10" t="s">
-        <v>1128</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.35">
@@ -25781,10 +25796,10 @@
         <v>26</v>
       </c>
       <c r="F237" t="s">
-        <v>1129</v>
+        <v>1120</v>
       </c>
       <c r="G237" s="10" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.35">
@@ -25798,16 +25813,16 @@
         <v>62</v>
       </c>
       <c r="D238" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
       <c r="E238" t="s">
         <v>57</v>
       </c>
       <c r="F238" t="s">
-        <v>1129</v>
+        <v>1120</v>
       </c>
       <c r="G238" s="10" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.35">
@@ -25821,16 +25836,16 @@
         <v>62</v>
       </c>
       <c r="D239" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
       <c r="E239" t="s">
         <v>57</v>
       </c>
       <c r="F239" t="s">
-        <v>1131</v>
+        <v>1122</v>
       </c>
       <c r="G239" s="10" t="s">
-        <v>1132</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.35">
@@ -25850,10 +25865,10 @@
         <v>26</v>
       </c>
       <c r="F240" t="s">
-        <v>1131</v>
+        <v>1122</v>
       </c>
       <c r="G240" s="10" t="s">
-        <v>1132</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.35">
@@ -25873,10 +25888,10 @@
         <v>57</v>
       </c>
       <c r="F241" t="s">
-        <v>1131</v>
+        <v>1122</v>
       </c>
       <c r="G241" s="10" t="s">
-        <v>1132</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.35">
@@ -25896,10 +25911,10 @@
         <v>26</v>
       </c>
       <c r="F242" t="s">
-        <v>1133</v>
+        <v>1124</v>
       </c>
       <c r="G242" s="10" t="s">
-        <v>1134</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.35">
@@ -25919,10 +25934,10 @@
         <v>26</v>
       </c>
       <c r="F243" t="s">
-        <v>1133</v>
+        <v>1124</v>
       </c>
       <c r="G243" s="10" t="s">
-        <v>1134</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.35">
@@ -25942,10 +25957,10 @@
         <v>26</v>
       </c>
       <c r="F244" t="s">
-        <v>1135</v>
+        <v>1126</v>
       </c>
       <c r="G244" s="10" t="s">
-        <v>1136</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
@@ -25965,10 +25980,10 @@
         <v>641</v>
       </c>
       <c r="F245" t="s">
-        <v>1137</v>
+        <v>1128</v>
       </c>
       <c r="G245" s="10" t="s">
-        <v>1138</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.35">
@@ -25988,10 +26003,10 @@
         <v>641</v>
       </c>
       <c r="F246" t="s">
-        <v>1137</v>
+        <v>1128</v>
       </c>
       <c r="G246" s="10" t="s">
-        <v>1138</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.35">
@@ -26011,10 +26026,10 @@
         <v>641</v>
       </c>
       <c r="F247" t="s">
-        <v>1137</v>
+        <v>1128</v>
       </c>
       <c r="G247" s="10" t="s">
-        <v>1138</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.35">
@@ -26034,10 +26049,10 @@
         <v>641</v>
       </c>
       <c r="F248" t="s">
-        <v>1139</v>
+        <v>1130</v>
       </c>
       <c r="G248" s="10" t="s">
-        <v>1140</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.35">
@@ -26057,10 +26072,10 @@
         <v>26</v>
       </c>
       <c r="F249" t="s">
-        <v>1141</v>
+        <v>1132</v>
       </c>
       <c r="G249" s="10" t="s">
-        <v>1142</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.35">
@@ -26080,10 +26095,10 @@
         <v>57</v>
       </c>
       <c r="F250" t="s">
-        <v>1141</v>
+        <v>1132</v>
       </c>
       <c r="G250" s="10" t="s">
-        <v>1142</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.35">
@@ -26103,10 +26118,10 @@
         <v>26</v>
       </c>
       <c r="F251" t="s">
-        <v>1143</v>
+        <v>1134</v>
       </c>
       <c r="G251" s="10" t="s">
-        <v>1144</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.35">
@@ -26126,10 +26141,10 @@
         <v>26</v>
       </c>
       <c r="F252" t="s">
-        <v>1145</v>
+        <v>1136</v>
       </c>
       <c r="G252" s="10" t="s">
-        <v>1146</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.35">
@@ -26149,10 +26164,10 @@
         <v>26</v>
       </c>
       <c r="F253" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
       <c r="G253" s="10" t="s">
-        <v>1148</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.35">
@@ -26172,10 +26187,10 @@
         <v>41</v>
       </c>
       <c r="F254" t="s">
-        <v>1149</v>
+        <v>1140</v>
       </c>
       <c r="G254" s="10" t="s">
-        <v>1150</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.35">
@@ -26192,10 +26207,10 @@
         <v>41</v>
       </c>
       <c r="F255" t="s">
-        <v>1149</v>
+        <v>1140</v>
       </c>
       <c r="G255" s="10" t="s">
-        <v>1150</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.35">
@@ -26209,16 +26224,16 @@
         <v>155</v>
       </c>
       <c r="D256" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="E256" t="s">
         <v>41</v>
       </c>
       <c r="F256" t="s">
-        <v>1149</v>
+        <v>1140</v>
       </c>
       <c r="G256" s="10" t="s">
-        <v>1150</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.35">
@@ -26232,16 +26247,16 @@
         <v>104</v>
       </c>
       <c r="D257" t="s">
-        <v>1045</v>
+        <v>1036</v>
       </c>
       <c r="E257" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="F257" t="s">
-        <v>1151</v>
+        <v>1142</v>
       </c>
       <c r="G257" s="10" t="s">
-        <v>1152</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.35">
@@ -26252,16 +26267,16 @@
         <v>199</v>
       </c>
       <c r="C258" t="s">
-        <v>1048</v>
+        <v>1039</v>
       </c>
       <c r="E258" t="s">
         <v>76</v>
       </c>
       <c r="F258" t="s">
-        <v>1153</v>
+        <v>1144</v>
       </c>
       <c r="G258" s="10" t="s">
-        <v>1154</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.35">
@@ -26275,16 +26290,16 @@
         <v>104</v>
       </c>
       <c r="D259" t="s">
-        <v>1045</v>
+        <v>1036</v>
       </c>
       <c r="E259" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="F259" t="s">
-        <v>1155</v>
+        <v>1146</v>
       </c>
       <c r="G259" s="10" t="s">
-        <v>1156</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.35">
@@ -26298,16 +26313,16 @@
         <v>104</v>
       </c>
       <c r="D260" t="s">
-        <v>1045</v>
+        <v>1036</v>
       </c>
       <c r="E260" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="F260" t="s">
-        <v>1157</v>
+        <v>1148</v>
       </c>
       <c r="G260" s="10" t="s">
-        <v>1158</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.35">
@@ -26324,10 +26339,10 @@
         <v>418</v>
       </c>
       <c r="F261" t="s">
-        <v>1159</v>
+        <v>1150</v>
       </c>
       <c r="G261" s="10" t="s">
-        <v>1160</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.35">
@@ -26344,10 +26359,10 @@
         <v>26</v>
       </c>
       <c r="F262" t="s">
-        <v>1161</v>
+        <v>1152</v>
       </c>
       <c r="G262" s="10" t="s">
-        <v>1162</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.35">
@@ -26364,10 +26379,10 @@
         <v>418</v>
       </c>
       <c r="F263" t="s">
-        <v>1163</v>
+        <v>1154</v>
       </c>
       <c r="G263" s="10" t="s">
-        <v>1164</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.35">
@@ -26387,10 +26402,10 @@
         <v>26</v>
       </c>
       <c r="F264" t="s">
-        <v>1163</v>
+        <v>1154</v>
       </c>
       <c r="G264" s="10" t="s">
-        <v>1164</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.35">
@@ -26407,10 +26422,10 @@
         <v>121</v>
       </c>
       <c r="F265" t="s">
-        <v>1165</v>
+        <v>1156</v>
       </c>
       <c r="G265" s="10" t="s">
-        <v>1166</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.35">
@@ -26427,10 +26442,10 @@
         <v>121</v>
       </c>
       <c r="F266" t="s">
-        <v>1391</v>
+        <v>1371</v>
       </c>
       <c r="G266" s="10" t="s">
-        <v>1166</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.35">
@@ -26444,13 +26459,13 @@
         <v>492</v>
       </c>
       <c r="E267" t="s">
-        <v>1059</v>
+        <v>1050</v>
       </c>
       <c r="F267" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="G267" s="10" t="s">
-        <v>1168</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.35">
@@ -26467,10 +26482,10 @@
         <v>26</v>
       </c>
       <c r="F268" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="G268" s="10" t="s">
-        <v>1168</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.35">
@@ -26484,13 +26499,13 @@
         <v>492</v>
       </c>
       <c r="E269" t="s">
-        <v>1059</v>
+        <v>1050</v>
       </c>
       <c r="F269" t="s">
-        <v>1169</v>
+        <v>1160</v>
       </c>
       <c r="G269" s="10" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.35">
@@ -26510,10 +26525,10 @@
         <v>26</v>
       </c>
       <c r="F270" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="G270" s="10" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.35">
@@ -26527,13 +26542,13 @@
         <v>262</v>
       </c>
       <c r="E271" t="s">
-        <v>1034</v>
+        <v>1025</v>
       </c>
       <c r="F271" t="s">
-        <v>1173</v>
+        <v>1164</v>
       </c>
       <c r="G271" s="10" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.35">
@@ -26547,16 +26562,16 @@
         <v>92</v>
       </c>
       <c r="D272" t="s">
-        <v>1033</v>
+        <v>1024</v>
       </c>
       <c r="E272" t="s">
         <v>26</v>
       </c>
       <c r="F272" t="s">
-        <v>1173</v>
+        <v>1164</v>
       </c>
       <c r="G272" s="10" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.35">
@@ -26573,10 +26588,10 @@
         <v>26</v>
       </c>
       <c r="F273" t="s">
-        <v>1083</v>
+        <v>1074</v>
       </c>
       <c r="G273" s="10" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.35">
@@ -26593,10 +26608,10 @@
         <v>26</v>
       </c>
       <c r="F274" t="s">
-        <v>1083</v>
+        <v>1074</v>
       </c>
       <c r="G274" s="10" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.35">
@@ -26613,10 +26628,10 @@
         <v>26</v>
       </c>
       <c r="F275" t="s">
-        <v>1176</v>
+        <v>1167</v>
       </c>
       <c r="G275" s="10" t="s">
-        <v>1177</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.35">
@@ -26633,10 +26648,10 @@
         <v>26</v>
       </c>
       <c r="F276" t="s">
-        <v>1178</v>
+        <v>1169</v>
       </c>
       <c r="G276" s="10" t="s">
-        <v>1179</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.35">
@@ -26656,10 +26671,10 @@
         <v>26</v>
       </c>
       <c r="F277" t="s">
-        <v>1180</v>
+        <v>1171</v>
       </c>
       <c r="G277" s="10" t="s">
-        <v>1181</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.35">
@@ -26679,10 +26694,10 @@
         <v>26</v>
       </c>
       <c r="F278" t="s">
-        <v>1182</v>
+        <v>1173</v>
       </c>
       <c r="G278" s="10" t="s">
-        <v>1183</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.35">
@@ -26702,10 +26717,10 @@
         <v>41</v>
       </c>
       <c r="F279" t="s">
-        <v>1184</v>
+        <v>1175</v>
       </c>
       <c r="G279" s="10" t="s">
-        <v>1185</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.35">
@@ -26725,10 +26740,10 @@
         <v>41</v>
       </c>
       <c r="F280" t="s">
-        <v>1186</v>
+        <v>1177</v>
       </c>
       <c r="G280" s="10" t="s">
-        <v>1187</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.35">
@@ -26748,10 +26763,10 @@
         <v>26</v>
       </c>
       <c r="F281" t="s">
-        <v>1188</v>
+        <v>1179</v>
       </c>
       <c r="G281" s="10" t="s">
-        <v>1189</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.35">
@@ -26768,10 +26783,10 @@
         <v>71</v>
       </c>
       <c r="F282" t="s">
-        <v>1190</v>
+        <v>1181</v>
       </c>
       <c r="G282" s="10" t="s">
-        <v>1191</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.35">
@@ -26788,10 +26803,10 @@
         <v>71</v>
       </c>
       <c r="F283" t="s">
-        <v>1192</v>
+        <v>1183</v>
       </c>
       <c r="G283" s="10" t="s">
-        <v>1193</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.35">
@@ -26811,10 +26826,10 @@
         <v>26</v>
       </c>
       <c r="F284" t="s">
-        <v>1192</v>
+        <v>1183</v>
       </c>
       <c r="G284" s="10" t="s">
-        <v>1193</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.35">
@@ -26834,10 +26849,10 @@
         <v>26</v>
       </c>
       <c r="F285" t="s">
-        <v>1192</v>
+        <v>1183</v>
       </c>
       <c r="G285" s="10" t="s">
-        <v>1193</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.35">
@@ -26857,10 +26872,10 @@
         <v>26</v>
       </c>
       <c r="F286" t="s">
-        <v>1194</v>
+        <v>1185</v>
       </c>
       <c r="G286" s="10" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.35">
@@ -26880,10 +26895,10 @@
         <v>26</v>
       </c>
       <c r="F287" t="s">
-        <v>1194</v>
+        <v>1185</v>
       </c>
       <c r="G287" s="10" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.35">
@@ -26903,10 +26918,10 @@
         <v>26</v>
       </c>
       <c r="F288" t="s">
-        <v>1196</v>
+        <v>1187</v>
       </c>
       <c r="G288" s="10" t="s">
-        <v>1197</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.35">
@@ -26926,10 +26941,10 @@
         <v>26</v>
       </c>
       <c r="F289" t="s">
-        <v>1196</v>
+        <v>1187</v>
       </c>
       <c r="G289" s="10" t="s">
-        <v>1197</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.35">
@@ -26949,10 +26964,10 @@
         <v>26</v>
       </c>
       <c r="F290" t="s">
-        <v>1196</v>
+        <v>1187</v>
       </c>
       <c r="G290" s="10" t="s">
-        <v>1197</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.35">
@@ -26972,10 +26987,10 @@
         <v>26</v>
       </c>
       <c r="F291" t="s">
-        <v>1198</v>
+        <v>1189</v>
       </c>
       <c r="G291" s="10" t="s">
-        <v>1199</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.35">
@@ -26995,10 +27010,10 @@
         <v>26</v>
       </c>
       <c r="F292" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
       <c r="G292" s="10" t="s">
-        <v>1199</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.35">
@@ -27015,10 +27030,10 @@
         <v>95</v>
       </c>
       <c r="F293" t="s">
-        <v>1200</v>
+        <v>1191</v>
       </c>
       <c r="G293" s="10" t="s">
-        <v>1201</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.35">
@@ -27038,10 +27053,10 @@
         <v>95</v>
       </c>
       <c r="F294" t="s">
-        <v>1200</v>
+        <v>1191</v>
       </c>
       <c r="G294" s="10" t="s">
-        <v>1201</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.35">
@@ -27061,10 +27076,10 @@
         <v>71</v>
       </c>
       <c r="F295" t="s">
-        <v>1202</v>
+        <v>1193</v>
       </c>
       <c r="G295" s="10" t="s">
-        <v>1203</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.35">
@@ -27081,10 +27096,10 @@
         <v>71</v>
       </c>
       <c r="F296" t="s">
-        <v>1202</v>
+        <v>1193</v>
       </c>
       <c r="G296" s="10" t="s">
-        <v>1203</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.35">
@@ -27095,19 +27110,19 @@
         <v>189</v>
       </c>
       <c r="C297" t="s">
-        <v>1041</v>
+        <v>1032</v>
       </c>
       <c r="D297" t="s">
-        <v>1035</v>
+        <v>1026</v>
       </c>
       <c r="E297" t="s">
         <v>41</v>
       </c>
       <c r="F297" t="s">
-        <v>1251</v>
+        <v>1241</v>
       </c>
       <c r="G297" s="10" t="s">
-        <v>1252</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.35">
@@ -27118,19 +27133,19 @@
         <v>189</v>
       </c>
       <c r="C298" t="s">
-        <v>1041</v>
+        <v>1032</v>
       </c>
       <c r="D298" t="s">
-        <v>1035</v>
+        <v>1026</v>
       </c>
       <c r="E298" t="s">
         <v>41</v>
       </c>
       <c r="F298" t="s">
-        <v>1253</v>
+        <v>1243</v>
       </c>
       <c r="G298" s="10" t="s">
-        <v>1254</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.35">
@@ -27141,7 +27156,7 @@
         <v>190</v>
       </c>
       <c r="C299" t="s">
-        <v>1043</v>
+        <v>1034</v>
       </c>
       <c r="D299" t="s">
         <v>340</v>
@@ -27150,10 +27165,10 @@
         <v>41</v>
       </c>
       <c r="F299" t="s">
-        <v>1255</v>
+        <v>1245</v>
       </c>
       <c r="G299" s="10" t="s">
-        <v>1256</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.35">
@@ -27164,16 +27179,16 @@
         <v>208</v>
       </c>
       <c r="C300" t="s">
-        <v>1237</v>
+        <v>1227</v>
       </c>
       <c r="E300" t="s">
-        <v>1223</v>
+        <v>1213</v>
       </c>
       <c r="F300" t="s">
-        <v>1257</v>
+        <v>1247</v>
       </c>
       <c r="G300" s="10" t="s">
-        <v>1258</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.35">
@@ -27184,19 +27199,19 @@
         <v>211</v>
       </c>
       <c r="C301" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D301" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E301" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F301" t="s">
         <v>1247</v>
       </c>
-      <c r="D301" t="s">
+      <c r="G301" s="10" t="s">
         <v>1248</v>
-      </c>
-      <c r="E301" t="s">
-        <v>1223</v>
-      </c>
-      <c r="F301" t="s">
-        <v>1257</v>
-      </c>
-      <c r="G301" s="10" t="s">
-        <v>1258</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.35">
@@ -27213,13 +27228,13 @@
         <v>126</v>
       </c>
       <c r="E302" t="s">
-        <v>1223</v>
+        <v>1213</v>
       </c>
       <c r="F302" t="s">
-        <v>1259</v>
+        <v>1249</v>
       </c>
       <c r="G302" s="10" t="s">
-        <v>1260</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.35">
@@ -27230,16 +27245,16 @@
         <v>208</v>
       </c>
       <c r="C303" t="s">
-        <v>1237</v>
+        <v>1227</v>
       </c>
       <c r="E303" t="s">
-        <v>1223</v>
+        <v>1213</v>
       </c>
       <c r="F303" t="s">
-        <v>1261</v>
+        <v>1251</v>
       </c>
       <c r="G303" s="10" t="s">
-        <v>1258</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.35">
@@ -27253,16 +27268,16 @@
         <v>104</v>
       </c>
       <c r="D304" t="s">
-        <v>1045</v>
+        <v>1036</v>
       </c>
       <c r="E304" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="F304" t="s">
-        <v>1262</v>
+        <v>1252</v>
       </c>
       <c r="G304" s="10" t="s">
-        <v>1263</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.35">
@@ -27276,16 +27291,16 @@
         <v>32</v>
       </c>
       <c r="D305" t="s">
-        <v>1035</v>
+        <v>1026</v>
       </c>
       <c r="E305" t="s">
         <v>41</v>
       </c>
       <c r="F305" t="s">
-        <v>1264</v>
+        <v>1254</v>
       </c>
       <c r="G305" s="10" t="s">
-        <v>1265</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.35">
@@ -27302,10 +27317,10 @@
         <v>26</v>
       </c>
       <c r="F306" t="s">
-        <v>1266</v>
+        <v>1256</v>
       </c>
       <c r="G306" s="10" t="s">
-        <v>1267</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.35">
@@ -27316,16 +27331,16 @@
         <v>209</v>
       </c>
       <c r="C307" t="s">
-        <v>1245</v>
+        <v>1235</v>
       </c>
       <c r="E307" t="s">
-        <v>1238</v>
+        <v>1228</v>
       </c>
       <c r="F307" t="s">
-        <v>1268</v>
+        <v>1258</v>
       </c>
       <c r="G307" s="10" t="s">
-        <v>1258</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.35">
@@ -27339,13 +27354,13 @@
         <v>92</v>
       </c>
       <c r="E308" t="s">
-        <v>1238</v>
+        <v>1228</v>
       </c>
       <c r="F308" t="s">
-        <v>1269</v>
+        <v>1259</v>
       </c>
       <c r="G308" s="10" t="s">
-        <v>1258</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.35">
@@ -27365,10 +27380,10 @@
         <v>26</v>
       </c>
       <c r="F309" t="s">
-        <v>1297</v>
+        <v>1287</v>
       </c>
       <c r="G309" s="10" t="s">
-        <v>1298</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.35">
@@ -27385,10 +27400,10 @@
         <v>77</v>
       </c>
       <c r="F310" t="s">
-        <v>1299</v>
+        <v>1289</v>
       </c>
       <c r="G310" s="10" t="s">
-        <v>1300</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.35">
@@ -27402,16 +27417,16 @@
         <v>155</v>
       </c>
       <c r="D311" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="E311" t="s">
         <v>41</v>
       </c>
       <c r="F311" t="s">
-        <v>1301</v>
+        <v>1291</v>
       </c>
       <c r="G311" s="10" t="s">
-        <v>1302</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.35">
@@ -27431,10 +27446,10 @@
         <v>77</v>
       </c>
       <c r="F312" t="s">
-        <v>1303</v>
+        <v>1293</v>
       </c>
       <c r="G312" s="10" t="s">
-        <v>1304</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.35">
@@ -27454,10 +27469,10 @@
         <v>77</v>
       </c>
       <c r="F313" t="s">
-        <v>1303</v>
+        <v>1293</v>
       </c>
       <c r="G313" s="10" t="s">
-        <v>1304</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.35">
@@ -27474,10 +27489,10 @@
         <v>52</v>
       </c>
       <c r="F314" t="s">
-        <v>1305</v>
+        <v>1295</v>
       </c>
       <c r="G314" s="10" t="s">
-        <v>1306</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.35">
@@ -27491,16 +27506,16 @@
         <v>155</v>
       </c>
       <c r="D315" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="E315" t="s">
         <v>41</v>
       </c>
       <c r="F315" t="s">
-        <v>1307</v>
+        <v>1297</v>
       </c>
       <c r="G315" s="10" t="s">
-        <v>1308</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.35">
@@ -27514,16 +27529,16 @@
         <v>155</v>
       </c>
       <c r="D316" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="E316" t="s">
         <v>41</v>
       </c>
       <c r="F316" t="s">
-        <v>1309</v>
+        <v>1299</v>
       </c>
       <c r="G316" s="10" t="s">
-        <v>1310</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.35">
@@ -27543,10 +27558,10 @@
         <v>26</v>
       </c>
       <c r="F317" t="s">
-        <v>1311</v>
+        <v>1301</v>
       </c>
       <c r="G317" s="10" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.35">
@@ -27566,10 +27581,10 @@
         <v>26</v>
       </c>
       <c r="F318" t="s">
-        <v>1311</v>
+        <v>1301</v>
       </c>
       <c r="G318" s="10" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.35">
@@ -27583,16 +27598,16 @@
         <v>32</v>
       </c>
       <c r="D319" t="s">
-        <v>1035</v>
+        <v>1026</v>
       </c>
       <c r="E319" t="s">
         <v>41</v>
       </c>
       <c r="F319" t="s">
-        <v>1313</v>
+        <v>1303</v>
       </c>
       <c r="G319" s="10" t="s">
-        <v>1314</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.35">
@@ -27606,16 +27621,16 @@
         <v>32</v>
       </c>
       <c r="D320" t="s">
-        <v>1035</v>
+        <v>1026</v>
       </c>
       <c r="E320" t="s">
         <v>41</v>
       </c>
       <c r="F320" t="s">
-        <v>1315</v>
+        <v>1305</v>
       </c>
       <c r="G320" s="10" t="s">
-        <v>1316</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.35">
@@ -27629,16 +27644,16 @@
         <v>104</v>
       </c>
       <c r="D321" t="s">
-        <v>1045</v>
+        <v>1036</v>
       </c>
       <c r="E321" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="F321" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
       <c r="G321" s="10" t="s">
-        <v>1318</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.35">
@@ -27652,13 +27667,13 @@
         <v>94</v>
       </c>
       <c r="E322" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="F322" t="s">
-        <v>1319</v>
+        <v>1309</v>
       </c>
       <c r="G322" s="10" t="s">
-        <v>1318</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.35">
@@ -27669,19 +27684,19 @@
         <v>214</v>
       </c>
       <c r="C323" t="s">
-        <v>1356</v>
+        <v>1339</v>
       </c>
       <c r="D323" t="s">
-        <v>1043</v>
+        <v>1034</v>
       </c>
       <c r="E323" t="s">
         <v>41</v>
       </c>
       <c r="F323" t="s">
-        <v>1360</v>
+        <v>1343</v>
       </c>
       <c r="G323" s="10" t="s">
-        <v>1361</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.35">
@@ -27698,10 +27713,10 @@
         <v>26</v>
       </c>
       <c r="F324" t="s">
-        <v>1362</v>
+        <v>1345</v>
       </c>
       <c r="G324" s="10" t="s">
-        <v>1363</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.35">
@@ -27718,13 +27733,13 @@
         <v>262</v>
       </c>
       <c r="E325" t="s">
-        <v>1030</v>
+        <v>1021</v>
       </c>
       <c r="F325" t="s">
-        <v>1364</v>
+        <v>1347</v>
       </c>
       <c r="G325" s="10" t="s">
-        <v>1365</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.35">
@@ -27738,13 +27753,13 @@
         <v>92</v>
       </c>
       <c r="E326" t="s">
-        <v>1030</v>
+        <v>1021</v>
       </c>
       <c r="F326" t="s">
-        <v>1366</v>
+        <v>1349</v>
       </c>
       <c r="G326" s="10" t="s">
-        <v>1367</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.35">
@@ -27761,10 +27776,10 @@
         <v>87</v>
       </c>
       <c r="F327" t="s">
-        <v>1368</v>
+        <v>1351</v>
       </c>
       <c r="G327" s="10" t="s">
-        <v>1369</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.35">
@@ -27781,10 +27796,10 @@
         <v>26</v>
       </c>
       <c r="F328" t="s">
-        <v>1370</v>
+        <v>1353</v>
       </c>
       <c r="G328" s="10" t="s">
-        <v>1371</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.35">
@@ -27801,10 +27816,10 @@
         <v>26</v>
       </c>
       <c r="F329" t="s">
-        <v>1372</v>
+        <v>1355</v>
       </c>
       <c r="G329" s="10" t="s">
-        <v>1373</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.35">
@@ -27821,10 +27836,10 @@
         <v>26</v>
       </c>
       <c r="F330" t="s">
-        <v>1374</v>
+        <v>1357</v>
       </c>
       <c r="G330" s="10" t="s">
-        <v>1375</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.35">
@@ -27835,16 +27850,16 @@
         <v>206</v>
       </c>
       <c r="C331" t="s">
-        <v>1230</v>
+        <v>1220</v>
       </c>
       <c r="E331" t="s">
         <v>41</v>
       </c>
       <c r="F331" t="s">
-        <v>1376</v>
+        <v>1359</v>
       </c>
       <c r="G331" s="10" t="s">
-        <v>1377</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.35">
@@ -27861,10 +27876,10 @@
         <v>26</v>
       </c>
       <c r="F332" t="s">
-        <v>1392</v>
+        <v>1372</v>
       </c>
       <c r="G332" s="10" t="s">
-        <v>1393</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.35">
@@ -27884,10 +27899,10 @@
         <v>26</v>
       </c>
       <c r="F333" t="s">
-        <v>1394</v>
+        <v>1374</v>
       </c>
       <c r="G333" s="10" t="s">
-        <v>1395</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.35">
@@ -27907,10 +27922,10 @@
         <v>26</v>
       </c>
       <c r="F334" t="s">
-        <v>1396</v>
+        <v>1376</v>
       </c>
       <c r="G334" s="10" t="s">
-        <v>1397</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.35">
@@ -27921,19 +27936,19 @@
         <v>198</v>
       </c>
       <c r="C335" t="s">
-        <v>1056</v>
+        <v>1047</v>
       </c>
       <c r="D335" t="s">
-        <v>1383</v>
+        <v>1363</v>
       </c>
       <c r="E335" t="s">
         <v>76</v>
       </c>
       <c r="F335" t="s">
-        <v>1398</v>
+        <v>1378</v>
       </c>
       <c r="G335" s="10" t="s">
-        <v>1399</v>
+        <v>1379</v>
       </c>
     </row>
   </sheetData>

--- a/Jarman Cook Family Tree Horizontal.xlsx
+++ b/Jarman Cook Family Tree Horizontal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d10dd3e0b4db544c/Family/Family Tree/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{E154B492-3004-4B58-9717-E76019484D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5847A0D-3165-4DB7-A835-2F09C2135590}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06FE0F97-16B2-4D93-9250-24DC61DF50AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="9270" windowWidth="29040" windowHeight="15990" xr2:uid="{9EDB0DEF-723F-49BA-A111-5FEC4E2F8786}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{9EDB0DEF-723F-49BA-A111-5FEC4E2F8786}"/>
   </bookViews>
   <sheets>
     <sheet name="Tree" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5199" uniqueCount="1428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5269" uniqueCount="1444">
   <si>
     <t>(???) Unknown</t>
   </si>
@@ -2507,9 +2507,6 @@
   </si>
   <si>
     <t>(98) Mary Ann Eyles (née Whonsbon) (b. 1860-??-??, d. ????-??-??)&lt;----------------------------------</t>
-  </si>
-  <si>
-    <t>(94) Martha Whonsbon (née Williams) (b. 1857-03-14 Cressy, Tasmania, d. 1935-04-30)&lt;----------------</t>
   </si>
   <si>
     <t>(145) Owen Griffith Hughes (b. 1837-11-15 Angelsey Wales, UK, d. 1911-08-31)&lt;-----------------------</t>
@@ -2996,9 +2993,6 @@
     </r>
   </si>
   <si>
-    <t>(91) Joseph Whonsbon Snr (TC) (b. 1798-??-?? Unknown, d. 1884-12-27)</t>
-  </si>
-  <si>
     <t>(81) Joseph Whonsbon Jnr (b. 1854-08-17 Fairfield, Longford, Tasmania, d. 1892-04-06)&lt;--------------</t>
   </si>
   <si>
@@ -3023,9 +3017,6 @@
     <t>(140) Samuel Jarman Snr (b. 1719-??-??, d. ????-??-??)&lt;-----------------------------</t>
   </si>
   <si>
-    <t>(???) Unknown&lt;--------------------------------------------------------------------------------------</t>
-  </si>
-  <si>
     <t>(187) Geoffrey Garnet Cook (b. 1927-01-06 North Fitzroy, Victoria, d. 1997-10-14)&lt;----------------</t>
   </si>
   <si>
@@ -3695,12 +3686,6 @@
     <t>(205) Henry Cook (b. ????-??-??, d. ????-??-??)&lt;--------------------------------------------------------------------------------------</t>
   </si>
   <si>
-    <t>(209) Antonia Hall (b. ????-??-??, d. ????-??-??)</t>
-  </si>
-  <si>
-    <t>(208) Amelia Blakey (née Hall) (b. 1864-??-??, d. 1899-01-??)&lt;--------------------------------------------------------------------------------------</t>
-  </si>
-  <si>
     <t>(207) Charles Samuel Blakey (b. 1863-??-?? West Derby, Liverpool, d. 1921-07-10)&lt;--------------------------------------------------------------------------------------</t>
   </si>
   <si>
@@ -3881,9 +3866,6 @@
     <t>39 Miller St</t>
   </si>
   <si>
-    <t>(213) David Millar&lt;--------------------------------------------------------------------------------------</t>
-  </si>
-  <si>
     <t>-------| Married 2002-06-15 Holy Trinity, Kew, Victoria</t>
   </si>
   <si>
@@ -4088,9 +4070,6 @@
     <t>--------| Married 1781-05-25 Melbourn Cambridgeshire</t>
   </si>
   <si>
-    <t>(206) Jessie McIntosh (b. 1863-??-?? Buningyong Victoria, d. ????-??-??)&lt;--------------------------------------------------------------------------------------</t>
-  </si>
-  <si>
     <t>1802-01-01</t>
   </si>
   <si>
@@ -4295,9 +4274,6 @@
     <t>(217) William Newman (b. 1665-??-??, d. ????-??-??)</t>
   </si>
   <si>
-    <t>(210) Mary Hall (née Jordan) (b. ????-??-??, d. ????-??-??)</t>
-  </si>
-  <si>
     <t>(229) Thomas Wicks</t>
   </si>
   <si>
@@ -4374,6 +4350,78 @@
   </si>
   <si>
     <t>(211) Stanley Frederick Williamm Blakey (1898-??-??, d. 1899-05-??)</t>
+  </si>
+  <si>
+    <t>(247) Charlotte Whonsbon (b. ????-??-??, d. ????-??-??)</t>
+  </si>
+  <si>
+    <t>(91) Joseph Whonsbon Snr (TC) (b. 1805-??-?? Hedgerley England, d. 1884-12-27)&lt;----------------------------------------------</t>
+  </si>
+  <si>
+    <t>(246) Robert Whonsbon (b. 1763-??-??, d. 1809-??-??)</t>
+  </si>
+  <si>
+    <t>(94) Martha Acto Whonsbon (née Williams) (b. 1857-03-14 Cressy, Tasmania, d. 1935-04-30)&lt;----------------</t>
+  </si>
+  <si>
+    <t>(248) Dorothea Ada Kleimeyer (née Blakey) (b. 1890-??-??, d. 1979-??-??)</t>
+  </si>
+  <si>
+    <t>(213) David Millar (b. ????-??-??, d. ????-??-??)&lt;--------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>(250) Muriel Millar (b. ????-??-??, d. ????-??-??)&lt;--------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>(249) Bertram Holl Blakey (b. 1888-08-27, d. 1957-??-??)</t>
+  </si>
+  <si>
+    <t>(252) Mary Leach (b. 1838-??-??, d. 1898-??-??)</t>
+  </si>
+  <si>
+    <t>(208) Amelia Blakey (née Holl) (b. 1864-??-??, d. 1899-01-??)&lt;--------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>(210) Mary Holl (née Jordan) (b. ????-??-??, d. ????-??-??)</t>
+  </si>
+  <si>
+    <t>(253) Joseph Holl (b. ????-??-??, d. 1867-02-27)</t>
+  </si>
+  <si>
+    <t>(206) Jessie Cook (née McIntosh) (b. 1863-??-?? Buningyong Victoria, d. ????-??-??)&lt;--------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>(251) Samuel Blakey (b. 1839-??-?? Conisbrough Yorkshire, d. 1919-??-??)</t>
+  </si>
+  <si>
+    <t>(255) George Frederick Blakey (b. 1865-??-??, d. ????-??-??)</t>
+  </si>
+  <si>
+    <t>(256) Mary Elizabeth Blakey (b. 1866-??-??, d. ????-??-??)</t>
+  </si>
+  <si>
+    <t>(257) Matilda Ann Blakey (b. 1868-??-??, d. ????-??-??)</t>
+  </si>
+  <si>
+    <t>(258) Walter Blakey (b. 1870-??-??, d. ????-??-??)</t>
+  </si>
+  <si>
+    <t>(259) Ada Florence Blakey (b. 1872-??-??, d. ????-??-??)</t>
+  </si>
+  <si>
+    <t>(260) Arthur Oliver Blakey (b. 1874-??-??, d. ????-??-??)</t>
+  </si>
+  <si>
+    <t>(261) Emily Maud Blakey (b. 1876-??-??, d. ????-??-??)</t>
+  </si>
+  <si>
+    <t>(209) William Antonia Holl (b. 1839-01-28 West London, d. 1867-02-27)&lt;-------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>(254) Mary Ann Holl (nee ?) (b. 1806-??-??, d. ????-??-??)</t>
+  </si>
+  <si>
+    <t>--------| Married 1887 Hackney London UK</t>
   </si>
 </sst>
 </file>
@@ -4777,11 +4825,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L226"/>
+  <dimension ref="A1:L239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D169" sqref="D169"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E180" sqref="E180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4809,10 +4857,10 @@
         <v>702</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>703</v>
@@ -4821,99 +4869,99 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K3" s="2" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K4" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K5" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="J6" s="3" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="J7" s="3" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="J8" s="2" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="J9" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="J10" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="J11" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="I12" s="2" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>870</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -4921,10 +4969,10 @@
         <v>1</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -4932,10 +4980,10 @@
         <v>1</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
@@ -4943,10 +4991,10 @@
         <v>1</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -4954,10 +5002,10 @@
         <v>1</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="17" spans="7:12" x14ac:dyDescent="0.35">
@@ -4965,64 +5013,64 @@
         <v>1</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="18" spans="7:12" x14ac:dyDescent="0.35">
       <c r="H18" s="3" t="s">
-        <v>1394</v>
+        <v>1387</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="19" spans="7:12" x14ac:dyDescent="0.35">
       <c r="H19" s="3" t="s">
-        <v>1395</v>
+        <v>1388</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="20" spans="7:12" x14ac:dyDescent="0.35">
       <c r="H20" s="3" t="s">
-        <v>1396</v>
+        <v>1389</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="7:12" x14ac:dyDescent="0.35">
       <c r="H21" s="2" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>1399</v>
+        <v>1392</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="22" spans="7:12" x14ac:dyDescent="0.35">
@@ -5033,13 +5081,13 @@
         <v>1</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="23" spans="7:12" x14ac:dyDescent="0.35">
@@ -5050,10 +5098,10 @@
         <v>1</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="24" spans="7:12" x14ac:dyDescent="0.35">
@@ -5064,10 +5112,10 @@
         <v>1</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="25" spans="7:12" x14ac:dyDescent="0.35">
@@ -5078,10 +5126,10 @@
         <v>1</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="26" spans="7:12" x14ac:dyDescent="0.35">
@@ -5092,10 +5140,10 @@
         <v>1</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>1406</v>
+        <v>1398</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="27" spans="7:12" x14ac:dyDescent="0.35">
@@ -5106,10 +5154,10 @@
         <v>1</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>1407</v>
+        <v>1399</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="28" spans="7:12" x14ac:dyDescent="0.35">
@@ -5120,10 +5168,10 @@
         <v>1</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>1408</v>
+        <v>1400</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="29" spans="7:12" x14ac:dyDescent="0.35">
@@ -5134,10 +5182,10 @@
         <v>1</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>1409</v>
+        <v>1401</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="30" spans="7:12" x14ac:dyDescent="0.35">
@@ -5148,10 +5196,10 @@
         <v>1</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>1410</v>
+        <v>1402</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="31" spans="7:12" x14ac:dyDescent="0.35">
@@ -5162,15 +5210,15 @@
         <v>1</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>1411</v>
+        <v>1403</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="32" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G32" s="3" t="s">
-        <v>1414</v>
+        <v>1406</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>1</v>
@@ -5179,15 +5227,15 @@
         <v>1</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>1412</v>
+        <v>1404</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="33" spans="5:12" x14ac:dyDescent="0.35">
       <c r="G33" s="3" t="s">
-        <v>1415</v>
+        <v>1407</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>1</v>
@@ -5196,28 +5244,28 @@
         <v>1</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>1413</v>
+        <v>1405</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="34" spans="5:12" x14ac:dyDescent="0.35">
       <c r="G34" s="2" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>1402</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="35" spans="5:12" x14ac:dyDescent="0.35">
@@ -5232,10 +5280,10 @@
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="36" spans="5:12" x14ac:dyDescent="0.35">
@@ -5249,10 +5297,10 @@
         <v>1</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="37" spans="5:12" x14ac:dyDescent="0.35">
@@ -5267,7 +5315,7 @@
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="38" spans="5:12" x14ac:dyDescent="0.35">
@@ -5282,7 +5330,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="39" spans="5:12" x14ac:dyDescent="0.35">
@@ -5309,7 +5357,7 @@
         <v>1</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>1400</v>
+        <v>1393</v>
       </c>
       <c r="L40" s="2"/>
     </row>
@@ -5324,7 +5372,7 @@
         <v>1</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="L41" s="2"/>
     </row>
@@ -5339,15 +5387,15 @@
         <v>1</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>1381</v>
+        <v>1374</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="43" spans="5:12" x14ac:dyDescent="0.35">
       <c r="F43" s="2" t="s">
-        <v>1393</v>
+        <v>1386</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>3</v>
@@ -5359,10 +5407,10 @@
         <v>1</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="44" spans="5:12" x14ac:dyDescent="0.35">
@@ -5376,13 +5424,13 @@
         <v>1</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>1382</v>
+        <v>1375</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="45" spans="5:12" x14ac:dyDescent="0.35">
@@ -5396,10 +5444,10 @@
         <v>1</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>1386</v>
+        <v>1379</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="46" spans="5:12" x14ac:dyDescent="0.35">
@@ -5414,10 +5462,10 @@
         <v>1</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>1383</v>
+        <v>1376</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="47" spans="5:12" x14ac:dyDescent="0.35">
@@ -5432,10 +5480,10 @@
         <v>1</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>1385</v>
+        <v>1378</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="48" spans="5:12" x14ac:dyDescent="0.35">
@@ -5450,10 +5498,10 @@
         <v>1</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>1384</v>
+        <v>1377</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="49" spans="5:10" x14ac:dyDescent="0.35">
@@ -5461,7 +5509,7 @@
         <v>804</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>1</v>
@@ -5470,7 +5518,7 @@
         <v>1</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="50" spans="5:10" x14ac:dyDescent="0.35">
@@ -5478,7 +5526,7 @@
         <v>805</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>1</v>
@@ -5487,7 +5535,7 @@
         <v>1</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="51" spans="5:10" x14ac:dyDescent="0.35">
@@ -5495,7 +5543,7 @@
         <v>818</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>1</v>
@@ -5504,7 +5552,7 @@
         <v>1</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="52" spans="5:10" x14ac:dyDescent="0.35">
@@ -5512,7 +5560,7 @@
         <v>806</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>1</v>
@@ -5521,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="53" spans="5:10" x14ac:dyDescent="0.35">
@@ -5529,10 +5577,10 @@
         <v>807</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>1</v>
@@ -5543,7 +5591,7 @@
         <v>808</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>1</v>
@@ -5554,7 +5602,7 @@
         <v>819</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>1</v>
@@ -5565,13 +5613,13 @@
         <v>809</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="57" spans="5:10" x14ac:dyDescent="0.35">
@@ -5579,7 +5627,7 @@
         <v>810</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>1</v>
@@ -5593,16 +5641,16 @@
         <v>811</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>1390</v>
+        <v>1383</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>1403</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="59" spans="5:10" x14ac:dyDescent="0.35">
@@ -5610,13 +5658,13 @@
         <v>812</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="60" spans="5:10" x14ac:dyDescent="0.35">
@@ -5624,13 +5672,13 @@
         <v>820</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="61" spans="5:10" x14ac:dyDescent="0.35">
@@ -5638,13 +5686,13 @@
         <v>813</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>1416</v>
+        <v>1408</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="62" spans="5:10" x14ac:dyDescent="0.35">
@@ -5652,13 +5700,13 @@
         <v>814</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>1404</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="63" spans="5:10" x14ac:dyDescent="0.35">
@@ -5677,7 +5725,7 @@
         <v>1</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>1391</v>
+        <v>1384</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>3</v>
@@ -5716,7 +5764,7 @@
         <v>1</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>1388</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="70" spans="4:8" x14ac:dyDescent="0.35">
@@ -5724,7 +5772,7 @@
         <v>787</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>1</v>
@@ -5735,7 +5783,7 @@
         <v>788</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>1</v>
@@ -5746,10 +5794,10 @@
         <v>789</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>1417</v>
+        <v>1409</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>1</v>
@@ -5760,10 +5808,10 @@
         <v>792</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>1405</v>
+        <v>1397</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>3</v>
@@ -5774,16 +5822,16 @@
         <v>790</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>1392</v>
+        <v>1385</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>1387</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="75" spans="4:8" x14ac:dyDescent="0.35">
@@ -5814,7 +5862,7 @@
         <v>1</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>1389</v>
+        <v>1382</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>3</v>
@@ -5845,7 +5893,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>1398</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="79" spans="4:8" x14ac:dyDescent="0.35">
@@ -5856,7 +5904,7 @@
         <v>817</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="80" spans="4:8" x14ac:dyDescent="0.35">
@@ -5864,46 +5912,46 @@
         <v>1</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>1362</v>
+        <v>1355</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C81" s="8" t="s">
         <v>780</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C82" s="8" t="s">
         <v>781</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C83" s="6" t="s">
         <v>782</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C84" s="1" t="s">
         <v>1</v>
       </c>
@@ -5911,8 +5959,11 @@
         <v>1</v>
       </c>
       <c r="F84" s="2"/>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G84" s="2" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C85" s="1" t="s">
         <v>1</v>
       </c>
@@ -5920,8 +5971,11 @@
         <v>1</v>
       </c>
       <c r="F85" s="2"/>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G85" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C86" s="1" t="s">
         <v>1</v>
       </c>
@@ -5929,10 +5983,13 @@
         <v>1</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
+        <v>1421</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C87" s="1" t="s">
         <v>1</v>
       </c>
@@ -5942,8 +5999,11 @@
       <c r="F87" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G87" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C88" s="1" t="s">
         <v>1</v>
       </c>
@@ -5954,10 +6014,13 @@
         <v>821</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
+        <v>965</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C89" s="1" t="s">
         <v>1</v>
       </c>
@@ -5965,18 +6028,18 @@
         <v>1</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B90" s="5" t="s">
         <v>779</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>1</v>
@@ -5988,69 +6051,69 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B91" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>965</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B92" s="5" t="s">
         <v>866</v>
       </c>
-      <c r="C91" s="7" t="s">
-        <v>966</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B92" s="5" t="s">
-        <v>867</v>
-      </c>
       <c r="C92" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>791</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B93" s="5" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>793</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.35">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B94" s="6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>794</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.35">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B95" s="1" t="s">
         <v>4</v>
       </c>
@@ -6061,10 +6124,10 @@
         <v>795</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B96" s="1" t="s">
         <v>4</v>
       </c>
@@ -6075,7 +6138,7 @@
         <v>796</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.35">
@@ -6089,7 +6152,7 @@
         <v>797</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.35">
@@ -6103,7 +6166,7 @@
         <v>798</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.35">
@@ -6117,7 +6180,7 @@
         <v>799</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.35">
@@ -6131,10 +6194,10 @@
         <v>800</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.35">
@@ -6148,7 +6211,7 @@
         <v>801</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>4</v>
@@ -6176,10 +6239,10 @@
         <v>1</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>822</v>
+        <v>1423</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.35">
@@ -6190,10 +6253,10 @@
         <v>1</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>1418</v>
+        <v>1410</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.35">
@@ -6204,10 +6267,10 @@
         <v>1</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>1419</v>
+        <v>1411</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.35">
@@ -6218,10 +6281,10 @@
         <v>1</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>1420</v>
+        <v>1412</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.35">
@@ -6232,10 +6295,10 @@
         <v>1</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>1421</v>
+        <v>1413</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.35">
@@ -6246,10 +6309,10 @@
         <v>1</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>1422</v>
+        <v>1414</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.35">
@@ -6260,10 +6323,10 @@
         <v>1</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>1423</v>
+        <v>1415</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.35">
@@ -6274,10 +6337,10 @@
         <v>1</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>1424</v>
+        <v>1416</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.35">
@@ -6288,10 +6351,10 @@
         <v>1</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>1425</v>
+        <v>1417</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.35">
@@ -6324,7 +6387,7 @@
         <v>1</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.35">
@@ -6353,7 +6416,7 @@
         <v>1</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.35">
@@ -6375,10 +6438,10 @@
         <v>1</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.35">
@@ -6389,7 +6452,7 @@
         <v>1</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>2</v>
@@ -6420,7 +6483,7 @@
         <v>802</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>4</v>
@@ -6437,10 +6500,10 @@
         <v>815</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.35">
@@ -6454,7 +6517,7 @@
         <v>816</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.35">
@@ -6485,7 +6548,7 @@
         <v>1</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.35">
@@ -6513,7 +6576,7 @@
         <v>783</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>1</v>
@@ -6533,13 +6596,13 @@
         <v>784</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
@@ -6547,16 +6610,16 @@
         <v>700</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>785</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F130" s="7" t="s">
         <v>2</v>
@@ -6571,10 +6634,10 @@
         <v>786</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F131" s="7" t="s">
         <v>2</v>
@@ -6590,7 +6653,7 @@
         <v>1</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F132" s="7" t="s">
         <v>2</v>
@@ -6606,7 +6669,7 @@
         <v>1</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F133" s="7" t="s">
         <v>2</v>
@@ -6622,7 +6685,7 @@
         <v>1</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>1361</v>
+        <v>1354</v>
       </c>
       <c r="F134" s="7" t="s">
         <v>2</v>
@@ -6638,7 +6701,7 @@
         <v>1</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F135" s="7" t="s">
         <v>2</v>
@@ -6654,7 +6717,7 @@
         <v>1</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F136" s="7" t="s">
         <v>2</v>
@@ -6670,7 +6733,7 @@
         <v>1</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F137" s="7" t="s">
         <v>2</v>
@@ -6686,7 +6749,7 @@
         <v>1</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F138" s="7" t="s">
         <v>2</v>
@@ -6702,7 +6765,7 @@
         <v>1</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>1426</v>
+        <v>1418</v>
       </c>
       <c r="F139" s="7" t="s">
         <v>2</v>
@@ -6757,7 +6820,7 @@
         <v>1</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>2</v>
@@ -6785,7 +6848,7 @@
         <v>803</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.35">
@@ -6806,7 +6869,7 @@
       </c>
       <c r="D148" s="2"/>
       <c r="E148" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>2</v>
@@ -6873,7 +6936,7 @@
         <v>4</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>2</v>
@@ -6895,7 +6958,7 @@
         <v>4</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>3</v>
@@ -6923,7 +6986,7 @@
         <v>698</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>1332</v>
+        <v>1432</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>2</v>
@@ -6953,10 +7016,10 @@
         <v>4</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.35">
@@ -6980,6 +7043,9 @@
       <c r="D166" s="1" t="s">
         <v>698</v>
       </c>
+      <c r="F166" s="2" t="s">
+        <v>1433</v>
+      </c>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B167" s="1" t="s">
@@ -6992,8 +7058,8 @@
         <v>698</v>
       </c>
       <c r="E167" s="2"/>
-      <c r="F167" s="2" t="s">
-        <v>0</v>
+      <c r="F167" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.35">
@@ -7007,7 +7073,7 @@
         <v>698</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>2</v>
@@ -7023,11 +7089,11 @@
       <c r="D169" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="E169" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>0</v>
+      <c r="E169" s="4" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.35">
@@ -7037,11 +7103,14 @@
       <c r="C170" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D170" s="2" t="s">
-        <v>1312</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>3</v>
+      <c r="D170" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.35">
@@ -7051,14 +7120,14 @@
       <c r="C171" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D171" s="7" t="s">
-        <v>1427</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>1201</v>
+      <c r="D171" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.35">
@@ -7068,12 +7137,14 @@
       <c r="C172" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D172" s="1"/>
-      <c r="E172" s="2" t="s">
-        <v>1202</v>
+      <c r="D172" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>1437</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.35">
@@ -7083,9 +7154,14 @@
       <c r="C173" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D173" s="1"/>
-      <c r="F173" s="2" t="s">
-        <v>1401</v>
+      <c r="D173" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.35">
@@ -7095,267 +7171,477 @@
       <c r="C174" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D174" s="1"/>
+      <c r="D174" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B175" s="2" t="s">
-        <v>979</v>
+      <c r="B175" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="D175" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>1440</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B176" s="4" t="s">
-        <v>1316</v>
+      <c r="B176" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D176" s="1"/>
-      <c r="F176" s="2"/>
-    </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B177" s="4" t="s">
-        <v>1317</v>
+      <c r="D176" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B177" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D177" s="1"/>
-      <c r="F177" s="2"/>
-    </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D177" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B178" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C178" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E178" s="2"/>
+      <c r="D178" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="F178" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.35">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B179" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C179" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E179" s="2" t="s">
-        <v>1263</v>
-      </c>
-      <c r="F179" s="1" t="s">
+      <c r="D179" s="2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B180" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D180" s="7" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B181" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>1441</v>
+      </c>
+      <c r="G181" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C180" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C181" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D181" s="4" t="s">
-        <v>972</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B182" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C182" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D182" s="2" t="s">
-        <v>1204</v>
+      <c r="D182" s="7" t="s">
+        <v>1427</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B183" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C183" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D183" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E183" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="184" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B184" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C184" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D184" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="D184" s="7"/>
+      <c r="E184" s="2"/>
       <c r="F184" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B185" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C185" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D185" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>977</v>
-      </c>
-      <c r="F185" s="1" t="s">
+      <c r="D185" s="7"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B186" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B187" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D187" s="1"/>
+    </row>
+    <row r="188" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B188" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D188" s="1"/>
+    </row>
+    <row r="189" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B189" s="4" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D189" s="1"/>
+      <c r="F189" s="2"/>
+    </row>
+    <row r="190" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B190" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D190" s="1"/>
+      <c r="F190" s="2"/>
+    </row>
+    <row r="191" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C191" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C192" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F192" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C186" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="E186" s="2"/>
-      <c r="F186" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C187" s="2" t="s">
-        <v>1313</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C188" s="3" t="s">
-        <v>980</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C189" s="3" t="s">
-        <v>983</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="D190" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="D191" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>984</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="D192" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="193" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="D193" s="2" t="s">
-        <v>1314</v>
+      <c r="C193" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="194" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="D194" s="3" t="s">
-        <v>974</v>
+      <c r="C194" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>970</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="195" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="D195" s="3" t="s">
-        <v>973</v>
+      <c r="C195" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>1199</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F195" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C196" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F196" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="D196" s="3" t="s">
-        <v>1318</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F196" s="1" t="s">
+    <row r="197" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C197" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F197" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="E197" s="2" t="s">
-        <v>1315</v>
-      </c>
-      <c r="F197" s="1" t="s">
+    <row r="198" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C198" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F198" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="E198" s="2"/>
-      <c r="F198" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="199" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C199" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>698</v>
+      </c>
       <c r="E199" s="2"/>
       <c r="F199" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="200" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C200" s="1"/>
-    </row>
-    <row r="226" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F226" s="2"/>
+      <c r="C200" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="201" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C201" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="202" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C202" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="D203" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="D204" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="D205" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="D206" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="D207" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="D208" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="D209" s="3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="E210" s="2" t="s">
+        <v>1309</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="E211" s="2"/>
+      <c r="F211" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="E212" s="2"/>
+      <c r="F212" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C213" s="1"/>
+    </row>
+    <row r="239" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F239" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -7666,7 +7952,7 @@
         <v>8300</v>
       </c>
       <c r="M5" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -8094,7 +8380,7 @@
         <v>31</v>
       </c>
       <c r="V12" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="W12" t="s">
         <v>238</v>
@@ -8153,7 +8439,7 @@
         <v>240</v>
       </c>
       <c r="S13" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="T13" t="s">
         <v>241</v>
@@ -8162,7 +8448,7 @@
         <v>31</v>
       </c>
       <c r="V13" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="W13" t="s">
         <v>242</v>
@@ -8238,7 +8524,7 @@
         <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="D15" t="s">
         <v>56</v>
@@ -8253,13 +8539,13 @@
         <v>204</v>
       </c>
       <c r="I15" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="J15">
         <v>203</v>
       </c>
       <c r="K15" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="L15" s="9">
         <v>7020</v>
@@ -8347,7 +8633,7 @@
         <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E17" t="s">
         <v>57</v>
@@ -8494,19 +8780,19 @@
         <v>188</v>
       </c>
       <c r="I20" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="J20">
         <v>187</v>
       </c>
       <c r="K20" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="L20" s="9">
         <v>21886</v>
       </c>
       <c r="M20" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -8518,7 +8804,7 @@
         <v>30</v>
       </c>
       <c r="V20" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.35">
@@ -8529,7 +8815,7 @@
         <v>155</v>
       </c>
       <c r="D21" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="E21" t="s">
         <v>41</v>
@@ -8671,7 +8957,7 @@
         <v>30</v>
       </c>
       <c r="V23" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="W23" t="s">
         <v>261</v>
@@ -8762,7 +9048,7 @@
         <v>25</v>
       </c>
       <c r="I25" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -8812,7 +9098,7 @@
         <v>25</v>
       </c>
       <c r="I26" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -8856,7 +9142,7 @@
         <v>25</v>
       </c>
       <c r="I27" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -8979,7 +9265,7 @@
         <v>32</v>
       </c>
       <c r="I30" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="J30">
         <v>72</v>
@@ -9903,7 +10189,7 @@
         <v>704</v>
       </c>
       <c r="M51" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -10026,7 +10312,7 @@
         <v>198</v>
       </c>
       <c r="G54" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="H54">
         <v>10</v>
@@ -10586,7 +10872,7 @@
         <v>348</v>
       </c>
       <c r="S67" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="U67" t="s">
         <v>31</v>
@@ -11740,7 +12026,7 @@
         <v>131</v>
       </c>
       <c r="K92" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="L92" t="s">
         <v>415</v>
@@ -11793,7 +12079,7 @@
         <v>200</v>
       </c>
       <c r="K93" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="L93" t="s">
         <v>419</v>
@@ -12002,7 +12288,7 @@
         <v>31</v>
       </c>
       <c r="V97" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.35">
@@ -12726,7 +13012,7 @@
         <v>5845</v>
       </c>
       <c r="R111" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="S111" t="s">
         <v>471</v>
@@ -12858,19 +13144,19 @@
         <v>198</v>
       </c>
       <c r="G114" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H114">
         <v>179</v>
       </c>
       <c r="I114" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="J114">
         <v>180</v>
       </c>
       <c r="K114" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="L114" s="9">
         <v>5679</v>
@@ -12953,10 +13239,10 @@
         <v>119</v>
       </c>
       <c r="S115" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="T115" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="U115" t="s">
         <v>31</v>
@@ -13035,13 +13321,13 @@
         <v>178</v>
       </c>
       <c r="I117" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="J117">
         <v>177</v>
       </c>
       <c r="K117" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="L117" t="s">
         <v>486</v>
@@ -13094,7 +13380,7 @@
         <v>220</v>
       </c>
       <c r="L118" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="N118">
         <v>4</v>
@@ -13147,7 +13433,7 @@
         <v>37</v>
       </c>
       <c r="Q119" t="s">
-        <v>1333</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.35">
@@ -13558,13 +13844,13 @@
         <v>182</v>
       </c>
       <c r="I128" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="J128">
         <v>181</v>
       </c>
       <c r="K128" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="L128" t="s">
         <v>503</v>
@@ -13602,13 +13888,13 @@
         <v>176</v>
       </c>
       <c r="I129" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J129">
         <v>175</v>
       </c>
       <c r="K129" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="L129" t="s">
         <v>505</v>
@@ -13793,13 +14079,13 @@
         <v>174</v>
       </c>
       <c r="I133" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="J133">
         <v>173</v>
       </c>
       <c r="K133" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="L133" t="s">
         <v>644</v>
@@ -13879,7 +14165,7 @@
         <v>3141</v>
       </c>
       <c r="R134" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="T134" t="s">
         <v>646</v>
@@ -13917,7 +14203,7 @@
         <v>386</v>
       </c>
       <c r="M135" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="N135">
         <v>4</v>
@@ -13938,7 +14224,7 @@
         <v>31</v>
       </c>
       <c r="V135" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.35">
@@ -13997,7 +14283,7 @@
         <v>31</v>
       </c>
       <c r="V136" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.35">
@@ -14211,7 +14497,7 @@
         <v>155</v>
       </c>
       <c r="B141" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E141" t="s">
         <v>517</v>
@@ -14585,7 +14871,7 @@
         <v>94</v>
       </c>
       <c r="D148" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="E148" t="s">
         <v>641</v>
@@ -14609,7 +14895,7 @@
         <v>21295</v>
       </c>
       <c r="M148" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="N148">
         <v>4</v>
@@ -14621,7 +14907,7 @@
         <v>30</v>
       </c>
       <c r="V148" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="149" spans="1:22" x14ac:dyDescent="0.35">
@@ -15193,7 +15479,7 @@
         <v>220</v>
       </c>
       <c r="L161" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="N161">
         <v>4</v>
@@ -15205,7 +15491,7 @@
         <v>37</v>
       </c>
       <c r="Q161" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="R161">
         <v>4</v>
@@ -15225,7 +15511,7 @@
         <v>198</v>
       </c>
       <c r="G162" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H162">
         <v>10</v>
@@ -15240,7 +15526,7 @@
         <v>220</v>
       </c>
       <c r="L162" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="N162">
         <v>4</v>
@@ -15252,7 +15538,7 @@
         <v>37</v>
       </c>
       <c r="Q162" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="R162">
         <v>4</v>
@@ -15284,7 +15570,7 @@
         <v>220</v>
       </c>
       <c r="L163" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="N163">
         <v>4</v>
@@ -15310,7 +15596,7 @@
         <v>198</v>
       </c>
       <c r="G164" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H164">
         <v>10</v>
@@ -15325,7 +15611,7 @@
         <v>220</v>
       </c>
       <c r="L164" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="N164">
         <v>4</v>
@@ -15337,7 +15623,7 @@
         <v>37</v>
       </c>
       <c r="Q164" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="165" spans="1:22" x14ac:dyDescent="0.35">
@@ -15345,13 +15631,13 @@
         <v>179</v>
       </c>
       <c r="B165" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="D165" t="s">
         <v>492</v>
       </c>
       <c r="E165" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F165" t="s">
         <v>198</v>
@@ -15377,10 +15663,10 @@
         <v>180</v>
       </c>
       <c r="B166" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="E166" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F166" t="s">
         <v>192</v>
@@ -15424,13 +15710,13 @@
         <v>183</v>
       </c>
       <c r="K167" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="L167" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="M167" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="N167">
         <v>4</v>
@@ -15456,25 +15742,25 @@
         <v>198</v>
       </c>
       <c r="G168" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="H168">
         <v>186</v>
       </c>
       <c r="I168" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="J168">
         <v>185</v>
       </c>
       <c r="K168" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="L168" t="s">
-        <v>1334</v>
+        <v>1327</v>
       </c>
       <c r="M168" t="s">
-        <v>1335</v>
+        <v>1328</v>
       </c>
       <c r="N168">
         <v>4</v>
@@ -15512,7 +15798,7 @@
         <v>220</v>
       </c>
       <c r="M169" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="N169">
         <v>4</v>
@@ -15532,7 +15818,7 @@
         <v>92</v>
       </c>
       <c r="D170" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="E170" t="s">
         <v>26</v>
@@ -15541,7 +15827,7 @@
         <v>198</v>
       </c>
       <c r="G170" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="H170">
         <v>10</v>
@@ -15556,7 +15842,7 @@
         <v>220</v>
       </c>
       <c r="M170" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="N170">
         <v>4</v>
@@ -15579,7 +15865,7 @@
         <v>262</v>
       </c>
       <c r="E171" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="F171" t="s">
         <v>192</v>
@@ -15597,10 +15883,10 @@
         <v>220</v>
       </c>
       <c r="L171" t="s">
-        <v>1336</v>
+        <v>1329</v>
       </c>
       <c r="M171" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="N171">
         <v>4</v>
@@ -15612,10 +15898,10 @@
         <v>37</v>
       </c>
       <c r="Q171" t="s">
-        <v>1337</v>
+        <v>1330</v>
       </c>
       <c r="R171" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="172" spans="1:22" x14ac:dyDescent="0.35">
@@ -15626,7 +15912,7 @@
         <v>92</v>
       </c>
       <c r="E172" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="F172" t="s">
         <v>198</v>
@@ -15655,7 +15941,7 @@
         <v>32</v>
       </c>
       <c r="D173" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="E173" t="s">
         <v>41</v>
@@ -15667,19 +15953,19 @@
         <v>190</v>
       </c>
       <c r="I173" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="J173">
         <v>189</v>
       </c>
       <c r="K173" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="L173" s="9">
         <v>9868</v>
       </c>
       <c r="M173" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="N173">
         <v>1</v>
@@ -15694,7 +15980,7 @@
         <v>35717</v>
       </c>
       <c r="R173" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="174" spans="1:22" x14ac:dyDescent="0.35">
@@ -15705,10 +15991,10 @@
         <v>492</v>
       </c>
       <c r="D174" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="E174" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="F174" t="s">
         <v>198</v>
@@ -15720,13 +16006,13 @@
         <v>192</v>
       </c>
       <c r="I174" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="J174">
         <v>191</v>
       </c>
       <c r="K174" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="L174" s="9">
         <v>11896</v>
@@ -15746,10 +16032,10 @@
         <v>189</v>
       </c>
       <c r="B175" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="D175" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="E175" t="s">
         <v>41</v>
@@ -15761,19 +16047,19 @@
         <v>206</v>
       </c>
       <c r="I175" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="J175">
         <v>205</v>
       </c>
       <c r="K175" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="L175" t="s">
         <v>408</v>
       </c>
       <c r="M175" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="N175">
         <v>1</v>
@@ -15788,16 +16074,16 @@
         <v>20230</v>
       </c>
       <c r="R175" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="T175" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="U175" t="s">
         <v>31</v>
       </c>
       <c r="V175" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="176" spans="1:22" x14ac:dyDescent="0.35">
@@ -15805,7 +16091,7 @@
         <v>190</v>
       </c>
       <c r="B176" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="D176" t="s">
         <v>340</v>
@@ -15817,25 +16103,25 @@
         <v>198</v>
       </c>
       <c r="G176" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="H176">
         <v>208</v>
       </c>
       <c r="I176" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="J176">
         <v>207</v>
       </c>
       <c r="K176" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="L176" t="s">
         <v>692</v>
       </c>
       <c r="M176" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="N176">
         <v>1</v>
@@ -15850,10 +16136,10 @@
         <v>21171</v>
       </c>
       <c r="R176" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="T176" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="U176" t="s">
         <v>31</v>
@@ -15867,10 +16153,10 @@
         <v>104</v>
       </c>
       <c r="D177" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="E177" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="F177" t="s">
         <v>192</v>
@@ -15885,13 +16171,13 @@
         <v>213</v>
       </c>
       <c r="K177" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
       <c r="L177" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="M177" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="N177">
         <v>9</v>
@@ -15909,7 +16195,7 @@
         <v>46</v>
       </c>
       <c r="V177" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="178" spans="1:22" x14ac:dyDescent="0.35">
@@ -15917,13 +16203,13 @@
         <v>192</v>
       </c>
       <c r="B178" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="D178" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="E178" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="F178" t="s">
         <v>198</v>
@@ -15935,13 +16221,13 @@
         <v>199</v>
       </c>
       <c r="I178" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="J178">
         <v>198</v>
       </c>
       <c r="K178" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="L178" s="9">
         <v>2506</v>
@@ -15961,7 +16247,7 @@
         <v>94</v>
       </c>
       <c r="E179" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="F179" t="s">
         <v>192</v>
@@ -15976,13 +16262,13 @@
         <v>213</v>
       </c>
       <c r="K179" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
       <c r="P179" t="s">
         <v>37</v>
       </c>
       <c r="V179" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="180" spans="1:22" x14ac:dyDescent="0.35">
@@ -15990,7 +16276,7 @@
         <v>194</v>
       </c>
       <c r="B180" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="E180" t="s">
         <v>76</v>
@@ -16014,7 +16300,7 @@
         <v>37</v>
       </c>
       <c r="V180" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="181" spans="1:22" x14ac:dyDescent="0.35">
@@ -16022,7 +16308,7 @@
         <v>195</v>
       </c>
       <c r="B181" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="E181" t="s">
         <v>76</v>
@@ -16046,7 +16332,7 @@
         <v>37</v>
       </c>
       <c r="V181" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="182" spans="1:22" x14ac:dyDescent="0.35">
@@ -16054,10 +16340,10 @@
         <v>196</v>
       </c>
       <c r="B182" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="E182" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="F182" t="s">
         <v>192</v>
@@ -16066,13 +16352,13 @@
         <v>192</v>
       </c>
       <c r="I182" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="J182">
         <v>191</v>
       </c>
       <c r="K182" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="L182" s="9">
         <v>9133</v>
@@ -16092,7 +16378,7 @@
         <v>94</v>
       </c>
       <c r="E183" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="F183" t="s">
         <v>192</v>
@@ -16101,13 +16387,13 @@
         <v>192</v>
       </c>
       <c r="I183" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="J183">
         <v>191</v>
       </c>
       <c r="K183" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="L183" s="9">
         <v>10594</v>
@@ -16121,10 +16407,10 @@
         <v>198</v>
       </c>
       <c r="B184" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D184" t="s">
-        <v>1363</v>
+        <v>1356</v>
       </c>
       <c r="E184" t="s">
         <v>76</v>
@@ -16153,7 +16439,7 @@
         <v>199</v>
       </c>
       <c r="B185" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="E185" t="s">
         <v>76</v>
@@ -16162,7 +16448,7 @@
         <v>198</v>
       </c>
       <c r="G185" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="H185">
         <v>10</v>
@@ -16194,13 +16480,13 @@
         <v>192</v>
       </c>
       <c r="L186" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="P186" t="s">
         <v>37</v>
       </c>
       <c r="Q186" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="187" spans="1:22" x14ac:dyDescent="0.35">
@@ -16211,7 +16497,7 @@
         <v>492</v>
       </c>
       <c r="E187" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="F187" t="s">
         <v>198</v>
@@ -16220,7 +16506,7 @@
         <v>26</v>
       </c>
       <c r="L187" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="P187" t="s">
         <v>37</v>
@@ -16234,7 +16520,7 @@
         <v>262</v>
       </c>
       <c r="E188" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="F188" t="s">
         <v>192</v>
@@ -16280,10 +16566,10 @@
         <v>204</v>
       </c>
       <c r="B190" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="D190" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E190" t="s">
         <v>57</v>
@@ -16292,7 +16578,7 @@
         <v>198</v>
       </c>
       <c r="G190" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="H190">
         <v>10</v>
@@ -16344,7 +16630,7 @@
         <v>206</v>
       </c>
       <c r="B192" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="E192" t="s">
         <v>41</v>
@@ -16353,7 +16639,7 @@
         <v>198</v>
       </c>
       <c r="G192" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="H192">
         <v>10</v>
@@ -16368,10 +16654,10 @@
         <v>220</v>
       </c>
       <c r="L192" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="M192" t="s">
-        <v>1338</v>
+        <v>1331</v>
       </c>
       <c r="P192" t="s">
         <v>37</v>
@@ -16388,7 +16674,7 @@
         <v>126</v>
       </c>
       <c r="E193" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="F193" t="s">
         <v>192</v>
@@ -16406,10 +16692,10 @@
         <v>220</v>
       </c>
       <c r="L193" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="M193" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="N193">
         <v>4</v>
@@ -16424,16 +16710,16 @@
         <v>7862</v>
       </c>
       <c r="R193" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
       <c r="T193" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="U193" t="s">
         <v>31</v>
       </c>
       <c r="V193" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="194" spans="1:22" x14ac:dyDescent="0.35">
@@ -16441,46 +16727,46 @@
         <v>208</v>
       </c>
       <c r="B194" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="E194" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="F194" t="s">
         <v>198</v>
       </c>
       <c r="G194" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="H194">
         <v>210</v>
       </c>
       <c r="I194" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="J194">
         <v>209</v>
       </c>
       <c r="K194" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="L194" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="M194" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="P194" t="s">
         <v>37</v>
       </c>
       <c r="Q194" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="R194" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="T194" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="U194" t="s">
         <v>31</v>
@@ -16491,10 +16777,10 @@
         <v>209</v>
       </c>
       <c r="B195" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="E195" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="F195" t="s">
         <v>192</v>
@@ -16523,13 +16809,13 @@
         <v>92</v>
       </c>
       <c r="E196" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="F196" t="s">
         <v>198</v>
       </c>
       <c r="G196" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="H196">
         <v>10</v>
@@ -16552,13 +16838,13 @@
         <v>211</v>
       </c>
       <c r="B197" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="D197" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="E197" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="F197" t="s">
         <v>192</v>
@@ -16567,13 +16853,13 @@
         <v>208</v>
       </c>
       <c r="I197" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="J197">
         <v>207</v>
       </c>
       <c r="K197" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="L197" t="s">
         <v>103</v>
@@ -16591,16 +16877,16 @@
         <v>37</v>
       </c>
       <c r="Q197" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="R197" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="S197" t="s">
         <v>314</v>
       </c>
       <c r="T197" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="U197" t="s">
         <v>31</v>
@@ -16629,13 +16915,13 @@
         <v>183</v>
       </c>
       <c r="K198" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="L198" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="M198" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="N198">
         <v>4</v>
@@ -16647,7 +16933,7 @@
         <v>37</v>
       </c>
       <c r="Q198" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="199" spans="1:22" x14ac:dyDescent="0.35">
@@ -16658,7 +16944,7 @@
         <v>94</v>
       </c>
       <c r="E199" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="F199" t="s">
         <v>192</v>
@@ -16684,10 +16970,10 @@
         <v>214</v>
       </c>
       <c r="B200" t="s">
-        <v>1339</v>
+        <v>1332</v>
       </c>
       <c r="D200" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E200" t="s">
         <v>41</v>
@@ -16702,13 +16988,13 @@
         <v>188</v>
       </c>
       <c r="I200" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="J200">
         <v>187</v>
       </c>
       <c r="K200" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="L200" s="9">
         <v>21129</v>
@@ -16725,7 +17011,7 @@
         <v>115</v>
       </c>
       <c r="D201" t="s">
-        <v>1340</v>
+        <v>1333</v>
       </c>
       <c r="E201" t="s">
         <v>41</v>
@@ -16740,13 +17026,13 @@
         <v>188</v>
       </c>
       <c r="I201" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="J201">
         <v>187</v>
       </c>
       <c r="K201" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="L201" s="9">
         <v>22955</v>
@@ -16760,10 +17046,10 @@
         <v>216</v>
       </c>
       <c r="B202" t="s">
-        <v>1341</v>
+        <v>1334</v>
       </c>
       <c r="E202" t="s">
-        <v>1342</v>
+        <v>1335</v>
       </c>
       <c r="F202" t="s">
         <v>198</v>
@@ -16775,13 +17061,13 @@
         <v>199</v>
       </c>
       <c r="I202" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="J202">
         <v>198</v>
       </c>
       <c r="K202" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="P202" t="s">
         <v>30</v>
@@ -16920,13 +17206,13 @@
         <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="O2" t="s">
         <v>30</v>
@@ -16976,7 +17262,7 @@
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -17032,7 +17318,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="O4" t="s">
         <v>30</v>
@@ -17079,7 +17365,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="O5" t="s">
         <v>30</v>
@@ -17123,13 +17409,13 @@
         <v>26</v>
       </c>
       <c r="L6" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="M6">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="O6" t="s">
         <v>30</v>
@@ -17179,7 +17465,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="O7" t="s">
         <v>30</v>
@@ -17226,7 +17512,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="O8" t="s">
         <v>30</v>
@@ -17249,7 +17535,7 @@
         <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G9" t="s">
         <v>57</v>
@@ -17270,7 +17556,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="O9" t="s">
         <v>30</v>
@@ -17317,7 +17603,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="O10" t="s">
         <v>30</v>
@@ -17440,7 +17726,7 @@
         <v>77</v>
       </c>
       <c r="L13" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -17587,7 +17873,7 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="O16" t="s">
         <v>30</v>
@@ -17631,7 +17917,7 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="O17" t="s">
         <v>30</v>
@@ -17895,7 +18181,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="O23" t="s">
         <v>37</v>
@@ -17992,7 +18278,7 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="O25" t="s">
         <v>30</v>
@@ -18103,7 +18389,7 @@
         <v>527</v>
       </c>
       <c r="C28" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D28">
         <v>148</v>
@@ -18127,7 +18413,7 @@
         <v>517</v>
       </c>
       <c r="L28" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="M28">
         <v>4</v>
@@ -18159,7 +18445,7 @@
         <v>94</v>
       </c>
       <c r="F29" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="G29" t="s">
         <v>641</v>
@@ -18177,13 +18463,13 @@
         <v>641</v>
       </c>
       <c r="L29" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="M29">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="O29" t="s">
         <v>30</v>
@@ -18309,7 +18595,7 @@
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="O32" t="s">
         <v>30</v>
@@ -18347,7 +18633,7 @@
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="O33" t="s">
         <v>30</v>
@@ -18385,13 +18671,13 @@
         <v>26</v>
       </c>
       <c r="L34" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="M34">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="O34" t="s">
         <v>30</v>
@@ -18426,13 +18712,13 @@
         <v>26</v>
       </c>
       <c r="L35" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="M35">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="O35" t="s">
         <v>30</v>
@@ -18458,7 +18744,7 @@
         <v>32</v>
       </c>
       <c r="F36" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="G36" t="s">
         <v>41</v>
@@ -18470,16 +18756,16 @@
         <v>492</v>
       </c>
       <c r="J36" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="K36" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="M36">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="O36" t="s">
         <v>30</v>
@@ -18505,25 +18791,25 @@
         <v>104</v>
       </c>
       <c r="F37" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="G37" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="H37">
         <v>192</v>
       </c>
       <c r="I37" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="J37" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="K37" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="N37" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="O37" t="s">
         <v>30</v>
@@ -18543,10 +18829,10 @@
         <v>189</v>
       </c>
       <c r="E38" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="F38" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="G38" t="s">
         <v>41</v>
@@ -18555,7 +18841,7 @@
         <v>190</v>
       </c>
       <c r="I38" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="J38" t="s">
         <v>340</v>
@@ -18564,13 +18850,13 @@
         <v>41</v>
       </c>
       <c r="L38" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="M38">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="O38" t="s">
         <v>30</v>
@@ -18735,7 +19021,7 @@
         <v>146</v>
       </c>
       <c r="D5" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="E5" t="s">
         <v>78</v>
@@ -18764,7 +19050,7 @@
         <v>146</v>
       </c>
       <c r="D6" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="E6" t="s">
         <v>78</v>
@@ -18915,7 +19201,7 @@
         <v>155</v>
       </c>
       <c r="H11" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="I11" t="s">
         <v>41</v>
@@ -20207,7 +20493,7 @@
         <v>62</v>
       </c>
       <c r="H57" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I57" t="s">
         <v>57</v>
@@ -20366,7 +20652,7 @@
         <v>18</v>
       </c>
       <c r="C63" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="D63" t="s">
         <v>172</v>
@@ -20395,7 +20681,7 @@
         <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="D64" t="s">
         <v>160</v>
@@ -20410,7 +20696,7 @@
         <v>32</v>
       </c>
       <c r="H64" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="I64" t="s">
         <v>41</v>
@@ -20424,10 +20710,10 @@
         <v>20</v>
       </c>
       <c r="C65" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="D65" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="E65" t="s">
         <v>143</v>
@@ -20439,7 +20725,7 @@
         <v>32</v>
       </c>
       <c r="H65" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="I65" t="s">
         <v>41</v>
@@ -20453,10 +20739,10 @@
         <v>21</v>
       </c>
       <c r="C66" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
       <c r="D66" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="F66">
         <v>193</v>
@@ -20465,7 +20751,7 @@
         <v>94</v>
       </c>
       <c r="I66" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
@@ -20476,10 +20762,10 @@
         <v>21</v>
       </c>
       <c r="C67" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
       <c r="D67" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="F67">
         <v>191</v>
@@ -20488,10 +20774,10 @@
         <v>104</v>
       </c>
       <c r="H67" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="I67" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
@@ -20502,10 +20788,10 @@
         <v>21</v>
       </c>
       <c r="C68" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
       <c r="D68" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="F68">
         <v>213</v>
@@ -20514,7 +20800,7 @@
         <v>94</v>
       </c>
       <c r="I68" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
     </row>
   </sheetData>
@@ -20548,7 +20834,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="B1" t="s">
         <v>137</v>
@@ -21450,7 +21736,7 @@
         <v>26</v>
       </c>
       <c r="F41" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>611</v>
@@ -21556,7 +21842,7 @@
         <v>26</v>
       </c>
       <c r="F46" t="s">
-        <v>1364</v>
+        <v>1357</v>
       </c>
       <c r="G46" s="10" t="s">
         <v>550</v>
@@ -21688,7 +21974,7 @@
         <v>627</v>
       </c>
       <c r="G52" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -21711,7 +21997,7 @@
         <v>628</v>
       </c>
       <c r="G53" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -21734,7 +22020,7 @@
         <v>629</v>
       </c>
       <c r="G54" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -21800,7 +22086,7 @@
         <v>633</v>
       </c>
       <c r="G57" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -21909,7 +22195,7 @@
         <v>77</v>
       </c>
       <c r="F62" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="G62" s="10" t="s">
         <v>672</v>
@@ -21969,7 +22255,7 @@
         <v>155</v>
       </c>
       <c r="C65" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E65" t="s">
         <v>517</v>
@@ -22170,7 +22456,7 @@
         <v>26</v>
       </c>
       <c r="F74" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="G74" s="10" t="s">
         <v>675</v>
@@ -22463,7 +22749,7 @@
         <v>26</v>
       </c>
       <c r="F87" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="G87" s="10" t="s">
         <v>734</v>
@@ -22535,7 +22821,7 @@
         <v>739</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>1365</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
@@ -22555,7 +22841,7 @@
         <v>739</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
@@ -22578,7 +22864,7 @@
         <v>740</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
@@ -22638,7 +22924,7 @@
         <v>743</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>1366</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
@@ -22658,7 +22944,7 @@
         <v>743</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>1366</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
@@ -22678,7 +22964,7 @@
         <v>744</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>1367</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
@@ -22698,7 +22984,7 @@
         <v>745</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
@@ -22718,7 +23004,7 @@
         <v>746</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
@@ -22761,7 +23047,7 @@
         <v>749</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
@@ -22853,7 +23139,7 @@
         <v>753</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>1369</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
@@ -22873,7 +23159,7 @@
         <v>753</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>1370</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
@@ -23527,10 +23813,10 @@
         <v>230</v>
       </c>
       <c r="F136" t="s">
+        <v>848</v>
+      </c>
+      <c r="G136" s="10" t="s">
         <v>849</v>
-      </c>
-      <c r="G136" s="10" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
@@ -23550,10 +23836,10 @@
         <v>230</v>
       </c>
       <c r="F137" t="s">
+        <v>850</v>
+      </c>
+      <c r="G137" s="10" t="s">
         <v>851</v>
-      </c>
-      <c r="G137" s="10" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
@@ -23573,10 +23859,10 @@
         <v>26</v>
       </c>
       <c r="F138" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
@@ -23596,10 +23882,10 @@
         <v>57</v>
       </c>
       <c r="F139" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
@@ -23619,10 +23905,10 @@
         <v>26</v>
       </c>
       <c r="F140" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G140" s="10" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
@@ -23642,10 +23928,10 @@
         <v>230</v>
       </c>
       <c r="F141" t="s">
+        <v>855</v>
+      </c>
+      <c r="G141" s="10" t="s">
         <v>856</v>
-      </c>
-      <c r="G141" s="10" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
@@ -23665,7 +23951,7 @@
         <v>517</v>
       </c>
       <c r="F142" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G142" s="10" t="s">
         <v>778</v>
@@ -23688,7 +23974,7 @@
         <v>77</v>
       </c>
       <c r="F143" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G143" s="10" t="s">
         <v>778</v>
@@ -23711,7 +23997,7 @@
         <v>77</v>
       </c>
       <c r="F144" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G144" s="10" t="s">
         <v>778</v>
@@ -23734,7 +24020,7 @@
         <v>77</v>
       </c>
       <c r="F145" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G145" s="10" t="s">
         <v>778</v>
@@ -23757,7 +24043,7 @@
         <v>517</v>
       </c>
       <c r="F146" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G146" s="10" t="s">
         <v>778</v>
@@ -23780,7 +24066,7 @@
         <v>517</v>
       </c>
       <c r="F147" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G147" s="10" t="s">
         <v>778</v>
@@ -23803,7 +24089,7 @@
         <v>517</v>
       </c>
       <c r="F148" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G148" s="10" t="s">
         <v>778</v>
@@ -23826,7 +24112,7 @@
         <v>77</v>
       </c>
       <c r="F149" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G149" s="10" t="s">
         <v>778</v>
@@ -23849,7 +24135,7 @@
         <v>517</v>
       </c>
       <c r="F150" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G150" s="10" t="s">
         <v>778</v>
@@ -23869,7 +24155,7 @@
         <v>517</v>
       </c>
       <c r="F151" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G151" s="10" t="s">
         <v>778</v>
@@ -23889,10 +24175,10 @@
         <v>517</v>
       </c>
       <c r="F152" t="s">
+        <v>858</v>
+      </c>
+      <c r="G152" s="10" t="s">
         <v>859</v>
-      </c>
-      <c r="G152" s="10" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
@@ -23912,10 +24198,10 @@
         <v>517</v>
       </c>
       <c r="F153" t="s">
+        <v>860</v>
+      </c>
+      <c r="G153" s="10" t="s">
         <v>861</v>
-      </c>
-      <c r="G153" s="10" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
@@ -23935,10 +24221,10 @@
         <v>517</v>
       </c>
       <c r="F154" t="s">
+        <v>860</v>
+      </c>
+      <c r="G154" s="10" t="s">
         <v>861</v>
-      </c>
-      <c r="G154" s="10" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
@@ -23958,10 +24244,10 @@
         <v>517</v>
       </c>
       <c r="F155" t="s">
+        <v>860</v>
+      </c>
+      <c r="G155" s="10" t="s">
         <v>861</v>
-      </c>
-      <c r="G155" s="10" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
@@ -23981,10 +24267,10 @@
         <v>77</v>
       </c>
       <c r="F156" t="s">
+        <v>860</v>
+      </c>
+      <c r="G156" s="10" t="s">
         <v>861</v>
-      </c>
-      <c r="G156" s="10" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
@@ -24001,10 +24287,10 @@
         <v>517</v>
       </c>
       <c r="F157" t="s">
+        <v>862</v>
+      </c>
+      <c r="G157" s="10" t="s">
         <v>863</v>
-      </c>
-      <c r="G157" s="10" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
@@ -24027,7 +24313,7 @@
         <v>60</v>
       </c>
       <c r="G158" s="10" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
@@ -24050,7 +24336,7 @@
         <v>60</v>
       </c>
       <c r="G159" s="10" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
@@ -24067,10 +24353,10 @@
         <v>504</v>
       </c>
       <c r="F160" t="s">
+        <v>878</v>
+      </c>
+      <c r="G160" s="10" t="s">
         <v>879</v>
-      </c>
-      <c r="G160" s="10" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
@@ -24087,10 +24373,10 @@
         <v>504</v>
       </c>
       <c r="F161" t="s">
+        <v>878</v>
+      </c>
+      <c r="G161" s="10" t="s">
         <v>879</v>
-      </c>
-      <c r="G161" s="10" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
@@ -24107,10 +24393,10 @@
         <v>504</v>
       </c>
       <c r="F162" t="s">
+        <v>880</v>
+      </c>
+      <c r="G162" s="10" t="s">
         <v>881</v>
-      </c>
-      <c r="G162" s="10" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
@@ -24127,10 +24413,10 @@
         <v>504</v>
       </c>
       <c r="F163" t="s">
+        <v>880</v>
+      </c>
+      <c r="G163" s="10" t="s">
         <v>881</v>
-      </c>
-      <c r="G163" s="10" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.35">
@@ -24150,10 +24436,10 @@
         <v>26</v>
       </c>
       <c r="F164" t="s">
+        <v>894</v>
+      </c>
+      <c r="G164" s="10" t="s">
         <v>895</v>
-      </c>
-      <c r="G164" s="10" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
@@ -24176,7 +24462,7 @@
         <v>304</v>
       </c>
       <c r="G165" s="10" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
@@ -24196,10 +24482,10 @@
         <v>41</v>
       </c>
       <c r="F166" t="s">
+        <v>897</v>
+      </c>
+      <c r="G166" s="10" t="s">
         <v>898</v>
-      </c>
-      <c r="G166" s="10" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.35">
@@ -24219,10 +24505,10 @@
         <v>41</v>
       </c>
       <c r="F167" t="s">
+        <v>899</v>
+      </c>
+      <c r="G167" s="10" t="s">
         <v>900</v>
-      </c>
-      <c r="G167" s="10" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.35">
@@ -24239,10 +24525,10 @@
         <v>26</v>
       </c>
       <c r="F168" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="G168" s="10" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
@@ -24262,10 +24548,10 @@
         <v>26</v>
       </c>
       <c r="F169" t="s">
+        <v>902</v>
+      </c>
+      <c r="G169" s="10" t="s">
         <v>903</v>
-      </c>
-      <c r="G169" s="10" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
@@ -24285,10 +24571,10 @@
         <v>26</v>
       </c>
       <c r="F170" t="s">
+        <v>904</v>
+      </c>
+      <c r="G170" s="10" t="s">
         <v>905</v>
-      </c>
-      <c r="G170" s="10" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.35">
@@ -24308,10 +24594,10 @@
         <v>77</v>
       </c>
       <c r="F171" t="s">
+        <v>906</v>
+      </c>
+      <c r="G171" s="10" t="s">
         <v>907</v>
-      </c>
-      <c r="G171" s="10" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.35">
@@ -24331,10 +24617,10 @@
         <v>77</v>
       </c>
       <c r="F172" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="G172" s="10" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.35">
@@ -24354,10 +24640,10 @@
         <v>26</v>
       </c>
       <c r="F173" t="s">
+        <v>909</v>
+      </c>
+      <c r="G173" s="10" t="s">
         <v>910</v>
-      </c>
-      <c r="G173" s="10" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.35">
@@ -24377,10 +24663,10 @@
         <v>26</v>
       </c>
       <c r="F174" t="s">
+        <v>909</v>
+      </c>
+      <c r="G174" s="10" t="s">
         <v>910</v>
-      </c>
-      <c r="G174" s="10" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.35">
@@ -24400,10 +24686,10 @@
         <v>26</v>
       </c>
       <c r="F175" t="s">
+        <v>909</v>
+      </c>
+      <c r="G175" s="10" t="s">
         <v>910</v>
-      </c>
-      <c r="G175" s="10" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.35">
@@ -24423,10 +24709,10 @@
         <v>26</v>
       </c>
       <c r="F176" t="s">
+        <v>909</v>
+      </c>
+      <c r="G176" s="10" t="s">
         <v>910</v>
-      </c>
-      <c r="G176" s="10" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.35">
@@ -24440,16 +24726,16 @@
         <v>155</v>
       </c>
       <c r="D177" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="E177" t="s">
         <v>41</v>
       </c>
       <c r="F177" t="s">
+        <v>911</v>
+      </c>
+      <c r="G177" s="10" t="s">
         <v>912</v>
-      </c>
-      <c r="G177" s="10" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.35">
@@ -24469,10 +24755,10 @@
         <v>41</v>
       </c>
       <c r="F178" t="s">
+        <v>913</v>
+      </c>
+      <c r="G178" s="10" t="s">
         <v>914</v>
-      </c>
-      <c r="G178" s="10" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.35">
@@ -24492,10 +24778,10 @@
         <v>26</v>
       </c>
       <c r="F179" t="s">
+        <v>915</v>
+      </c>
+      <c r="G179" s="10" t="s">
         <v>916</v>
-      </c>
-      <c r="G179" s="10" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.35">
@@ -24515,10 +24801,10 @@
         <v>26</v>
       </c>
       <c r="F180" t="s">
+        <v>917</v>
+      </c>
+      <c r="G180" s="10" t="s">
         <v>918</v>
-      </c>
-      <c r="G180" s="10" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.35">
@@ -24538,10 +24824,10 @@
         <v>26</v>
       </c>
       <c r="F181" t="s">
+        <v>919</v>
+      </c>
+      <c r="G181" s="10" t="s">
         <v>920</v>
-      </c>
-      <c r="G181" s="10" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.35">
@@ -24561,10 +24847,10 @@
         <v>41</v>
       </c>
       <c r="F182" t="s">
+        <v>921</v>
+      </c>
+      <c r="G182" s="10" t="s">
         <v>922</v>
-      </c>
-      <c r="G182" s="10" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.35">
@@ -24584,10 +24870,10 @@
         <v>641</v>
       </c>
       <c r="F183" t="s">
+        <v>921</v>
+      </c>
+      <c r="G183" s="10" t="s">
         <v>922</v>
-      </c>
-      <c r="G183" s="10" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.35">
@@ -24607,10 +24893,10 @@
         <v>26</v>
       </c>
       <c r="F184" t="s">
+        <v>923</v>
+      </c>
+      <c r="G184" s="10" t="s">
         <v>924</v>
-      </c>
-      <c r="G184" s="10" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.35">
@@ -24627,10 +24913,10 @@
         <v>26</v>
       </c>
       <c r="F185" t="s">
+        <v>923</v>
+      </c>
+      <c r="G185" s="10" t="s">
         <v>924</v>
-      </c>
-      <c r="G185" s="10" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.35">
@@ -24650,10 +24936,10 @@
         <v>26</v>
       </c>
       <c r="F186" t="s">
+        <v>925</v>
+      </c>
+      <c r="G186" s="10" t="s">
         <v>926</v>
-      </c>
-      <c r="G186" s="10" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.35">
@@ -24673,10 +24959,10 @@
         <v>26</v>
       </c>
       <c r="F187" t="s">
+        <v>927</v>
+      </c>
+      <c r="G187" s="10" t="s">
         <v>928</v>
-      </c>
-      <c r="G187" s="10" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.35">
@@ -24693,10 +24979,10 @@
         <v>26</v>
       </c>
       <c r="F188" t="s">
+        <v>929</v>
+      </c>
+      <c r="G188" s="10" t="s">
         <v>930</v>
-      </c>
-      <c r="G188" s="10" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.35">
@@ -24713,10 +24999,10 @@
         <v>26</v>
       </c>
       <c r="F189" t="s">
+        <v>931</v>
+      </c>
+      <c r="G189" s="10" t="s">
         <v>932</v>
-      </c>
-      <c r="G189" s="10" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.35">
@@ -24736,10 +25022,10 @@
         <v>26</v>
       </c>
       <c r="F190" t="s">
+        <v>933</v>
+      </c>
+      <c r="G190" s="10" t="s">
         <v>934</v>
-      </c>
-      <c r="G190" s="10" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.35">
@@ -24756,10 +25042,10 @@
         <v>278</v>
       </c>
       <c r="F191" t="s">
+        <v>935</v>
+      </c>
+      <c r="G191" s="10" t="s">
         <v>936</v>
-      </c>
-      <c r="G191" s="10" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.35">
@@ -24779,10 +25065,10 @@
         <v>26</v>
       </c>
       <c r="F192" t="s">
+        <v>937</v>
+      </c>
+      <c r="G192" s="10" t="s">
         <v>938</v>
-      </c>
-      <c r="G192" s="10" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.35">
@@ -24802,7 +25088,7 @@
         <v>308</v>
       </c>
       <c r="G193" s="10" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.35">
@@ -24822,10 +25108,10 @@
         <v>26</v>
       </c>
       <c r="F194" t="s">
+        <v>939</v>
+      </c>
+      <c r="G194" s="10" t="s">
         <v>940</v>
-      </c>
-      <c r="G194" s="10" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.35">
@@ -24845,10 +25131,10 @@
         <v>95</v>
       </c>
       <c r="F195" t="s">
+        <v>941</v>
+      </c>
+      <c r="G195" s="10" t="s">
         <v>942</v>
-      </c>
-      <c r="G195" s="10" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.35">
@@ -24868,7 +25154,7 @@
         <v>283</v>
       </c>
       <c r="G196" s="10" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.35">
@@ -24888,7 +25174,7 @@
         <v>47</v>
       </c>
       <c r="G197" s="10" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.35">
@@ -24911,7 +25197,7 @@
         <v>47</v>
       </c>
       <c r="G198" s="10" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.35">
@@ -24931,10 +25217,10 @@
         <v>26</v>
       </c>
       <c r="F199" t="s">
+        <v>945</v>
+      </c>
+      <c r="G199" s="10" t="s">
         <v>946</v>
-      </c>
-      <c r="G199" s="10" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.35">
@@ -24954,10 +25240,10 @@
         <v>26</v>
       </c>
       <c r="F200" t="s">
+        <v>947</v>
+      </c>
+      <c r="G200" s="10" t="s">
         <v>948</v>
-      </c>
-      <c r="G200" s="10" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.35">
@@ -24977,10 +25263,10 @@
         <v>26</v>
       </c>
       <c r="F201" t="s">
+        <v>947</v>
+      </c>
+      <c r="G201" s="10" t="s">
         <v>948</v>
-      </c>
-      <c r="G201" s="10" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.35">
@@ -25000,10 +25286,10 @@
         <v>57</v>
       </c>
       <c r="F202" t="s">
+        <v>949</v>
+      </c>
+      <c r="G202" s="10" t="s">
         <v>950</v>
-      </c>
-      <c r="G202" s="10" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.35">
@@ -25023,10 +25309,10 @@
         <v>57</v>
       </c>
       <c r="F203" t="s">
+        <v>949</v>
+      </c>
+      <c r="G203" s="10" t="s">
         <v>950</v>
-      </c>
-      <c r="G203" s="10" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.35">
@@ -25043,10 +25329,10 @@
         <v>57</v>
       </c>
       <c r="F204" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="G204" s="10" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.35">
@@ -25060,16 +25346,16 @@
         <v>62</v>
       </c>
       <c r="D205" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E205" t="s">
         <v>57</v>
       </c>
       <c r="F205" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="G205" s="10" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.35">
@@ -25089,10 +25375,10 @@
         <v>57</v>
       </c>
       <c r="F206" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="G206" s="10" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.35">
@@ -25109,10 +25395,10 @@
         <v>57</v>
       </c>
       <c r="F207" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="G207" s="10" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
@@ -25132,10 +25418,10 @@
         <v>641</v>
       </c>
       <c r="F208" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="G208" s="10" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.35">
@@ -25149,16 +25435,16 @@
         <v>94</v>
       </c>
       <c r="D209" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="E209" t="s">
         <v>641</v>
       </c>
       <c r="F209" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="G209" s="10" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.35">
@@ -25178,10 +25464,10 @@
         <v>641</v>
       </c>
       <c r="F210" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="G210" s="10" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.35">
@@ -25201,10 +25487,10 @@
         <v>641</v>
       </c>
       <c r="F211" t="s">
+        <v>952</v>
+      </c>
+      <c r="G211" s="10" t="s">
         <v>953</v>
-      </c>
-      <c r="G211" s="10" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.35">
@@ -25218,16 +25504,16 @@
         <v>155</v>
       </c>
       <c r="D212" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="E212" t="s">
         <v>41</v>
       </c>
       <c r="F212" t="s">
+        <v>954</v>
+      </c>
+      <c r="G212" s="10" t="s">
         <v>955</v>
-      </c>
-      <c r="G212" s="10" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.35">
@@ -25241,16 +25527,16 @@
         <v>155</v>
       </c>
       <c r="D213" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="E213" t="s">
         <v>41</v>
       </c>
       <c r="F213" t="s">
+        <v>956</v>
+      </c>
+      <c r="G213" s="10" t="s">
         <v>957</v>
-      </c>
-      <c r="G213" s="10" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.35">
@@ -25270,10 +25556,10 @@
         <v>26</v>
       </c>
       <c r="F214" t="s">
+        <v>958</v>
+      </c>
+      <c r="G214" s="10" t="s">
         <v>959</v>
-      </c>
-      <c r="G214" s="10" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.35">
@@ -25293,10 +25579,10 @@
         <v>26</v>
       </c>
       <c r="F215" t="s">
+        <v>958</v>
+      </c>
+      <c r="G215" s="10" t="s">
         <v>959</v>
-      </c>
-      <c r="G215" s="10" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.35">
@@ -25316,10 +25602,10 @@
         <v>57</v>
       </c>
       <c r="F216" t="s">
+        <v>960</v>
+      </c>
+      <c r="G216" s="10" t="s">
         <v>961</v>
-      </c>
-      <c r="G216" s="10" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.35">
@@ -25333,16 +25619,16 @@
         <v>155</v>
       </c>
       <c r="D217" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="E217" t="s">
         <v>41</v>
       </c>
       <c r="F217" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="G217" s="10" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.35">
@@ -25356,16 +25642,16 @@
         <v>155</v>
       </c>
       <c r="D218" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="E218" t="s">
         <v>41</v>
       </c>
       <c r="F218" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="G218" s="10" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.35">
@@ -25385,10 +25671,10 @@
         <v>41</v>
       </c>
       <c r="F219" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="G219" s="10" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.35">
@@ -25408,10 +25694,10 @@
         <v>26</v>
       </c>
       <c r="F220" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="G220" s="10" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.35">
@@ -25431,10 +25717,10 @@
         <v>26</v>
       </c>
       <c r="F221" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="G221" s="10" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.35">
@@ -25454,10 +25740,10 @@
         <v>41</v>
       </c>
       <c r="F222" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="G222" s="10" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.35">
@@ -25477,10 +25763,10 @@
         <v>26</v>
       </c>
       <c r="F223" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="G223" s="10" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.35">
@@ -25494,16 +25780,16 @@
         <v>155</v>
       </c>
       <c r="D224" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="E224" t="s">
         <v>41</v>
       </c>
       <c r="F224" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="G224" s="10" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.35">
@@ -25523,10 +25809,10 @@
         <v>41</v>
       </c>
       <c r="F225" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="G225" s="10" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.35">
@@ -25546,10 +25832,10 @@
         <v>26</v>
       </c>
       <c r="F226" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="G226" s="10" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.35">
@@ -25569,10 +25855,10 @@
         <v>641</v>
       </c>
       <c r="F227" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="G227" s="10" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.35">
@@ -25592,10 +25878,10 @@
         <v>641</v>
       </c>
       <c r="F228" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="G228" s="10" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.35">
@@ -25618,7 +25904,7 @@
         <v>299</v>
       </c>
       <c r="G229" s="10" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.35">
@@ -25632,16 +25918,16 @@
         <v>104</v>
       </c>
       <c r="D230" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="E230" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="F230" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="G230" s="10" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.35">
@@ -25655,16 +25941,16 @@
         <v>104</v>
       </c>
       <c r="D231" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="E231" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="F231" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="G231" s="10" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.35">
@@ -25678,16 +25964,16 @@
         <v>104</v>
       </c>
       <c r="D232" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="E232" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="F232" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="G232" s="10" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.35">
@@ -25707,10 +25993,10 @@
         <v>26</v>
       </c>
       <c r="F233" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="G233" s="10" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.35">
@@ -25727,10 +26013,10 @@
         <v>41</v>
       </c>
       <c r="F234" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="G234" s="10" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.35">
@@ -25744,16 +26030,16 @@
         <v>155</v>
       </c>
       <c r="D235" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="E235" t="s">
         <v>41</v>
       </c>
       <c r="F235" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="G235" s="10" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.35">
@@ -25773,10 +26059,10 @@
         <v>41</v>
       </c>
       <c r="F236" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="G236" s="10" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.35">
@@ -25796,10 +26082,10 @@
         <v>26</v>
       </c>
       <c r="F237" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="G237" s="10" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.35">
@@ -25813,16 +26099,16 @@
         <v>62</v>
       </c>
       <c r="D238" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E238" t="s">
         <v>57</v>
       </c>
       <c r="F238" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="G238" s="10" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.35">
@@ -25836,16 +26122,16 @@
         <v>62</v>
       </c>
       <c r="D239" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E239" t="s">
         <v>57</v>
       </c>
       <c r="F239" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="G239" s="10" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.35">
@@ -25865,10 +26151,10 @@
         <v>26</v>
       </c>
       <c r="F240" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="G240" s="10" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.35">
@@ -25888,10 +26174,10 @@
         <v>57</v>
       </c>
       <c r="F241" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="G241" s="10" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.35">
@@ -25911,10 +26197,10 @@
         <v>26</v>
       </c>
       <c r="F242" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="G242" s="10" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.35">
@@ -25934,10 +26220,10 @@
         <v>26</v>
       </c>
       <c r="F243" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="G243" s="10" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.35">
@@ -25957,10 +26243,10 @@
         <v>26</v>
       </c>
       <c r="F244" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="G244" s="10" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
@@ -25980,10 +26266,10 @@
         <v>641</v>
       </c>
       <c r="F245" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="G245" s="10" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.35">
@@ -26003,10 +26289,10 @@
         <v>641</v>
       </c>
       <c r="F246" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="G246" s="10" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.35">
@@ -26026,10 +26312,10 @@
         <v>641</v>
       </c>
       <c r="F247" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="G247" s="10" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.35">
@@ -26049,10 +26335,10 @@
         <v>641</v>
       </c>
       <c r="F248" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="G248" s="10" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.35">
@@ -26072,10 +26358,10 @@
         <v>26</v>
       </c>
       <c r="F249" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="G249" s="10" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.35">
@@ -26095,10 +26381,10 @@
         <v>57</v>
       </c>
       <c r="F250" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="G250" s="10" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.35">
@@ -26118,10 +26404,10 @@
         <v>26</v>
       </c>
       <c r="F251" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="G251" s="10" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.35">
@@ -26141,10 +26427,10 @@
         <v>26</v>
       </c>
       <c r="F252" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="G252" s="10" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.35">
@@ -26164,10 +26450,10 @@
         <v>26</v>
       </c>
       <c r="F253" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="G253" s="10" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.35">
@@ -26187,10 +26473,10 @@
         <v>41</v>
       </c>
       <c r="F254" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G254" s="10" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.35">
@@ -26207,10 +26493,10 @@
         <v>41</v>
       </c>
       <c r="F255" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G255" s="10" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.35">
@@ -26224,16 +26510,16 @@
         <v>155</v>
       </c>
       <c r="D256" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="E256" t="s">
         <v>41</v>
       </c>
       <c r="F256" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G256" s="10" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.35">
@@ -26247,16 +26533,16 @@
         <v>104</v>
       </c>
       <c r="D257" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="E257" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="F257" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="G257" s="10" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.35">
@@ -26267,16 +26553,16 @@
         <v>199</v>
       </c>
       <c r="C258" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="E258" t="s">
         <v>76</v>
       </c>
       <c r="F258" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="G258" s="10" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.35">
@@ -26290,16 +26576,16 @@
         <v>104</v>
       </c>
       <c r="D259" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="E259" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="F259" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G259" s="10" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.35">
@@ -26313,16 +26599,16 @@
         <v>104</v>
       </c>
       <c r="D260" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="E260" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="F260" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="G260" s="10" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.35">
@@ -26339,10 +26625,10 @@
         <v>418</v>
       </c>
       <c r="F261" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="G261" s="10" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.35">
@@ -26359,10 +26645,10 @@
         <v>26</v>
       </c>
       <c r="F262" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="G262" s="10" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.35">
@@ -26379,10 +26665,10 @@
         <v>418</v>
       </c>
       <c r="F263" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="G263" s="10" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.35">
@@ -26402,10 +26688,10 @@
         <v>26</v>
       </c>
       <c r="F264" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="G264" s="10" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.35">
@@ -26422,10 +26708,10 @@
         <v>121</v>
       </c>
       <c r="F265" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="G265" s="10" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.35">
@@ -26442,10 +26728,10 @@
         <v>121</v>
       </c>
       <c r="F266" t="s">
-        <v>1371</v>
+        <v>1364</v>
       </c>
       <c r="G266" s="10" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.35">
@@ -26459,13 +26745,13 @@
         <v>492</v>
       </c>
       <c r="E267" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="F267" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="G267" s="10" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.35">
@@ -26482,10 +26768,10 @@
         <v>26</v>
       </c>
       <c r="F268" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="G268" s="10" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.35">
@@ -26499,13 +26785,13 @@
         <v>492</v>
       </c>
       <c r="E269" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="F269" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="G269" s="10" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.35">
@@ -26525,10 +26811,10 @@
         <v>26</v>
       </c>
       <c r="F270" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="G270" s="10" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.35">
@@ -26542,13 +26828,13 @@
         <v>262</v>
       </c>
       <c r="E271" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="F271" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="G271" s="10" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.35">
@@ -26562,16 +26848,16 @@
         <v>92</v>
       </c>
       <c r="D272" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="E272" t="s">
         <v>26</v>
       </c>
       <c r="F272" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="G272" s="10" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.35">
@@ -26588,10 +26874,10 @@
         <v>26</v>
       </c>
       <c r="F273" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="G273" s="10" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.35">
@@ -26608,10 +26894,10 @@
         <v>26</v>
       </c>
       <c r="F274" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="G274" s="10" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.35">
@@ -26628,10 +26914,10 @@
         <v>26</v>
       </c>
       <c r="F275" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="G275" s="10" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.35">
@@ -26648,10 +26934,10 @@
         <v>26</v>
       </c>
       <c r="F276" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="G276" s="10" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.35">
@@ -26671,10 +26957,10 @@
         <v>26</v>
       </c>
       <c r="F277" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="G277" s="10" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.35">
@@ -26694,10 +26980,10 @@
         <v>26</v>
       </c>
       <c r="F278" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="G278" s="10" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.35">
@@ -26717,10 +27003,10 @@
         <v>41</v>
       </c>
       <c r="F279" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="G279" s="10" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.35">
@@ -26740,10 +27026,10 @@
         <v>41</v>
       </c>
       <c r="F280" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="G280" s="10" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.35">
@@ -26763,10 +27049,10 @@
         <v>26</v>
       </c>
       <c r="F281" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="G281" s="10" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.35">
@@ -26783,10 +27069,10 @@
         <v>71</v>
       </c>
       <c r="F282" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="G282" s="10" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.35">
@@ -26803,10 +27089,10 @@
         <v>71</v>
       </c>
       <c r="F283" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="G283" s="10" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.35">
@@ -26826,10 +27112,10 @@
         <v>26</v>
       </c>
       <c r="F284" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="G284" s="10" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.35">
@@ -26849,10 +27135,10 @@
         <v>26</v>
       </c>
       <c r="F285" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="G285" s="10" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.35">
@@ -26872,10 +27158,10 @@
         <v>26</v>
       </c>
       <c r="F286" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="G286" s="10" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.35">
@@ -26895,10 +27181,10 @@
         <v>26</v>
       </c>
       <c r="F287" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="G287" s="10" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.35">
@@ -26918,10 +27204,10 @@
         <v>26</v>
       </c>
       <c r="F288" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="G288" s="10" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.35">
@@ -26941,10 +27227,10 @@
         <v>26</v>
       </c>
       <c r="F289" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="G289" s="10" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.35">
@@ -26964,10 +27250,10 @@
         <v>26</v>
       </c>
       <c r="F290" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="G290" s="10" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.35">
@@ -26987,10 +27273,10 @@
         <v>26</v>
       </c>
       <c r="F291" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="G291" s="10" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.35">
@@ -27010,10 +27296,10 @@
         <v>26</v>
       </c>
       <c r="F292" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="G292" s="10" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.35">
@@ -27030,10 +27316,10 @@
         <v>95</v>
       </c>
       <c r="F293" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="G293" s="10" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.35">
@@ -27053,10 +27339,10 @@
         <v>95</v>
       </c>
       <c r="F294" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="G294" s="10" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.35">
@@ -27076,10 +27362,10 @@
         <v>71</v>
       </c>
       <c r="F295" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="G295" s="10" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.35">
@@ -27096,10 +27382,10 @@
         <v>71</v>
       </c>
       <c r="F296" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="G296" s="10" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.35">
@@ -27110,19 +27396,19 @@
         <v>189</v>
       </c>
       <c r="C297" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="D297" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="E297" t="s">
         <v>41</v>
       </c>
       <c r="F297" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="G297" s="10" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.35">
@@ -27133,19 +27419,19 @@
         <v>189</v>
       </c>
       <c r="C298" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="D298" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="E298" t="s">
         <v>41</v>
       </c>
       <c r="F298" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="G298" s="10" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.35">
@@ -27156,7 +27442,7 @@
         <v>190</v>
       </c>
       <c r="C299" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="D299" t="s">
         <v>340</v>
@@ -27165,10 +27451,10 @@
         <v>41</v>
       </c>
       <c r="F299" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="G299" s="10" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.35">
@@ -27179,16 +27465,16 @@
         <v>208</v>
       </c>
       <c r="C300" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="E300" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="F300" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="G300" s="10" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.35">
@@ -27199,19 +27485,19 @@
         <v>211</v>
       </c>
       <c r="C301" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="D301" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="E301" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="F301" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="G301" s="10" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.35">
@@ -27228,13 +27514,13 @@
         <v>126</v>
       </c>
       <c r="E302" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="F302" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="G302" s="10" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.35">
@@ -27245,16 +27531,16 @@
         <v>208</v>
       </c>
       <c r="C303" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="E303" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="F303" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="G303" s="10" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.35">
@@ -27268,16 +27554,16 @@
         <v>104</v>
       </c>
       <c r="D304" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="E304" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="F304" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="G304" s="10" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.35">
@@ -27291,16 +27577,16 @@
         <v>32</v>
       </c>
       <c r="D305" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="E305" t="s">
         <v>41</v>
       </c>
       <c r="F305" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="G305" s="10" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.35">
@@ -27317,10 +27603,10 @@
         <v>26</v>
       </c>
       <c r="F306" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="G306" s="10" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.35">
@@ -27331,16 +27617,16 @@
         <v>209</v>
       </c>
       <c r="C307" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="E307" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="F307" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="G307" s="10" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.35">
@@ -27354,13 +27640,13 @@
         <v>92</v>
       </c>
       <c r="E308" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="F308" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="G308" s="10" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.35">
@@ -27380,10 +27666,10 @@
         <v>26</v>
       </c>
       <c r="F309" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="G309" s="10" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.35">
@@ -27400,10 +27686,10 @@
         <v>77</v>
       </c>
       <c r="F310" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="G310" s="10" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.35">
@@ -27417,16 +27703,16 @@
         <v>155</v>
       </c>
       <c r="D311" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="E311" t="s">
         <v>41</v>
       </c>
       <c r="F311" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="G311" s="10" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.35">
@@ -27446,10 +27732,10 @@
         <v>77</v>
       </c>
       <c r="F312" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
       <c r="G312" s="10" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.35">
@@ -27469,10 +27755,10 @@
         <v>77</v>
       </c>
       <c r="F313" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
       <c r="G313" s="10" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.35">
@@ -27489,10 +27775,10 @@
         <v>52</v>
       </c>
       <c r="F314" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="G314" s="10" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.35">
@@ -27506,16 +27792,16 @@
         <v>155</v>
       </c>
       <c r="D315" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="E315" t="s">
         <v>41</v>
       </c>
       <c r="F315" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="G315" s="10" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.35">
@@ -27529,16 +27815,16 @@
         <v>155</v>
       </c>
       <c r="D316" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="E316" t="s">
         <v>41</v>
       </c>
       <c r="F316" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="G316" s="10" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.35">
@@ -27558,10 +27844,10 @@
         <v>26</v>
       </c>
       <c r="F317" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="G317" s="10" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.35">
@@ -27581,10 +27867,10 @@
         <v>26</v>
       </c>
       <c r="F318" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="G318" s="10" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.35">
@@ -27598,16 +27884,16 @@
         <v>32</v>
       </c>
       <c r="D319" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="E319" t="s">
         <v>41</v>
       </c>
       <c r="F319" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="G319" s="10" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.35">
@@ -27621,16 +27907,16 @@
         <v>32</v>
       </c>
       <c r="D320" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="E320" t="s">
         <v>41</v>
       </c>
       <c r="F320" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="G320" s="10" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.35">
@@ -27644,16 +27930,16 @@
         <v>104</v>
       </c>
       <c r="D321" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="E321" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="F321" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="G321" s="10" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.35">
@@ -27667,13 +27953,13 @@
         <v>94</v>
       </c>
       <c r="E322" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="F322" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="G322" s="10" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.35">
@@ -27684,19 +27970,19 @@
         <v>214</v>
       </c>
       <c r="C323" t="s">
-        <v>1339</v>
+        <v>1332</v>
       </c>
       <c r="D323" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E323" t="s">
         <v>41</v>
       </c>
       <c r="F323" t="s">
-        <v>1343</v>
+        <v>1336</v>
       </c>
       <c r="G323" s="10" t="s">
-        <v>1344</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.35">
@@ -27713,10 +27999,10 @@
         <v>26</v>
       </c>
       <c r="F324" t="s">
-        <v>1345</v>
+        <v>1338</v>
       </c>
       <c r="G324" s="10" t="s">
-        <v>1346</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.35">
@@ -27733,13 +28019,13 @@
         <v>262</v>
       </c>
       <c r="E325" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="F325" t="s">
-        <v>1347</v>
+        <v>1340</v>
       </c>
       <c r="G325" s="10" t="s">
-        <v>1348</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.35">
@@ -27753,13 +28039,13 @@
         <v>92</v>
       </c>
       <c r="E326" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="F326" t="s">
-        <v>1349</v>
+        <v>1342</v>
       </c>
       <c r="G326" s="10" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.35">
@@ -27776,10 +28062,10 @@
         <v>87</v>
       </c>
       <c r="F327" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="G327" s="10" t="s">
-        <v>1352</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.35">
@@ -27796,10 +28082,10 @@
         <v>26</v>
       </c>
       <c r="F328" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="G328" s="10" t="s">
-        <v>1354</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.35">
@@ -27816,10 +28102,10 @@
         <v>26</v>
       </c>
       <c r="F329" t="s">
-        <v>1355</v>
+        <v>1348</v>
       </c>
       <c r="G329" s="10" t="s">
-        <v>1356</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.35">
@@ -27836,10 +28122,10 @@
         <v>26</v>
       </c>
       <c r="F330" t="s">
-        <v>1357</v>
+        <v>1350</v>
       </c>
       <c r="G330" s="10" t="s">
-        <v>1358</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.35">
@@ -27850,16 +28136,16 @@
         <v>206</v>
       </c>
       <c r="C331" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="E331" t="s">
         <v>41</v>
       </c>
       <c r="F331" t="s">
-        <v>1359</v>
+        <v>1352</v>
       </c>
       <c r="G331" s="10" t="s">
-        <v>1360</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.35">
@@ -27876,10 +28162,10 @@
         <v>26</v>
       </c>
       <c r="F332" t="s">
-        <v>1372</v>
+        <v>1365</v>
       </c>
       <c r="G332" s="10" t="s">
-        <v>1373</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.35">
@@ -27899,10 +28185,10 @@
         <v>26</v>
       </c>
       <c r="F333" t="s">
-        <v>1374</v>
+        <v>1367</v>
       </c>
       <c r="G333" s="10" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.35">
@@ -27922,10 +28208,10 @@
         <v>26</v>
       </c>
       <c r="F334" t="s">
-        <v>1376</v>
+        <v>1369</v>
       </c>
       <c r="G334" s="10" t="s">
-        <v>1377</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.35">
@@ -27936,19 +28222,19 @@
         <v>198</v>
       </c>
       <c r="C335" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D335" t="s">
-        <v>1363</v>
+        <v>1356</v>
       </c>
       <c r="E335" t="s">
         <v>76</v>
       </c>
       <c r="F335" t="s">
-        <v>1378</v>
+        <v>1371</v>
       </c>
       <c r="G335" s="10" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
     </row>
   </sheetData>
